--- a/Surveillance workbook_template.xlsx
+++ b/Surveillance workbook_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laithh\Box Sync\Laith pvt\research\WHO\Dengue\phaese V-20170802\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joacim\How To Guide-Demo Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7935"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,37 @@
     <definedName name="reg2">Sheet!A1:$B$9</definedName>
     <definedName name="reg3">Sheet!A12:$J$12</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>outbreak_moving</t>
+  </si>
+  <si>
+    <t>outbreak_moving_sd</t>
+  </si>
+  <si>
+    <t>outbreak_moving_limit</t>
+  </si>
+  <si>
+    <t>coef1</t>
+  </si>
+  <si>
+    <t>coef2</t>
+  </si>
+  <si>
+    <t>coef3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25461,8 +25490,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2286">
+  <cellXfs count="2729">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="815" fillId="0" borderId="815" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -27744,10 +27774,1344 @@
     <xf numFmtId="0" fontId="2279" fillId="0" borderId="2279" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2280" fillId="0" borderId="2280" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2281" fillId="0" borderId="2281" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="293" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27773,7 +29137,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="sv-SE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -28171,7 +29535,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="110901120"/>
@@ -28230,7 +29594,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="110889984"/>
@@ -28273,7 +29637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -28303,7 +29667,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -28317,7 +29681,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="sv-SE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -28704,7 +30068,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="113594752"/>
@@ -28763,7 +30127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="110938368"/>
@@ -28806,7 +30170,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -28836,7 +30200,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -28850,7 +30214,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="sv-SE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -28887,6 +30251,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -29455,6 +30820,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -29491,7 +30857,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="113518464"/>
@@ -29550,7 +30916,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="113516544"/>
@@ -29575,7 +30941,7 @@
             <a:pPr>
               <a:defRPr lang="sv-SE"/>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="113538176"/>
@@ -29610,6 +30976,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -29635,7 +31002,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -29665,7 +31032,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -29681,25 +31048,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190236</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>675481</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180710</xdr:rowOff>
+      <xdr:colOff>663574</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29718,26 +31079,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>604574</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>642938</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29769,13 +31124,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30125,7 +31474,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -30414,3228 +31763,4202 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BA420"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.140625" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.28515625" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.28515625" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.140625" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="17" width="9.140625" style="2283" collapsed="1"/>
-    <col min="18" max="18" width="6" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="4.85546875" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.140625" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.5703125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.85546875" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="11.85546875" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.85546875" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.85546875" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="12.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="16.7109375" style="2283" customWidth="1" collapsed="1"/>
-    <col min="33" max="36" width="21.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="40" width="13.42578125" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="25.28515625" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="11.85546875" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="25.28515625" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="48" width="15.85546875" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="52" width="20" style="2283" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="16384" width="9.140625" style="2283" collapsed="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="17" width="9.140625" style="1" collapsed="1"/>
+    <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="36" width="21.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="40" width="13.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="25.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="25.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="48" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="52" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="2282"/>
-      <c r="B1" s="2282"/>
+      <c r="A1" s="2701"/>
+      <c r="B1" s="2710"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="2282"/>
-      <c r="B2" s="2282"/>
+      <c r="A2" s="2702"/>
+      <c r="B2" s="2711"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="2282"/>
-      <c r="B3" s="2282"/>
+      <c r="A3" s="2703"/>
+      <c r="B3" s="2712"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="2282"/>
-      <c r="B4" s="2282"/>
+      <c r="A4" s="2704"/>
+      <c r="B4" s="2713"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="2282"/>
-      <c r="B5" s="2282"/>
+      <c r="A5" s="2705"/>
+      <c r="B5" s="2714"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A6" s="2282"/>
-      <c r="B6" s="2282"/>
+      <c r="A6" s="2706"/>
+      <c r="B6" s="2715"/>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="2282"/>
-      <c r="B7" s="2282"/>
+      <c r="A7" s="2707"/>
+      <c r="B7" s="2716"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A8" s="2282"/>
-      <c r="B8" s="2282"/>
+      <c r="A8" s="2708"/>
+      <c r="B8" s="2717"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="2282"/>
-      <c r="B9" s="2282"/>
+      <c r="A9" s="2709"/>
+      <c r="B9" s="2718"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="2282"/>
-      <c r="B12" s="2282"/>
-      <c r="C12" s="2282"/>
-      <c r="D12" s="2282"/>
-      <c r="E12" s="2282"/>
-      <c r="F12" s="2282"/>
-      <c r="G12" s="2282"/>
-      <c r="H12" s="2282"/>
-      <c r="I12" s="2282"/>
-      <c r="J12" s="2282"/>
-      <c r="K12" s="2282"/>
-      <c r="L12" s="2282"/>
-      <c r="R12" s="2284"/>
-      <c r="S12" s="2284"/>
-      <c r="T12" s="2284"/>
-      <c r="U12" s="2284"/>
-      <c r="V12" s="2284"/>
-      <c r="W12" s="2284"/>
-      <c r="X12" s="2284"/>
-      <c r="Y12" s="2284"/>
+    <row r="12" spans="1:53" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2719"/>
+      <c r="B12" s="2720"/>
+      <c r="C12" s="2721"/>
+      <c r="D12" s="2722"/>
+      <c r="E12" s="2723"/>
+      <c r="F12" s="2724"/>
+      <c r="G12" s="2725"/>
+      <c r="H12" s="2726"/>
+      <c r="I12" s="2727"/>
+      <c r="J12" s="2728"/>
+      <c r="K12" s="2283"/>
+      <c r="L12" s="2284"/>
+      <c r="Q12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2285" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2286" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2287" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="2288" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="2289" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="2290" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="2291" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="2292" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="C13" s="1979"/>
-      <c r="D13" s="1977"/>
-      <c r="E13" s="1976"/>
-      <c r="F13" s="1978"/>
-      <c r="G13" s="1980"/>
-      <c r="H13" s="1981"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="2285"/>
-      <c r="S13" s="2285"/>
-      <c r="T13" s="2285"/>
-      <c r="U13" s="2285"/>
-      <c r="V13" s="2285"/>
-      <c r="W13" s="2285"/>
-      <c r="X13" s="2285"/>
-      <c r="Y13" s="2285"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="1568"/>
-      <c r="AH13" s="1569"/>
-      <c r="AI13" s="1570"/>
-      <c r="AJ13" s="1571"/>
-      <c r="AK13" s="1572"/>
-      <c r="AL13" s="1573"/>
-      <c r="AM13" s="1574"/>
-      <c r="AN13" s="1575"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="22"/>
-      <c r="BA13" s="23"/>
+      <c r="C13" s="1980"/>
+      <c r="D13" s="1978"/>
+      <c r="E13" s="1977"/>
+      <c r="F13" s="1979"/>
+      <c r="G13" s="1981"/>
+      <c r="H13" s="1982"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6">
+        <v>88</v>
+      </c>
+      <c r="R13" s="2293">
+        <v>15</v>
+      </c>
+      <c r="S13" s="2344">
+        <v>2</v>
+      </c>
+      <c r="T13" s="2395">
+        <v>1.1952380718568975E-2</v>
+      </c>
+      <c r="U13" s="2446">
+        <v>1.4403974992492239E-2</v>
+      </c>
+      <c r="V13" s="2497">
+        <v>2.9957349459184275E-2</v>
+      </c>
+      <c r="W13" s="2548">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X13" s="2599">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y13" s="2650">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="1569"/>
+      <c r="AH13" s="1570"/>
+      <c r="AI13" s="1571"/>
+      <c r="AJ13" s="1572"/>
+      <c r="AK13" s="1573"/>
+      <c r="AL13" s="1574"/>
+      <c r="AM13" s="1575"/>
+      <c r="AN13" s="1576"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="23"/>
+      <c r="BA13" s="24"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="C14" s="1985"/>
-      <c r="D14" s="1983"/>
-      <c r="E14" s="1982"/>
-      <c r="F14" s="1984"/>
-      <c r="G14" s="1986"/>
-      <c r="H14" s="1987"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="2285"/>
-      <c r="S14" s="2285"/>
-      <c r="T14" s="2285"/>
-      <c r="U14" s="2285"/>
-      <c r="V14" s="2285"/>
-      <c r="W14" s="2285"/>
-      <c r="X14" s="2285"/>
-      <c r="Y14" s="2285"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="1576"/>
-      <c r="AH14" s="1577"/>
-      <c r="AI14" s="1578"/>
-      <c r="AJ14" s="1579"/>
-      <c r="AK14" s="1580"/>
-      <c r="AL14" s="1581"/>
-      <c r="AM14" s="1582"/>
-      <c r="AN14" s="1583"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="40"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="43"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="46"/>
+      <c r="C14" s="1986"/>
+      <c r="D14" s="1984"/>
+      <c r="E14" s="1983"/>
+      <c r="F14" s="1985"/>
+      <c r="G14" s="1987"/>
+      <c r="H14" s="1988"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="29">
+        <v>88</v>
+      </c>
+      <c r="R14" s="2294">
+        <v>15</v>
+      </c>
+      <c r="S14" s="2345">
+        <v>3</v>
+      </c>
+      <c r="T14" s="2396">
+        <v>1.122713755580336E-2</v>
+      </c>
+      <c r="U14" s="2447">
+        <v>1.3963378552634385E-2</v>
+      </c>
+      <c r="V14" s="2498">
+        <v>2.868136074659634E-2</v>
+      </c>
+      <c r="W14" s="2549">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X14" s="2600">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y14" s="2651">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="1577"/>
+      <c r="AH14" s="1578"/>
+      <c r="AI14" s="1579"/>
+      <c r="AJ14" s="1580"/>
+      <c r="AK14" s="1581"/>
+      <c r="AL14" s="1582"/>
+      <c r="AM14" s="1583"/>
+      <c r="AN14" s="1584"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="41"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="47"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="C15" s="1991"/>
-      <c r="D15" s="1989"/>
-      <c r="E15" s="1988"/>
-      <c r="F15" s="1990"/>
-      <c r="G15" s="1992"/>
-      <c r="H15" s="1993"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="2285"/>
-      <c r="S15" s="2285"/>
-      <c r="T15" s="2285"/>
-      <c r="U15" s="2285"/>
-      <c r="V15" s="2285"/>
-      <c r="W15" s="2285"/>
-      <c r="X15" s="2285"/>
-      <c r="Y15" s="2285"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="1584"/>
-      <c r="AH15" s="1585"/>
-      <c r="AI15" s="1586"/>
-      <c r="AJ15" s="1587"/>
-      <c r="AK15" s="1588"/>
-      <c r="AL15" s="1589"/>
-      <c r="AM15" s="1590"/>
-      <c r="AN15" s="1591"/>
-      <c r="AO15" s="57"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="59"/>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="61"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="64"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="67"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="69"/>
+      <c r="C15" s="1992"/>
+      <c r="D15" s="1990"/>
+      <c r="E15" s="1989"/>
+      <c r="F15" s="1991"/>
+      <c r="G15" s="1993"/>
+      <c r="H15" s="1994"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="52">
+        <v>88</v>
+      </c>
+      <c r="R15" s="2295">
+        <v>15</v>
+      </c>
+      <c r="S15" s="2346">
+        <v>4</v>
+      </c>
+      <c r="T15" s="2397">
+        <v>9.9486560042815943E-3</v>
+      </c>
+      <c r="U15" s="2448">
+        <v>1.2254263509516482E-2</v>
+      </c>
+      <c r="V15" s="2499">
+        <v>2.52664853911772E-2</v>
+      </c>
+      <c r="W15" s="2550">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X15" s="2601">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y15" s="2652">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="1585"/>
+      <c r="AH15" s="1586"/>
+      <c r="AI15" s="1587"/>
+      <c r="AJ15" s="1588"/>
+      <c r="AK15" s="1589"/>
+      <c r="AL15" s="1590"/>
+      <c r="AM15" s="1591"/>
+      <c r="AN15" s="1592"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="70"/>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="C16" s="1997"/>
-      <c r="D16" s="1995"/>
-      <c r="E16" s="1994"/>
-      <c r="F16" s="1996"/>
-      <c r="G16" s="1998"/>
-      <c r="H16" s="1999"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="2285"/>
-      <c r="S16" s="2285"/>
-      <c r="T16" s="2285"/>
-      <c r="U16" s="2285"/>
-      <c r="V16" s="2285"/>
-      <c r="W16" s="2285"/>
-      <c r="X16" s="2285"/>
-      <c r="Y16" s="2285"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="1592"/>
-      <c r="AH16" s="1593"/>
-      <c r="AI16" s="1594"/>
-      <c r="AJ16" s="1595"/>
-      <c r="AK16" s="1596"/>
-      <c r="AL16" s="1597"/>
-      <c r="AM16" s="1598"/>
-      <c r="AN16" s="1599"/>
-      <c r="AO16" s="80"/>
-      <c r="AP16" s="81"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="83"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="85"/>
-      <c r="AU16" s="86"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="88"/>
-      <c r="AX16" s="89"/>
-      <c r="AY16" s="90"/>
-      <c r="AZ16" s="91"/>
-      <c r="BA16" s="92"/>
+      <c r="C16" s="1998"/>
+      <c r="D16" s="1996"/>
+      <c r="E16" s="1995"/>
+      <c r="F16" s="1997"/>
+      <c r="G16" s="1999"/>
+      <c r="H16" s="2000"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75">
+        <v>88</v>
+      </c>
+      <c r="R16" s="2296">
+        <v>15</v>
+      </c>
+      <c r="S16" s="2347">
+        <v>5</v>
+      </c>
+      <c r="T16" s="2398">
+        <v>1.0318518716994848E-2</v>
+      </c>
+      <c r="U16" s="2449">
+        <v>1.2320795676699841E-2</v>
+      </c>
+      <c r="V16" s="2500">
+        <v>2.571951331286965E-2</v>
+      </c>
+      <c r="W16" s="2551">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X16" s="2602">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y16" s="2653">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="1593"/>
+      <c r="AH16" s="1594"/>
+      <c r="AI16" s="1595"/>
+      <c r="AJ16" s="1596"/>
+      <c r="AK16" s="1597"/>
+      <c r="AL16" s="1598"/>
+      <c r="AM16" s="1599"/>
+      <c r="AN16" s="1600"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="83"/>
+      <c r="AR16" s="84"/>
+      <c r="AS16" s="85"/>
+      <c r="AT16" s="86"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="88"/>
+      <c r="AW16" s="89"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="92"/>
+      <c r="BA16" s="93"/>
     </row>
     <row r="17" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C17" s="2003"/>
-      <c r="D17" s="2001"/>
-      <c r="E17" s="2000"/>
-      <c r="F17" s="2002"/>
-      <c r="G17" s="2004"/>
-      <c r="H17" s="2005"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="2285"/>
-      <c r="S17" s="2285"/>
-      <c r="T17" s="2285"/>
-      <c r="U17" s="2285"/>
-      <c r="V17" s="2285"/>
-      <c r="W17" s="2285"/>
-      <c r="X17" s="2285"/>
-      <c r="Y17" s="2285"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="102"/>
-      <c r="AG17" s="1600"/>
-      <c r="AH17" s="1601"/>
-      <c r="AI17" s="1602"/>
-      <c r="AJ17" s="1603"/>
-      <c r="AK17" s="1604"/>
-      <c r="AL17" s="1605"/>
-      <c r="AM17" s="1606"/>
-      <c r="AN17" s="1607"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="105"/>
-      <c r="AR17" s="106"/>
-      <c r="AS17" s="107"/>
-      <c r="AT17" s="108"/>
-      <c r="AU17" s="109"/>
-      <c r="AV17" s="110"/>
-      <c r="AW17" s="111"/>
-      <c r="AX17" s="112"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="114"/>
-      <c r="BA17" s="115"/>
+      <c r="C17" s="2004"/>
+      <c r="D17" s="2002"/>
+      <c r="E17" s="2001"/>
+      <c r="F17" s="2003"/>
+      <c r="G17" s="2005"/>
+      <c r="H17" s="2006"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="98">
+        <v>88</v>
+      </c>
+      <c r="R17" s="2297">
+        <v>15</v>
+      </c>
+      <c r="S17" s="2348">
+        <v>6</v>
+      </c>
+      <c r="T17" s="2399">
+        <v>9.9532363078295629E-3</v>
+      </c>
+      <c r="U17" s="2450">
+        <v>1.1485275816356699E-2</v>
+      </c>
+      <c r="V17" s="2501">
+        <v>2.4309831078275439E-2</v>
+      </c>
+      <c r="W17" s="2552">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X17" s="2603">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y17" s="2654">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="1601"/>
+      <c r="AH17" s="1602"/>
+      <c r="AI17" s="1603"/>
+      <c r="AJ17" s="1604"/>
+      <c r="AK17" s="1605"/>
+      <c r="AL17" s="1606"/>
+      <c r="AM17" s="1607"/>
+      <c r="AN17" s="1608"/>
+      <c r="AO17" s="104"/>
+      <c r="AP17" s="105"/>
+      <c r="AQ17" s="106"/>
+      <c r="AR17" s="107"/>
+      <c r="AS17" s="108"/>
+      <c r="AT17" s="109"/>
+      <c r="AU17" s="110"/>
+      <c r="AV17" s="111"/>
+      <c r="AW17" s="112"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="114"/>
+      <c r="AZ17" s="115"/>
+      <c r="BA17" s="116"/>
     </row>
     <row r="18" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C18" s="2009"/>
-      <c r="D18" s="2007"/>
-      <c r="E18" s="2006"/>
-      <c r="F18" s="2008"/>
-      <c r="G18" s="2010"/>
-      <c r="H18" s="2011"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="2285"/>
-      <c r="S18" s="2285"/>
-      <c r="T18" s="2285"/>
-      <c r="U18" s="2285"/>
-      <c r="V18" s="2285"/>
-      <c r="W18" s="2285"/>
-      <c r="X18" s="2285"/>
-      <c r="Y18" s="2285"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="122"/>
-      <c r="AD18" s="123"/>
-      <c r="AE18" s="124"/>
-      <c r="AF18" s="125"/>
-      <c r="AG18" s="1608"/>
-      <c r="AH18" s="1609"/>
-      <c r="AI18" s="1610"/>
-      <c r="AJ18" s="1611"/>
-      <c r="AK18" s="1612"/>
-      <c r="AL18" s="1613"/>
-      <c r="AM18" s="1614"/>
-      <c r="AN18" s="1615"/>
-      <c r="AO18" s="126"/>
-      <c r="AP18" s="127"/>
-      <c r="AQ18" s="128"/>
-      <c r="AR18" s="129"/>
-      <c r="AS18" s="130"/>
-      <c r="AT18" s="131"/>
-      <c r="AU18" s="132"/>
-      <c r="AV18" s="133"/>
-      <c r="AW18" s="134"/>
-      <c r="AX18" s="135"/>
-      <c r="AY18" s="136"/>
-      <c r="AZ18" s="137"/>
+      <c r="C18" s="2010"/>
+      <c r="D18" s="2008"/>
+      <c r="E18" s="2007"/>
+      <c r="F18" s="2009"/>
+      <c r="G18" s="2011"/>
+      <c r="H18" s="2012"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="121">
+        <v>88</v>
+      </c>
+      <c r="R18" s="2298">
+        <v>15</v>
+      </c>
+      <c r="S18" s="2349">
+        <v>7</v>
+      </c>
+      <c r="T18" s="2400">
+        <v>9.706009757635017E-3</v>
+      </c>
+      <c r="U18" s="2451">
+        <v>1.1546787164172654E-2</v>
+      </c>
+      <c r="V18" s="2502">
+        <v>2.4139493712850832E-2</v>
+      </c>
+      <c r="W18" s="2553">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X18" s="2604">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y18" s="2655">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB18" s="122"/>
+      <c r="AC18" s="123"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="125"/>
+      <c r="AF18" s="126"/>
+      <c r="AG18" s="1609"/>
+      <c r="AH18" s="1610"/>
+      <c r="AI18" s="1611"/>
+      <c r="AJ18" s="1612"/>
+      <c r="AK18" s="1613"/>
+      <c r="AL18" s="1614"/>
+      <c r="AM18" s="1615"/>
+      <c r="AN18" s="1616"/>
+      <c r="AO18" s="127"/>
+      <c r="AP18" s="128"/>
+      <c r="AQ18" s="129"/>
+      <c r="AR18" s="130"/>
+      <c r="AS18" s="131"/>
+      <c r="AT18" s="132"/>
+      <c r="AU18" s="133"/>
+      <c r="AV18" s="134"/>
+      <c r="AW18" s="135"/>
+      <c r="AX18" s="136"/>
+      <c r="AY18" s="137"/>
+      <c r="AZ18" s="138"/>
     </row>
     <row r="19" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C19" s="2015"/>
-      <c r="D19" s="2013"/>
-      <c r="E19" s="2012"/>
-      <c r="F19" s="2014"/>
-      <c r="G19" s="2016"/>
-      <c r="H19" s="2017"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="2285"/>
-      <c r="S19" s="2285"/>
-      <c r="T19" s="2285"/>
-      <c r="U19" s="2285"/>
-      <c r="V19" s="2285"/>
-      <c r="W19" s="2285"/>
-      <c r="X19" s="2285"/>
-      <c r="Y19" s="2285"/>
-      <c r="AB19" s="143"/>
-      <c r="AC19" s="144"/>
-      <c r="AD19" s="145"/>
-      <c r="AE19" s="146"/>
-      <c r="AF19" s="147"/>
-      <c r="AG19" s="1616"/>
-      <c r="AH19" s="1617"/>
-      <c r="AI19" s="1618"/>
-      <c r="AJ19" s="1619"/>
-      <c r="AK19" s="1620"/>
-      <c r="AL19" s="1621"/>
-      <c r="AM19" s="1622"/>
-      <c r="AN19" s="1623"/>
-      <c r="AO19" s="148"/>
-      <c r="AP19" s="149"/>
-      <c r="AQ19" s="150"/>
-      <c r="AR19" s="151"/>
-      <c r="AS19" s="152"/>
-      <c r="AT19" s="153"/>
-      <c r="AU19" s="154"/>
-      <c r="AV19" s="155"/>
-      <c r="AW19" s="156"/>
-      <c r="AX19" s="157"/>
-      <c r="AY19" s="158"/>
-      <c r="AZ19" s="159"/>
+      <c r="C19" s="2016"/>
+      <c r="D19" s="2014"/>
+      <c r="E19" s="2013"/>
+      <c r="F19" s="2015"/>
+      <c r="G19" s="2017"/>
+      <c r="H19" s="2018"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="143">
+        <v>88</v>
+      </c>
+      <c r="R19" s="2299">
+        <v>15</v>
+      </c>
+      <c r="S19" s="2350">
+        <v>8</v>
+      </c>
+      <c r="T19" s="2401">
+        <v>9.3473343725873816E-3</v>
+      </c>
+      <c r="U19" s="2452">
+        <v>1.0728658890355507E-2</v>
+      </c>
+      <c r="V19" s="2503">
+        <v>2.2758157985531765E-2</v>
+      </c>
+      <c r="W19" s="2554">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X19" s="2605">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y19" s="2656">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB19" s="144"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="146"/>
+      <c r="AE19" s="147"/>
+      <c r="AF19" s="148"/>
+      <c r="AG19" s="1617"/>
+      <c r="AH19" s="1618"/>
+      <c r="AI19" s="1619"/>
+      <c r="AJ19" s="1620"/>
+      <c r="AK19" s="1621"/>
+      <c r="AL19" s="1622"/>
+      <c r="AM19" s="1623"/>
+      <c r="AN19" s="1624"/>
+      <c r="AO19" s="149"/>
+      <c r="AP19" s="150"/>
+      <c r="AQ19" s="151"/>
+      <c r="AR19" s="152"/>
+      <c r="AS19" s="153"/>
+      <c r="AT19" s="154"/>
+      <c r="AU19" s="155"/>
+      <c r="AV19" s="156"/>
+      <c r="AW19" s="157"/>
+      <c r="AX19" s="158"/>
+      <c r="AY19" s="159"/>
+      <c r="AZ19" s="160"/>
     </row>
     <row r="20" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C20" s="2021"/>
-      <c r="D20" s="2019"/>
-      <c r="E20" s="2018"/>
-      <c r="F20" s="2020"/>
-      <c r="G20" s="2022"/>
-      <c r="H20" s="2023"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="2285"/>
-      <c r="S20" s="2285"/>
-      <c r="T20" s="2285"/>
-      <c r="U20" s="2285"/>
-      <c r="V20" s="2285"/>
-      <c r="W20" s="2285"/>
-      <c r="X20" s="2285"/>
-      <c r="Y20" s="2285"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="166"/>
-      <c r="AD20" s="167"/>
-      <c r="AE20" s="168"/>
-      <c r="AF20" s="169"/>
-      <c r="AG20" s="1624"/>
-      <c r="AH20" s="1625"/>
-      <c r="AI20" s="1626"/>
-      <c r="AJ20" s="1627"/>
-      <c r="AK20" s="1628"/>
-      <c r="AL20" s="1629"/>
-      <c r="AM20" s="1630"/>
-      <c r="AN20" s="1631"/>
-      <c r="AO20" s="170"/>
-      <c r="AP20" s="171"/>
-      <c r="AQ20" s="172"/>
-      <c r="AR20" s="173"/>
-      <c r="AS20" s="174"/>
-      <c r="AT20" s="175"/>
-      <c r="AU20" s="176"/>
-      <c r="AV20" s="177"/>
-      <c r="AW20" s="178"/>
-      <c r="AX20" s="179"/>
-      <c r="AY20" s="180"/>
-      <c r="AZ20" s="181"/>
+      <c r="C20" s="2022"/>
+      <c r="D20" s="2020"/>
+      <c r="E20" s="2019"/>
+      <c r="F20" s="2021"/>
+      <c r="G20" s="2023"/>
+      <c r="H20" s="2024"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="165">
+        <v>88</v>
+      </c>
+      <c r="R20" s="2300">
+        <v>15</v>
+      </c>
+      <c r="S20" s="2351">
+        <v>9</v>
+      </c>
+      <c r="T20" s="2402">
+        <v>9.3412425202795309E-3</v>
+      </c>
+      <c r="U20" s="2453">
+        <v>1.1132961145124317E-2</v>
+      </c>
+      <c r="V20" s="2504">
+        <v>2.3257443951684928E-2</v>
+      </c>
+      <c r="W20" s="2555">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X20" s="2606">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y20" s="2657">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB20" s="166"/>
+      <c r="AC20" s="167"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="170"/>
+      <c r="AG20" s="1625"/>
+      <c r="AH20" s="1626"/>
+      <c r="AI20" s="1627"/>
+      <c r="AJ20" s="1628"/>
+      <c r="AK20" s="1629"/>
+      <c r="AL20" s="1630"/>
+      <c r="AM20" s="1631"/>
+      <c r="AN20" s="1632"/>
+      <c r="AO20" s="171"/>
+      <c r="AP20" s="172"/>
+      <c r="AQ20" s="173"/>
+      <c r="AR20" s="174"/>
+      <c r="AS20" s="175"/>
+      <c r="AT20" s="176"/>
+      <c r="AU20" s="177"/>
+      <c r="AV20" s="178"/>
+      <c r="AW20" s="179"/>
+      <c r="AX20" s="180"/>
+      <c r="AY20" s="181"/>
+      <c r="AZ20" s="182"/>
     </row>
     <row r="21" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C21" s="2027"/>
-      <c r="D21" s="2025"/>
-      <c r="E21" s="2024"/>
-      <c r="F21" s="2026"/>
-      <c r="G21" s="2028"/>
-      <c r="H21" s="2029"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="185"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="2285"/>
-      <c r="S21" s="2285"/>
-      <c r="T21" s="2285"/>
-      <c r="U21" s="2285"/>
-      <c r="V21" s="2285"/>
-      <c r="W21" s="2285"/>
-      <c r="X21" s="2285"/>
-      <c r="Y21" s="2285"/>
-      <c r="AB21" s="187"/>
-      <c r="AC21" s="188"/>
-      <c r="AD21" s="189"/>
-      <c r="AE21" s="190"/>
-      <c r="AF21" s="191"/>
-      <c r="AG21" s="1632"/>
-      <c r="AH21" s="1633"/>
-      <c r="AI21" s="1634"/>
-      <c r="AJ21" s="1635"/>
-      <c r="AK21" s="1636"/>
-      <c r="AL21" s="1637"/>
-      <c r="AM21" s="1638"/>
-      <c r="AN21" s="1639"/>
-      <c r="AO21" s="192"/>
-      <c r="AP21" s="193"/>
-      <c r="AQ21" s="194"/>
-      <c r="AR21" s="195"/>
-      <c r="AS21" s="196"/>
-      <c r="AT21" s="197"/>
-      <c r="AU21" s="198"/>
-      <c r="AV21" s="199"/>
-      <c r="AW21" s="200"/>
-      <c r="AX21" s="201"/>
-      <c r="AY21" s="202"/>
-      <c r="AZ21" s="203"/>
+      <c r="C21" s="2028"/>
+      <c r="D21" s="2026"/>
+      <c r="E21" s="2025"/>
+      <c r="F21" s="2027"/>
+      <c r="G21" s="2029"/>
+      <c r="H21" s="2030"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="185"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="187">
+        <v>88</v>
+      </c>
+      <c r="R21" s="2301">
+        <v>15</v>
+      </c>
+      <c r="S21" s="2352">
+        <v>10</v>
+      </c>
+      <c r="T21" s="2403">
+        <v>8.7505764127376717E-3</v>
+      </c>
+      <c r="U21" s="2454">
+        <v>9.6222174034214982E-3</v>
+      </c>
+      <c r="V21" s="2505">
+        <v>2.0778348167014543E-2</v>
+      </c>
+      <c r="W21" s="2556">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X21" s="2607">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y21" s="2658">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB21" s="188"/>
+      <c r="AC21" s="189"/>
+      <c r="AD21" s="190"/>
+      <c r="AE21" s="191"/>
+      <c r="AF21" s="192"/>
+      <c r="AG21" s="1633"/>
+      <c r="AH21" s="1634"/>
+      <c r="AI21" s="1635"/>
+      <c r="AJ21" s="1636"/>
+      <c r="AK21" s="1637"/>
+      <c r="AL21" s="1638"/>
+      <c r="AM21" s="1639"/>
+      <c r="AN21" s="1640"/>
+      <c r="AO21" s="193"/>
+      <c r="AP21" s="194"/>
+      <c r="AQ21" s="195"/>
+      <c r="AR21" s="196"/>
+      <c r="AS21" s="197"/>
+      <c r="AT21" s="198"/>
+      <c r="AU21" s="199"/>
+      <c r="AV21" s="200"/>
+      <c r="AW21" s="201"/>
+      <c r="AX21" s="202"/>
+      <c r="AY21" s="203"/>
+      <c r="AZ21" s="204"/>
     </row>
     <row r="22" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C22" s="2033"/>
-      <c r="D22" s="2031"/>
-      <c r="E22" s="2030"/>
-      <c r="F22" s="2032"/>
-      <c r="G22" s="2034"/>
-      <c r="H22" s="2035"/>
-      <c r="M22" s="204"/>
-      <c r="N22" s="205"/>
-      <c r="O22" s="206"/>
-      <c r="P22" s="207"/>
-      <c r="Q22" s="208"/>
-      <c r="R22" s="2285"/>
-      <c r="S22" s="2285"/>
-      <c r="T22" s="2285"/>
-      <c r="U22" s="2285"/>
-      <c r="V22" s="2285"/>
-      <c r="W22" s="2285"/>
-      <c r="X22" s="2285"/>
-      <c r="Y22" s="2285"/>
-      <c r="AB22" s="209"/>
-      <c r="AC22" s="210"/>
-      <c r="AD22" s="211"/>
-      <c r="AE22" s="212"/>
-      <c r="AF22" s="213"/>
-      <c r="AG22" s="1640"/>
-      <c r="AH22" s="1641"/>
-      <c r="AI22" s="1642"/>
-      <c r="AJ22" s="1643"/>
-      <c r="AK22" s="1644"/>
-      <c r="AL22" s="1645"/>
-      <c r="AM22" s="1646"/>
-      <c r="AN22" s="1647"/>
-      <c r="AO22" s="214"/>
-      <c r="AP22" s="215"/>
-      <c r="AQ22" s="216"/>
-      <c r="AR22" s="217"/>
-      <c r="AS22" s="218"/>
-      <c r="AT22" s="219"/>
-      <c r="AU22" s="220"/>
-      <c r="AV22" s="221"/>
-      <c r="AW22" s="222"/>
-      <c r="AX22" s="223"/>
-      <c r="AY22" s="224"/>
-      <c r="AZ22" s="225"/>
+      <c r="C22" s="2034"/>
+      <c r="D22" s="2032"/>
+      <c r="E22" s="2031"/>
+      <c r="F22" s="2033"/>
+      <c r="G22" s="2035"/>
+      <c r="H22" s="2036"/>
+      <c r="M22" s="205"/>
+      <c r="N22" s="206"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="208"/>
+      <c r="Q22" s="209">
+        <v>88</v>
+      </c>
+      <c r="R22" s="2302">
+        <v>15</v>
+      </c>
+      <c r="S22" s="2353">
+        <v>11</v>
+      </c>
+      <c r="T22" s="2404">
+        <v>9.7059755215337332E-3</v>
+      </c>
+      <c r="U22" s="2455">
+        <v>1.0971154649535913E-2</v>
+      </c>
+      <c r="V22" s="2506">
+        <v>2.3419918833453623E-2</v>
+      </c>
+      <c r="W22" s="2557">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X22" s="2608">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y22" s="2659">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB22" s="210"/>
+      <c r="AC22" s="211"/>
+      <c r="AD22" s="212"/>
+      <c r="AE22" s="213"/>
+      <c r="AF22" s="214"/>
+      <c r="AG22" s="1641"/>
+      <c r="AH22" s="1642"/>
+      <c r="AI22" s="1643"/>
+      <c r="AJ22" s="1644"/>
+      <c r="AK22" s="1645"/>
+      <c r="AL22" s="1646"/>
+      <c r="AM22" s="1647"/>
+      <c r="AN22" s="1648"/>
+      <c r="AO22" s="215"/>
+      <c r="AP22" s="216"/>
+      <c r="AQ22" s="217"/>
+      <c r="AR22" s="218"/>
+      <c r="AS22" s="219"/>
+      <c r="AT22" s="220"/>
+      <c r="AU22" s="221"/>
+      <c r="AV22" s="222"/>
+      <c r="AW22" s="223"/>
+      <c r="AX22" s="224"/>
+      <c r="AY22" s="225"/>
+      <c r="AZ22" s="226"/>
     </row>
     <row r="23" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C23" s="2039"/>
-      <c r="D23" s="2037"/>
-      <c r="E23" s="2036"/>
-      <c r="F23" s="2038"/>
-      <c r="G23" s="2040"/>
-      <c r="H23" s="2041"/>
-      <c r="M23" s="226"/>
-      <c r="N23" s="227"/>
-      <c r="O23" s="228"/>
-      <c r="P23" s="229"/>
-      <c r="Q23" s="230"/>
-      <c r="R23" s="2285"/>
-      <c r="S23" s="2285"/>
-      <c r="T23" s="2285"/>
-      <c r="U23" s="2285"/>
-      <c r="V23" s="2285"/>
-      <c r="W23" s="2285"/>
-      <c r="X23" s="2285"/>
-      <c r="Y23" s="2285"/>
-      <c r="AB23" s="231"/>
-      <c r="AC23" s="232"/>
-      <c r="AD23" s="233"/>
-      <c r="AE23" s="234"/>
-      <c r="AF23" s="235"/>
-      <c r="AG23" s="1648"/>
-      <c r="AH23" s="1649"/>
-      <c r="AI23" s="1650"/>
-      <c r="AJ23" s="1651"/>
-      <c r="AK23" s="1652"/>
-      <c r="AL23" s="1653"/>
-      <c r="AM23" s="1654"/>
-      <c r="AN23" s="1655"/>
-      <c r="AO23" s="236"/>
-      <c r="AP23" s="237"/>
-      <c r="AQ23" s="238"/>
-      <c r="AR23" s="239"/>
-      <c r="AS23" s="240"/>
-      <c r="AT23" s="241"/>
-      <c r="AU23" s="242"/>
-      <c r="AV23" s="243"/>
-      <c r="AW23" s="244"/>
-      <c r="AX23" s="245"/>
-      <c r="AY23" s="246"/>
-      <c r="AZ23" s="247"/>
+      <c r="C23" s="2040"/>
+      <c r="D23" s="2038"/>
+      <c r="E23" s="2037"/>
+      <c r="F23" s="2039"/>
+      <c r="G23" s="2041"/>
+      <c r="H23" s="2042"/>
+      <c r="M23" s="227"/>
+      <c r="N23" s="228"/>
+      <c r="O23" s="229"/>
+      <c r="P23" s="230"/>
+      <c r="Q23" s="231">
+        <v>88</v>
+      </c>
+      <c r="R23" s="2303">
+        <v>15</v>
+      </c>
+      <c r="S23" s="2354">
+        <v>12</v>
+      </c>
+      <c r="T23" s="2405">
+        <v>9.3523743084675155E-3</v>
+      </c>
+      <c r="U23" s="2456">
+        <v>9.7865331116318878E-3</v>
+      </c>
+      <c r="V23" s="2507">
+        <v>2.1585540698007374E-2</v>
+      </c>
+      <c r="W23" s="2558">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X23" s="2609">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y23" s="2660">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB23" s="232"/>
+      <c r="AC23" s="233"/>
+      <c r="AD23" s="234"/>
+      <c r="AE23" s="235"/>
+      <c r="AF23" s="236"/>
+      <c r="AG23" s="1649"/>
+      <c r="AH23" s="1650"/>
+      <c r="AI23" s="1651"/>
+      <c r="AJ23" s="1652"/>
+      <c r="AK23" s="1653"/>
+      <c r="AL23" s="1654"/>
+      <c r="AM23" s="1655"/>
+      <c r="AN23" s="1656"/>
+      <c r="AO23" s="237"/>
+      <c r="AP23" s="238"/>
+      <c r="AQ23" s="239"/>
+      <c r="AR23" s="240"/>
+      <c r="AS23" s="241"/>
+      <c r="AT23" s="242"/>
+      <c r="AU23" s="243"/>
+      <c r="AV23" s="244"/>
+      <c r="AW23" s="245"/>
+      <c r="AX23" s="246"/>
+      <c r="AY23" s="247"/>
+      <c r="AZ23" s="248"/>
     </row>
     <row r="24" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C24" s="2045"/>
-      <c r="D24" s="2043"/>
-      <c r="E24" s="2042"/>
-      <c r="F24" s="2044"/>
-      <c r="G24" s="2046"/>
-      <c r="H24" s="2047"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="249"/>
-      <c r="O24" s="250"/>
-      <c r="P24" s="251"/>
-      <c r="Q24" s="252"/>
-      <c r="R24" s="2285"/>
-      <c r="S24" s="2285"/>
-      <c r="T24" s="2285"/>
-      <c r="U24" s="2285"/>
-      <c r="V24" s="2285"/>
-      <c r="W24" s="2285"/>
-      <c r="X24" s="2285"/>
-      <c r="Y24" s="2285"/>
-      <c r="AB24" s="253"/>
-      <c r="AC24" s="254"/>
-      <c r="AD24" s="255"/>
-      <c r="AE24" s="256"/>
-      <c r="AF24" s="257"/>
-      <c r="AG24" s="1656"/>
-      <c r="AH24" s="1657"/>
-      <c r="AI24" s="1658"/>
-      <c r="AJ24" s="1659"/>
-      <c r="AK24" s="1660"/>
-      <c r="AL24" s="1661"/>
-      <c r="AM24" s="1662"/>
-      <c r="AN24" s="1663"/>
-      <c r="AO24" s="258"/>
-      <c r="AP24" s="259"/>
-      <c r="AQ24" s="260"/>
-      <c r="AR24" s="261"/>
-      <c r="AS24" s="262"/>
-      <c r="AT24" s="263"/>
-      <c r="AU24" s="264"/>
-      <c r="AV24" s="265"/>
-      <c r="AW24" s="266"/>
-      <c r="AX24" s="267"/>
-      <c r="AY24" s="268"/>
-      <c r="AZ24" s="269"/>
+      <c r="C24" s="2046"/>
+      <c r="D24" s="2044"/>
+      <c r="E24" s="2043"/>
+      <c r="F24" s="2045"/>
+      <c r="G24" s="2047"/>
+      <c r="H24" s="2048"/>
+      <c r="M24" s="249"/>
+      <c r="N24" s="250"/>
+      <c r="O24" s="251"/>
+      <c r="P24" s="252"/>
+      <c r="Q24" s="253">
+        <v>88</v>
+      </c>
+      <c r="R24" s="2304">
+        <v>15</v>
+      </c>
+      <c r="S24" s="2355">
+        <v>13</v>
+      </c>
+      <c r="T24" s="2406">
+        <v>9.3605394565080425E-3</v>
+      </c>
+      <c r="U24" s="2457">
+        <v>1.0204914857641816E-2</v>
+      </c>
+      <c r="V24" s="2508">
+        <v>2.2116683028560312E-2</v>
+      </c>
+      <c r="W24" s="2559">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X24" s="2610">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y24" s="2661">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB24" s="254"/>
+      <c r="AC24" s="255"/>
+      <c r="AD24" s="256"/>
+      <c r="AE24" s="257"/>
+      <c r="AF24" s="258"/>
+      <c r="AG24" s="1657"/>
+      <c r="AH24" s="1658"/>
+      <c r="AI24" s="1659"/>
+      <c r="AJ24" s="1660"/>
+      <c r="AK24" s="1661"/>
+      <c r="AL24" s="1662"/>
+      <c r="AM24" s="1663"/>
+      <c r="AN24" s="1664"/>
+      <c r="AO24" s="259"/>
+      <c r="AP24" s="260"/>
+      <c r="AQ24" s="261"/>
+      <c r="AR24" s="262"/>
+      <c r="AS24" s="263"/>
+      <c r="AT24" s="264"/>
+      <c r="AU24" s="265"/>
+      <c r="AV24" s="266"/>
+      <c r="AW24" s="267"/>
+      <c r="AX24" s="268"/>
+      <c r="AY24" s="269"/>
+      <c r="AZ24" s="270"/>
     </row>
     <row r="25" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C25" s="2051"/>
-      <c r="D25" s="2049"/>
-      <c r="E25" s="2048"/>
-      <c r="F25" s="2050"/>
-      <c r="G25" s="2052"/>
-      <c r="H25" s="2053"/>
-      <c r="M25" s="270"/>
-      <c r="N25" s="271"/>
-      <c r="O25" s="272"/>
-      <c r="P25" s="273"/>
-      <c r="Q25" s="274"/>
-      <c r="R25" s="2285"/>
-      <c r="S25" s="2285"/>
-      <c r="T25" s="2285"/>
-      <c r="U25" s="2285"/>
-      <c r="V25" s="2285"/>
-      <c r="W25" s="2285"/>
-      <c r="X25" s="2285"/>
-      <c r="Y25" s="2285"/>
-      <c r="AB25" s="275"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="277"/>
-      <c r="AE25" s="278"/>
-      <c r="AF25" s="279"/>
-      <c r="AG25" s="1664"/>
-      <c r="AH25" s="1665"/>
-      <c r="AI25" s="1666"/>
-      <c r="AJ25" s="1667"/>
-      <c r="AK25" s="1668"/>
-      <c r="AL25" s="1669"/>
-      <c r="AM25" s="1670"/>
-      <c r="AN25" s="1671"/>
-      <c r="AO25" s="280"/>
-      <c r="AP25" s="281"/>
-      <c r="AQ25" s="282"/>
-      <c r="AR25" s="283"/>
-      <c r="AS25" s="284"/>
-      <c r="AT25" s="285"/>
-      <c r="AU25" s="286"/>
-      <c r="AV25" s="287"/>
-      <c r="AW25" s="288"/>
-      <c r="AX25" s="289"/>
-      <c r="AY25" s="290"/>
-      <c r="AZ25" s="291"/>
+      <c r="C25" s="2052"/>
+      <c r="D25" s="2050"/>
+      <c r="E25" s="2049"/>
+      <c r="F25" s="2051"/>
+      <c r="G25" s="2053"/>
+      <c r="H25" s="2054"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="272"/>
+      <c r="O25" s="273"/>
+      <c r="P25" s="274"/>
+      <c r="Q25" s="275">
+        <v>88</v>
+      </c>
+      <c r="R25" s="2305">
+        <v>15</v>
+      </c>
+      <c r="S25" s="2356">
+        <v>14</v>
+      </c>
+      <c r="T25" s="2407">
+        <v>9.7333820663251403E-3</v>
+      </c>
+      <c r="U25" s="2458">
+        <v>9.8408300782914203E-3</v>
+      </c>
+      <c r="V25" s="2509">
+        <v>2.2034419664189418E-2</v>
+      </c>
+      <c r="W25" s="2560">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X25" s="2611">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y25" s="2662">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB25" s="276"/>
+      <c r="AC25" s="277"/>
+      <c r="AD25" s="278"/>
+      <c r="AE25" s="279"/>
+      <c r="AF25" s="280"/>
+      <c r="AG25" s="1665"/>
+      <c r="AH25" s="1666"/>
+      <c r="AI25" s="1667"/>
+      <c r="AJ25" s="1668"/>
+      <c r="AK25" s="1669"/>
+      <c r="AL25" s="1670"/>
+      <c r="AM25" s="1671"/>
+      <c r="AN25" s="1672"/>
+      <c r="AO25" s="281"/>
+      <c r="AP25" s="282"/>
+      <c r="AQ25" s="283"/>
+      <c r="AR25" s="284"/>
+      <c r="AS25" s="285"/>
+      <c r="AT25" s="286"/>
+      <c r="AU25" s="287"/>
+      <c r="AV25" s="288"/>
+      <c r="AW25" s="289"/>
+      <c r="AX25" s="290"/>
+      <c r="AY25" s="291"/>
+      <c r="AZ25" s="292"/>
     </row>
     <row r="26" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C26" s="2057"/>
-      <c r="D26" s="2055"/>
-      <c r="E26" s="2054"/>
-      <c r="F26" s="2056"/>
-      <c r="G26" s="2058"/>
-      <c r="H26" s="2059"/>
-      <c r="M26" s="292"/>
-      <c r="N26" s="293"/>
-      <c r="O26" s="294"/>
-      <c r="P26" s="295"/>
-      <c r="Q26" s="296"/>
-      <c r="R26" s="2285"/>
-      <c r="S26" s="2285"/>
-      <c r="T26" s="2285"/>
-      <c r="U26" s="2285"/>
-      <c r="V26" s="2285"/>
-      <c r="W26" s="2285"/>
-      <c r="X26" s="2285"/>
-      <c r="Y26" s="2285"/>
-      <c r="AB26" s="297"/>
-      <c r="AC26" s="298"/>
-      <c r="AD26" s="299"/>
-      <c r="AE26" s="300"/>
-      <c r="AF26" s="301"/>
-      <c r="AG26" s="1672"/>
-      <c r="AH26" s="1673"/>
-      <c r="AI26" s="1674"/>
-      <c r="AJ26" s="1675"/>
-      <c r="AK26" s="1676"/>
-      <c r="AL26" s="1677"/>
-      <c r="AM26" s="1678"/>
-      <c r="AN26" s="1679"/>
-      <c r="AO26" s="302"/>
-      <c r="AP26" s="303"/>
-      <c r="AQ26" s="304"/>
-      <c r="AR26" s="305"/>
-      <c r="AS26" s="306"/>
-      <c r="AT26" s="307"/>
-      <c r="AU26" s="308"/>
-      <c r="AV26" s="309"/>
-      <c r="AW26" s="310"/>
-      <c r="AX26" s="311"/>
-      <c r="AY26" s="312"/>
-      <c r="AZ26" s="313"/>
+      <c r="C26" s="2058"/>
+      <c r="D26" s="2056"/>
+      <c r="E26" s="2055"/>
+      <c r="F26" s="2057"/>
+      <c r="G26" s="2059"/>
+      <c r="H26" s="2060"/>
+      <c r="M26" s="293"/>
+      <c r="N26" s="294"/>
+      <c r="O26" s="295"/>
+      <c r="P26" s="296"/>
+      <c r="Q26" s="297">
+        <v>88</v>
+      </c>
+      <c r="R26" s="2306">
+        <v>15</v>
+      </c>
+      <c r="S26" s="2357">
+        <v>15</v>
+      </c>
+      <c r="T26" s="2408">
+        <v>1.1050504660043479E-2</v>
+      </c>
+      <c r="U26" s="2459">
+        <v>1.1865059418012603E-2</v>
+      </c>
+      <c r="V26" s="2510">
+        <v>2.5881828932559234E-2</v>
+      </c>
+      <c r="W26" s="2561">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X26" s="2612">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y26" s="2663">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB26" s="298"/>
+      <c r="AC26" s="299"/>
+      <c r="AD26" s="300"/>
+      <c r="AE26" s="301"/>
+      <c r="AF26" s="302"/>
+      <c r="AG26" s="1673"/>
+      <c r="AH26" s="1674"/>
+      <c r="AI26" s="1675"/>
+      <c r="AJ26" s="1676"/>
+      <c r="AK26" s="1677"/>
+      <c r="AL26" s="1678"/>
+      <c r="AM26" s="1679"/>
+      <c r="AN26" s="1680"/>
+      <c r="AO26" s="303"/>
+      <c r="AP26" s="304"/>
+      <c r="AQ26" s="305"/>
+      <c r="AR26" s="306"/>
+      <c r="AS26" s="307"/>
+      <c r="AT26" s="308"/>
+      <c r="AU26" s="309"/>
+      <c r="AV26" s="310"/>
+      <c r="AW26" s="311"/>
+      <c r="AX26" s="312"/>
+      <c r="AY26" s="313"/>
+      <c r="AZ26" s="314"/>
     </row>
     <row r="27" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C27" s="2063"/>
-      <c r="D27" s="2061"/>
-      <c r="E27" s="2060"/>
-      <c r="F27" s="2062"/>
-      <c r="G27" s="2064"/>
-      <c r="H27" s="2065"/>
-      <c r="M27" s="314"/>
-      <c r="N27" s="315"/>
-      <c r="O27" s="316"/>
-      <c r="P27" s="317"/>
-      <c r="R27" s="2285"/>
-      <c r="S27" s="2285"/>
-      <c r="T27" s="2285"/>
-      <c r="U27" s="2285"/>
-      <c r="V27" s="2285"/>
-      <c r="W27" s="2285"/>
-      <c r="X27" s="2285"/>
-      <c r="Y27" s="2285"/>
-      <c r="AB27" s="318"/>
-      <c r="AC27" s="319"/>
-      <c r="AD27" s="320"/>
-      <c r="AE27" s="321"/>
-      <c r="AF27" s="322"/>
-      <c r="AG27" s="1680"/>
-      <c r="AH27" s="1681"/>
-      <c r="AI27" s="1682"/>
-      <c r="AJ27" s="1683"/>
-      <c r="AK27" s="1684"/>
-      <c r="AL27" s="1685"/>
-      <c r="AM27" s="1686"/>
-      <c r="AN27" s="1687"/>
-      <c r="AO27" s="323"/>
-      <c r="AP27" s="324"/>
-      <c r="AQ27" s="325"/>
-      <c r="AR27" s="326"/>
-      <c r="AS27" s="327"/>
-      <c r="AT27" s="328"/>
-      <c r="AU27" s="329"/>
-      <c r="AV27" s="330"/>
-      <c r="AW27" s="331"/>
-      <c r="AX27" s="332"/>
-      <c r="AY27" s="333"/>
-      <c r="AZ27" s="334"/>
+      <c r="C27" s="2064"/>
+      <c r="D27" s="2062"/>
+      <c r="E27" s="2061"/>
+      <c r="F27" s="2063"/>
+      <c r="G27" s="2065"/>
+      <c r="H27" s="2066"/>
+      <c r="M27" s="315"/>
+      <c r="N27" s="316"/>
+      <c r="O27" s="317"/>
+      <c r="P27" s="318"/>
+      <c r="Q27" s="1">
+        <v>88</v>
+      </c>
+      <c r="R27" s="2307">
+        <v>15</v>
+      </c>
+      <c r="S27" s="2358">
+        <v>16</v>
+      </c>
+      <c r="T27" s="2409">
+        <v>1.2379785362359418E-2</v>
+      </c>
+      <c r="U27" s="2460">
+        <v>1.3363692405711135E-2</v>
+      </c>
+      <c r="V27" s="2511">
+        <v>2.9084400869498338E-2</v>
+      </c>
+      <c r="W27" s="2562">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X27" s="2613">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y27" s="2664">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB27" s="319"/>
+      <c r="AC27" s="320"/>
+      <c r="AD27" s="321"/>
+      <c r="AE27" s="322"/>
+      <c r="AF27" s="323"/>
+      <c r="AG27" s="1681"/>
+      <c r="AH27" s="1682"/>
+      <c r="AI27" s="1683"/>
+      <c r="AJ27" s="1684"/>
+      <c r="AK27" s="1685"/>
+      <c r="AL27" s="1686"/>
+      <c r="AM27" s="1687"/>
+      <c r="AN27" s="1688"/>
+      <c r="AO27" s="324"/>
+      <c r="AP27" s="325"/>
+      <c r="AQ27" s="326"/>
+      <c r="AR27" s="327"/>
+      <c r="AS27" s="328"/>
+      <c r="AT27" s="329"/>
+      <c r="AU27" s="330"/>
+      <c r="AV27" s="331"/>
+      <c r="AW27" s="332"/>
+      <c r="AX27" s="333"/>
+      <c r="AY27" s="334"/>
+      <c r="AZ27" s="335"/>
     </row>
     <row r="28" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C28" s="2069"/>
-      <c r="D28" s="2067"/>
-      <c r="E28" s="2066"/>
-      <c r="F28" s="2068"/>
-      <c r="G28" s="2070"/>
-      <c r="H28" s="2071"/>
-      <c r="M28" s="335"/>
-      <c r="N28" s="336"/>
-      <c r="O28" s="337"/>
-      <c r="P28" s="338"/>
-      <c r="R28" s="2285"/>
-      <c r="S28" s="2285"/>
-      <c r="T28" s="2285"/>
-      <c r="U28" s="2285"/>
-      <c r="V28" s="2285"/>
-      <c r="W28" s="2285"/>
-      <c r="X28" s="2285"/>
-      <c r="Y28" s="2285"/>
-      <c r="AB28" s="339"/>
-      <c r="AC28" s="340"/>
-      <c r="AD28" s="341"/>
-      <c r="AE28" s="342"/>
-      <c r="AF28" s="343"/>
-      <c r="AG28" s="1688"/>
-      <c r="AH28" s="1689"/>
-      <c r="AI28" s="1690"/>
-      <c r="AJ28" s="1691"/>
-      <c r="AK28" s="1692"/>
-      <c r="AL28" s="1693"/>
-      <c r="AM28" s="1694"/>
-      <c r="AN28" s="1695"/>
-      <c r="AO28" s="344"/>
-      <c r="AP28" s="345"/>
-      <c r="AQ28" s="346"/>
-      <c r="AR28" s="347"/>
-      <c r="AS28" s="348"/>
-      <c r="AT28" s="349"/>
-      <c r="AU28" s="350"/>
-      <c r="AV28" s="351"/>
-      <c r="AW28" s="352"/>
-      <c r="AX28" s="353"/>
-      <c r="AY28" s="354"/>
-      <c r="AZ28" s="355"/>
+      <c r="C28" s="2070"/>
+      <c r="D28" s="2068"/>
+      <c r="E28" s="2067"/>
+      <c r="F28" s="2069"/>
+      <c r="G28" s="2071"/>
+      <c r="H28" s="2072"/>
+      <c r="M28" s="336"/>
+      <c r="N28" s="337"/>
+      <c r="O28" s="338"/>
+      <c r="P28" s="339"/>
+      <c r="Q28" s="1">
+        <v>88</v>
+      </c>
+      <c r="R28" s="2308">
+        <v>15</v>
+      </c>
+      <c r="S28" s="2359">
+        <v>17</v>
+      </c>
+      <c r="T28" s="2410">
+        <v>1.418220844099119E-2</v>
+      </c>
+      <c r="U28" s="2461">
+        <v>1.5616427200259313E-2</v>
+      </c>
+      <c r="V28" s="2512">
+        <v>3.3702742441315332E-2</v>
+      </c>
+      <c r="W28" s="2563">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X28" s="2614">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y28" s="2665">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB28" s="340"/>
+      <c r="AC28" s="341"/>
+      <c r="AD28" s="342"/>
+      <c r="AE28" s="343"/>
+      <c r="AF28" s="344"/>
+      <c r="AG28" s="1689"/>
+      <c r="AH28" s="1690"/>
+      <c r="AI28" s="1691"/>
+      <c r="AJ28" s="1692"/>
+      <c r="AK28" s="1693"/>
+      <c r="AL28" s="1694"/>
+      <c r="AM28" s="1695"/>
+      <c r="AN28" s="1696"/>
+      <c r="AO28" s="345"/>
+      <c r="AP28" s="346"/>
+      <c r="AQ28" s="347"/>
+      <c r="AR28" s="348"/>
+      <c r="AS28" s="349"/>
+      <c r="AT28" s="350"/>
+      <c r="AU28" s="351"/>
+      <c r="AV28" s="352"/>
+      <c r="AW28" s="353"/>
+      <c r="AX28" s="354"/>
+      <c r="AY28" s="355"/>
+      <c r="AZ28" s="356"/>
     </row>
     <row r="29" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C29" s="2075"/>
-      <c r="D29" s="2073"/>
-      <c r="E29" s="2072"/>
-      <c r="F29" s="2074"/>
-      <c r="G29" s="2076"/>
-      <c r="H29" s="2077"/>
-      <c r="M29" s="356"/>
-      <c r="N29" s="357"/>
-      <c r="O29" s="358"/>
-      <c r="P29" s="359"/>
-      <c r="R29" s="2285"/>
-      <c r="S29" s="2285"/>
-      <c r="T29" s="2285"/>
-      <c r="U29" s="2285"/>
-      <c r="V29" s="2285"/>
-      <c r="W29" s="2285"/>
-      <c r="X29" s="2285"/>
-      <c r="Y29" s="2285"/>
-      <c r="AB29" s="360"/>
-      <c r="AC29" s="361"/>
-      <c r="AD29" s="362"/>
-      <c r="AE29" s="363"/>
-      <c r="AF29" s="364"/>
-      <c r="AG29" s="1696"/>
-      <c r="AH29" s="1697"/>
-      <c r="AI29" s="1698"/>
-      <c r="AJ29" s="1699"/>
-      <c r="AK29" s="1700"/>
-      <c r="AL29" s="1701"/>
-      <c r="AM29" s="1702"/>
-      <c r="AN29" s="1703"/>
-      <c r="AO29" s="365"/>
-      <c r="AP29" s="366"/>
-      <c r="AQ29" s="367"/>
-      <c r="AR29" s="368"/>
-      <c r="AS29" s="369"/>
-      <c r="AT29" s="370"/>
-      <c r="AU29" s="371"/>
-      <c r="AV29" s="372"/>
-      <c r="AW29" s="373"/>
-      <c r="AX29" s="374"/>
-      <c r="AY29" s="375"/>
-      <c r="AZ29" s="376"/>
+      <c r="C29" s="2076"/>
+      <c r="D29" s="2074"/>
+      <c r="E29" s="2073"/>
+      <c r="F29" s="2075"/>
+      <c r="G29" s="2077"/>
+      <c r="H29" s="2078"/>
+      <c r="M29" s="357"/>
+      <c r="N29" s="358"/>
+      <c r="O29" s="359"/>
+      <c r="P29" s="360"/>
+      <c r="Q29" s="1">
+        <v>88</v>
+      </c>
+      <c r="R29" s="2309">
+        <v>15</v>
+      </c>
+      <c r="S29" s="2360">
+        <v>18</v>
+      </c>
+      <c r="T29" s="2411">
+        <v>1.4779494235943862E-2</v>
+      </c>
+      <c r="U29" s="2462">
+        <v>1.7063780210136686E-2</v>
+      </c>
+      <c r="V29" s="2513">
+        <v>3.6109219498614717E-2</v>
+      </c>
+      <c r="W29" s="2564">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X29" s="2615">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y29" s="2666">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB29" s="361"/>
+      <c r="AC29" s="362"/>
+      <c r="AD29" s="363"/>
+      <c r="AE29" s="364"/>
+      <c r="AF29" s="365"/>
+      <c r="AG29" s="1697"/>
+      <c r="AH29" s="1698"/>
+      <c r="AI29" s="1699"/>
+      <c r="AJ29" s="1700"/>
+      <c r="AK29" s="1701"/>
+      <c r="AL29" s="1702"/>
+      <c r="AM29" s="1703"/>
+      <c r="AN29" s="1704"/>
+      <c r="AO29" s="366"/>
+      <c r="AP29" s="367"/>
+      <c r="AQ29" s="368"/>
+      <c r="AR29" s="369"/>
+      <c r="AS29" s="370"/>
+      <c r="AT29" s="371"/>
+      <c r="AU29" s="372"/>
+      <c r="AV29" s="373"/>
+      <c r="AW29" s="374"/>
+      <c r="AX29" s="375"/>
+      <c r="AY29" s="376"/>
+      <c r="AZ29" s="377"/>
     </row>
     <row r="30" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C30" s="2081"/>
-      <c r="D30" s="2079"/>
-      <c r="E30" s="2078"/>
-      <c r="F30" s="2080"/>
-      <c r="G30" s="2082"/>
-      <c r="H30" s="2083"/>
-      <c r="M30" s="377"/>
-      <c r="N30" s="378"/>
-      <c r="O30" s="379"/>
-      <c r="P30" s="380"/>
-      <c r="R30" s="2285"/>
-      <c r="S30" s="2285"/>
-      <c r="T30" s="2285"/>
-      <c r="U30" s="2285"/>
-      <c r="V30" s="2285"/>
-      <c r="W30" s="2285"/>
-      <c r="X30" s="2285"/>
-      <c r="Y30" s="2285"/>
-      <c r="AB30" s="381"/>
-      <c r="AC30" s="382"/>
-      <c r="AD30" s="383"/>
-      <c r="AE30" s="384"/>
-      <c r="AF30" s="385"/>
-      <c r="AG30" s="1704"/>
-      <c r="AH30" s="1705"/>
-      <c r="AI30" s="1706"/>
-      <c r="AJ30" s="1707"/>
-      <c r="AK30" s="1708"/>
-      <c r="AL30" s="1709"/>
-      <c r="AM30" s="1710"/>
-      <c r="AN30" s="1711"/>
-      <c r="AO30" s="386"/>
-      <c r="AP30" s="387"/>
-      <c r="AQ30" s="388"/>
-      <c r="AR30" s="389"/>
-      <c r="AS30" s="390"/>
-      <c r="AT30" s="391"/>
-      <c r="AU30" s="392"/>
-      <c r="AV30" s="393"/>
-      <c r="AW30" s="394"/>
-      <c r="AX30" s="395"/>
-      <c r="AY30" s="396"/>
-      <c r="AZ30" s="397"/>
+      <c r="C30" s="2082"/>
+      <c r="D30" s="2080"/>
+      <c r="E30" s="2079"/>
+      <c r="F30" s="2081"/>
+      <c r="G30" s="2083"/>
+      <c r="H30" s="2084"/>
+      <c r="M30" s="378"/>
+      <c r="N30" s="379"/>
+      <c r="O30" s="380"/>
+      <c r="P30" s="381"/>
+      <c r="Q30" s="1">
+        <v>88</v>
+      </c>
+      <c r="R30" s="2310">
+        <v>15</v>
+      </c>
+      <c r="S30" s="2361">
+        <v>19</v>
+      </c>
+      <c r="T30" s="2412">
+        <v>1.6082939180684437E-2</v>
+      </c>
+      <c r="U30" s="2463">
+        <v>1.9844760460996411E-2</v>
+      </c>
+      <c r="V30" s="2514">
+        <v>4.0888889756929947E-2</v>
+      </c>
+      <c r="W30" s="2565">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X30" s="2616">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y30" s="2667">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB30" s="382"/>
+      <c r="AC30" s="383"/>
+      <c r="AD30" s="384"/>
+      <c r="AE30" s="385"/>
+      <c r="AF30" s="386"/>
+      <c r="AG30" s="1705"/>
+      <c r="AH30" s="1706"/>
+      <c r="AI30" s="1707"/>
+      <c r="AJ30" s="1708"/>
+      <c r="AK30" s="1709"/>
+      <c r="AL30" s="1710"/>
+      <c r="AM30" s="1711"/>
+      <c r="AN30" s="1712"/>
+      <c r="AO30" s="387"/>
+      <c r="AP30" s="388"/>
+      <c r="AQ30" s="389"/>
+      <c r="AR30" s="390"/>
+      <c r="AS30" s="391"/>
+      <c r="AT30" s="392"/>
+      <c r="AU30" s="393"/>
+      <c r="AV30" s="394"/>
+      <c r="AW30" s="395"/>
+      <c r="AX30" s="396"/>
+      <c r="AY30" s="397"/>
+      <c r="AZ30" s="398"/>
     </row>
     <row r="31" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C31" s="2087"/>
-      <c r="D31" s="2085"/>
-      <c r="E31" s="2084"/>
-      <c r="F31" s="2086"/>
-      <c r="G31" s="2088"/>
-      <c r="H31" s="2089"/>
-      <c r="M31" s="398"/>
-      <c r="N31" s="399"/>
-      <c r="O31" s="400"/>
-      <c r="P31" s="401"/>
-      <c r="R31" s="2285"/>
-      <c r="S31" s="2285"/>
-      <c r="T31" s="2285"/>
-      <c r="U31" s="2285"/>
-      <c r="V31" s="2285"/>
-      <c r="W31" s="2285"/>
-      <c r="X31" s="2285"/>
-      <c r="Y31" s="2285"/>
-      <c r="AB31" s="402"/>
-      <c r="AC31" s="403"/>
-      <c r="AD31" s="404"/>
-      <c r="AE31" s="405"/>
-      <c r="AF31" s="406"/>
-      <c r="AG31" s="1712"/>
-      <c r="AH31" s="1713"/>
-      <c r="AI31" s="1714"/>
-      <c r="AJ31" s="1715"/>
-      <c r="AK31" s="1716"/>
-      <c r="AL31" s="1717"/>
-      <c r="AM31" s="1718"/>
-      <c r="AN31" s="1719"/>
-      <c r="AO31" s="407"/>
-      <c r="AP31" s="408"/>
-      <c r="AQ31" s="409"/>
-      <c r="AR31" s="410"/>
-      <c r="AS31" s="411"/>
-      <c r="AT31" s="412"/>
-      <c r="AU31" s="413"/>
-      <c r="AV31" s="414"/>
-      <c r="AW31" s="415"/>
-      <c r="AX31" s="416"/>
-      <c r="AY31" s="417"/>
-      <c r="AZ31" s="418"/>
+      <c r="C31" s="2088"/>
+      <c r="D31" s="2086"/>
+      <c r="E31" s="2085"/>
+      <c r="F31" s="2087"/>
+      <c r="G31" s="2089"/>
+      <c r="H31" s="2090"/>
+      <c r="M31" s="399"/>
+      <c r="N31" s="400"/>
+      <c r="O31" s="401"/>
+      <c r="P31" s="402"/>
+      <c r="Q31" s="1">
+        <v>88</v>
+      </c>
+      <c r="R31" s="2311">
+        <v>15</v>
+      </c>
+      <c r="S31" s="2362">
+        <v>20</v>
+      </c>
+      <c r="T31" s="2413">
+        <v>1.7517546922086083E-2</v>
+      </c>
+      <c r="U31" s="2464">
+        <v>2.1268374150232316E-2</v>
+      </c>
+      <c r="V31" s="2515">
+        <v>4.4103014609876479E-2</v>
+      </c>
+      <c r="W31" s="2566">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X31" s="2617">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y31" s="2668">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB31" s="403"/>
+      <c r="AC31" s="404"/>
+      <c r="AD31" s="405"/>
+      <c r="AE31" s="406"/>
+      <c r="AF31" s="407"/>
+      <c r="AG31" s="1713"/>
+      <c r="AH31" s="1714"/>
+      <c r="AI31" s="1715"/>
+      <c r="AJ31" s="1716"/>
+      <c r="AK31" s="1717"/>
+      <c r="AL31" s="1718"/>
+      <c r="AM31" s="1719"/>
+      <c r="AN31" s="1720"/>
+      <c r="AO31" s="408"/>
+      <c r="AP31" s="409"/>
+      <c r="AQ31" s="410"/>
+      <c r="AR31" s="411"/>
+      <c r="AS31" s="412"/>
+      <c r="AT31" s="413"/>
+      <c r="AU31" s="414"/>
+      <c r="AV31" s="415"/>
+      <c r="AW31" s="416"/>
+      <c r="AX31" s="417"/>
+      <c r="AY31" s="418"/>
+      <c r="AZ31" s="419"/>
     </row>
     <row r="32" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C32" s="2093"/>
-      <c r="D32" s="2091"/>
-      <c r="E32" s="2090"/>
-      <c r="F32" s="2092"/>
-      <c r="G32" s="2094"/>
-      <c r="H32" s="2095"/>
-      <c r="M32" s="419"/>
-      <c r="N32" s="420"/>
-      <c r="O32" s="421"/>
-      <c r="P32" s="422"/>
-      <c r="R32" s="2285"/>
-      <c r="S32" s="2285"/>
-      <c r="T32" s="2285"/>
-      <c r="U32" s="2285"/>
-      <c r="V32" s="2285"/>
-      <c r="W32" s="2285"/>
-      <c r="X32" s="2285"/>
-      <c r="Y32" s="2285"/>
-      <c r="AB32" s="423"/>
-      <c r="AC32" s="424"/>
-      <c r="AD32" s="425"/>
-      <c r="AE32" s="426"/>
-      <c r="AF32" s="427"/>
-      <c r="AG32" s="1720"/>
-      <c r="AH32" s="1721"/>
-      <c r="AI32" s="1722"/>
-      <c r="AJ32" s="1723"/>
-      <c r="AK32" s="1724"/>
-      <c r="AL32" s="1725"/>
-      <c r="AM32" s="1726"/>
-      <c r="AN32" s="1727"/>
-      <c r="AO32" s="428"/>
-      <c r="AP32" s="429"/>
-      <c r="AQ32" s="430"/>
-      <c r="AR32" s="431"/>
-      <c r="AS32" s="432"/>
-      <c r="AT32" s="433"/>
-      <c r="AU32" s="434"/>
-      <c r="AV32" s="435"/>
-      <c r="AW32" s="436"/>
-      <c r="AX32" s="437"/>
-      <c r="AY32" s="438"/>
-      <c r="AZ32" s="439"/>
+      <c r="C32" s="2094"/>
+      <c r="D32" s="2092"/>
+      <c r="E32" s="2091"/>
+      <c r="F32" s="2093"/>
+      <c r="G32" s="2095"/>
+      <c r="H32" s="2096"/>
+      <c r="M32" s="420"/>
+      <c r="N32" s="421"/>
+      <c r="O32" s="422"/>
+      <c r="P32" s="423"/>
+      <c r="Q32" s="1">
+        <v>88</v>
+      </c>
+      <c r="R32" s="2312">
+        <v>15</v>
+      </c>
+      <c r="S32" s="2363">
+        <v>21</v>
+      </c>
+      <c r="T32" s="2414">
+        <v>1.8815436434905276E-2</v>
+      </c>
+      <c r="U32" s="2465">
+        <v>2.5128179237821565E-2</v>
+      </c>
+      <c r="V32" s="2516">
+        <v>5.022566048218223E-2</v>
+      </c>
+      <c r="W32" s="2567">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X32" s="2618">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y32" s="2669">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB32" s="424"/>
+      <c r="AC32" s="425"/>
+      <c r="AD32" s="426"/>
+      <c r="AE32" s="427"/>
+      <c r="AF32" s="428"/>
+      <c r="AG32" s="1721"/>
+      <c r="AH32" s="1722"/>
+      <c r="AI32" s="1723"/>
+      <c r="AJ32" s="1724"/>
+      <c r="AK32" s="1725"/>
+      <c r="AL32" s="1726"/>
+      <c r="AM32" s="1727"/>
+      <c r="AN32" s="1728"/>
+      <c r="AO32" s="429"/>
+      <c r="AP32" s="430"/>
+      <c r="AQ32" s="431"/>
+      <c r="AR32" s="432"/>
+      <c r="AS32" s="433"/>
+      <c r="AT32" s="434"/>
+      <c r="AU32" s="435"/>
+      <c r="AV32" s="436"/>
+      <c r="AW32" s="437"/>
+      <c r="AX32" s="438"/>
+      <c r="AY32" s="439"/>
+      <c r="AZ32" s="440"/>
     </row>
     <row r="33" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C33" s="2099"/>
-      <c r="D33" s="2097"/>
-      <c r="E33" s="2096"/>
-      <c r="F33" s="2098"/>
-      <c r="G33" s="2100"/>
-      <c r="H33" s="2101"/>
-      <c r="M33" s="440"/>
-      <c r="N33" s="441"/>
-      <c r="O33" s="442"/>
-      <c r="P33" s="443"/>
-      <c r="R33" s="2285"/>
-      <c r="S33" s="2285"/>
-      <c r="T33" s="2285"/>
-      <c r="U33" s="2285"/>
-      <c r="V33" s="2285"/>
-      <c r="W33" s="2285"/>
-      <c r="X33" s="2285"/>
-      <c r="Y33" s="2285"/>
-      <c r="AB33" s="444"/>
-      <c r="AC33" s="445"/>
-      <c r="AD33" s="446"/>
-      <c r="AE33" s="447"/>
-      <c r="AF33" s="448"/>
-      <c r="AG33" s="1728"/>
-      <c r="AH33" s="1729"/>
-      <c r="AI33" s="1730"/>
-      <c r="AJ33" s="1731"/>
-      <c r="AK33" s="1732"/>
-      <c r="AL33" s="1733"/>
-      <c r="AM33" s="1734"/>
-      <c r="AN33" s="1735"/>
-      <c r="AO33" s="449"/>
-      <c r="AP33" s="450"/>
-      <c r="AQ33" s="451"/>
-      <c r="AR33" s="452"/>
-      <c r="AS33" s="453"/>
-      <c r="AT33" s="454"/>
-      <c r="AU33" s="455"/>
-      <c r="AV33" s="456"/>
-      <c r="AW33" s="457"/>
-      <c r="AX33" s="458"/>
-      <c r="AY33" s="459"/>
-      <c r="AZ33" s="460"/>
+      <c r="C33" s="2100"/>
+      <c r="D33" s="2098"/>
+      <c r="E33" s="2097"/>
+      <c r="F33" s="2099"/>
+      <c r="G33" s="2101"/>
+      <c r="H33" s="2102"/>
+      <c r="M33" s="441"/>
+      <c r="N33" s="442"/>
+      <c r="O33" s="443"/>
+      <c r="P33" s="444"/>
+      <c r="Q33" s="1">
+        <v>88</v>
+      </c>
+      <c r="R33" s="2313">
+        <v>15</v>
+      </c>
+      <c r="S33" s="2364">
+        <v>22</v>
+      </c>
+      <c r="T33" s="2415">
+        <v>2.0233867511134151E-2</v>
+      </c>
+      <c r="U33" s="2466">
+        <v>2.8889093537153004E-2</v>
+      </c>
+      <c r="V33" s="2517">
+        <v>5.6345234432575407E-2</v>
+      </c>
+      <c r="W33" s="2568">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X33" s="2619">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y33" s="2670">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB33" s="445"/>
+      <c r="AC33" s="446"/>
+      <c r="AD33" s="447"/>
+      <c r="AE33" s="448"/>
+      <c r="AF33" s="449"/>
+      <c r="AG33" s="1729"/>
+      <c r="AH33" s="1730"/>
+      <c r="AI33" s="1731"/>
+      <c r="AJ33" s="1732"/>
+      <c r="AK33" s="1733"/>
+      <c r="AL33" s="1734"/>
+      <c r="AM33" s="1735"/>
+      <c r="AN33" s="1736"/>
+      <c r="AO33" s="450"/>
+      <c r="AP33" s="451"/>
+      <c r="AQ33" s="452"/>
+      <c r="AR33" s="453"/>
+      <c r="AS33" s="454"/>
+      <c r="AT33" s="455"/>
+      <c r="AU33" s="456"/>
+      <c r="AV33" s="457"/>
+      <c r="AW33" s="458"/>
+      <c r="AX33" s="459"/>
+      <c r="AY33" s="460"/>
+      <c r="AZ33" s="461"/>
     </row>
     <row r="34" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C34" s="2105"/>
-      <c r="D34" s="2103"/>
-      <c r="E34" s="2102"/>
-      <c r="F34" s="2104"/>
-      <c r="G34" s="2106"/>
-      <c r="H34" s="2107"/>
-      <c r="M34" s="461"/>
-      <c r="N34" s="462"/>
-      <c r="O34" s="463"/>
-      <c r="P34" s="464"/>
-      <c r="R34" s="2285"/>
-      <c r="S34" s="2285"/>
-      <c r="T34" s="2285"/>
-      <c r="U34" s="2285"/>
-      <c r="V34" s="2285"/>
-      <c r="W34" s="2285"/>
-      <c r="X34" s="2285"/>
-      <c r="Y34" s="2285"/>
-      <c r="AB34" s="465"/>
-      <c r="AC34" s="466"/>
-      <c r="AD34" s="467"/>
-      <c r="AE34" s="468"/>
-      <c r="AF34" s="469"/>
-      <c r="AG34" s="1736"/>
-      <c r="AH34" s="1737"/>
-      <c r="AI34" s="1738"/>
-      <c r="AJ34" s="1739"/>
-      <c r="AK34" s="1740"/>
-      <c r="AL34" s="1741"/>
-      <c r="AM34" s="1742"/>
-      <c r="AN34" s="1743"/>
-      <c r="AO34" s="470"/>
-      <c r="AP34" s="471"/>
-      <c r="AQ34" s="472"/>
-      <c r="AR34" s="473"/>
-      <c r="AS34" s="474"/>
-      <c r="AT34" s="475"/>
-      <c r="AU34" s="476"/>
-      <c r="AV34" s="477"/>
-      <c r="AW34" s="478"/>
-      <c r="AX34" s="479"/>
-      <c r="AY34" s="480"/>
-      <c r="AZ34" s="481"/>
+      <c r="C34" s="2106"/>
+      <c r="D34" s="2104"/>
+      <c r="E34" s="2103"/>
+      <c r="F34" s="2105"/>
+      <c r="G34" s="2107"/>
+      <c r="H34" s="2108"/>
+      <c r="M34" s="462"/>
+      <c r="N34" s="463"/>
+      <c r="O34" s="464"/>
+      <c r="P34" s="465"/>
+      <c r="Q34" s="1">
+        <v>88</v>
+      </c>
+      <c r="R34" s="2314">
+        <v>15</v>
+      </c>
+      <c r="S34" s="2365">
+        <v>23</v>
+      </c>
+      <c r="T34" s="2416">
+        <v>2.3216141199549289E-2</v>
+      </c>
+      <c r="U34" s="2467">
+        <v>3.4783335440904145E-2</v>
+      </c>
+      <c r="V34" s="2518">
+        <v>6.6695310500679478E-2</v>
+      </c>
+      <c r="W34" s="2569">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X34" s="2620">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y34" s="2671">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB34" s="466"/>
+      <c r="AC34" s="467"/>
+      <c r="AD34" s="468"/>
+      <c r="AE34" s="469"/>
+      <c r="AF34" s="470"/>
+      <c r="AG34" s="1737"/>
+      <c r="AH34" s="1738"/>
+      <c r="AI34" s="1739"/>
+      <c r="AJ34" s="1740"/>
+      <c r="AK34" s="1741"/>
+      <c r="AL34" s="1742"/>
+      <c r="AM34" s="1743"/>
+      <c r="AN34" s="1744"/>
+      <c r="AO34" s="471"/>
+      <c r="AP34" s="472"/>
+      <c r="AQ34" s="473"/>
+      <c r="AR34" s="474"/>
+      <c r="AS34" s="475"/>
+      <c r="AT34" s="476"/>
+      <c r="AU34" s="477"/>
+      <c r="AV34" s="478"/>
+      <c r="AW34" s="479"/>
+      <c r="AX34" s="480"/>
+      <c r="AY34" s="481"/>
+      <c r="AZ34" s="482"/>
     </row>
     <row r="35" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C35" s="2111"/>
-      <c r="D35" s="2109"/>
-      <c r="E35" s="2108"/>
-      <c r="F35" s="2110"/>
-      <c r="G35" s="2112"/>
-      <c r="H35" s="2113"/>
-      <c r="M35" s="482"/>
-      <c r="N35" s="483"/>
-      <c r="O35" s="484"/>
-      <c r="P35" s="485"/>
-      <c r="R35" s="2285"/>
-      <c r="S35" s="2285"/>
-      <c r="T35" s="2285"/>
-      <c r="U35" s="2285"/>
-      <c r="V35" s="2285"/>
-      <c r="W35" s="2285"/>
-      <c r="X35" s="2285"/>
-      <c r="Y35" s="2285"/>
-      <c r="AB35" s="486"/>
-      <c r="AC35" s="487"/>
-      <c r="AD35" s="488"/>
-      <c r="AE35" s="489"/>
-      <c r="AF35" s="490"/>
-      <c r="AG35" s="1744"/>
-      <c r="AH35" s="1745"/>
-      <c r="AI35" s="1746"/>
-      <c r="AJ35" s="1747"/>
-      <c r="AK35" s="1748"/>
-      <c r="AL35" s="1749"/>
-      <c r="AM35" s="1750"/>
-      <c r="AN35" s="1751"/>
-      <c r="AO35" s="491"/>
-      <c r="AP35" s="492"/>
-      <c r="AQ35" s="493"/>
-      <c r="AR35" s="494"/>
-      <c r="AS35" s="495"/>
-      <c r="AT35" s="496"/>
-      <c r="AU35" s="497"/>
-      <c r="AV35" s="498"/>
-      <c r="AW35" s="499"/>
-      <c r="AX35" s="500"/>
-      <c r="AY35" s="501"/>
-      <c r="AZ35" s="502"/>
+      <c r="C35" s="2112"/>
+      <c r="D35" s="2110"/>
+      <c r="E35" s="2109"/>
+      <c r="F35" s="2111"/>
+      <c r="G35" s="2113"/>
+      <c r="H35" s="2114"/>
+      <c r="M35" s="483"/>
+      <c r="N35" s="484"/>
+      <c r="O35" s="485"/>
+      <c r="P35" s="486"/>
+      <c r="Q35" s="1">
+        <v>88</v>
+      </c>
+      <c r="R35" s="2315">
+        <v>15</v>
+      </c>
+      <c r="S35" s="2366">
+        <v>24</v>
+      </c>
+      <c r="T35" s="2417">
+        <v>2.4405616989865417E-2</v>
+      </c>
+      <c r="U35" s="2468">
+        <v>3.7704359966208204E-2</v>
+      </c>
+      <c r="V35" s="2519">
+        <v>7.1536066947625668E-2</v>
+      </c>
+      <c r="W35" s="2570">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X35" s="2621">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y35" s="2672">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB35" s="487"/>
+      <c r="AC35" s="488"/>
+      <c r="AD35" s="489"/>
+      <c r="AE35" s="490"/>
+      <c r="AF35" s="491"/>
+      <c r="AG35" s="1745"/>
+      <c r="AH35" s="1746"/>
+      <c r="AI35" s="1747"/>
+      <c r="AJ35" s="1748"/>
+      <c r="AK35" s="1749"/>
+      <c r="AL35" s="1750"/>
+      <c r="AM35" s="1751"/>
+      <c r="AN35" s="1752"/>
+      <c r="AO35" s="492"/>
+      <c r="AP35" s="493"/>
+      <c r="AQ35" s="494"/>
+      <c r="AR35" s="495"/>
+      <c r="AS35" s="496"/>
+      <c r="AT35" s="497"/>
+      <c r="AU35" s="498"/>
+      <c r="AV35" s="499"/>
+      <c r="AW35" s="500"/>
+      <c r="AX35" s="501"/>
+      <c r="AY35" s="502"/>
+      <c r="AZ35" s="503"/>
     </row>
     <row r="36" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C36" s="2117"/>
-      <c r="D36" s="2115"/>
-      <c r="E36" s="2114"/>
-      <c r="F36" s="2116"/>
-      <c r="G36" s="2118"/>
-      <c r="H36" s="2119"/>
-      <c r="M36" s="503"/>
-      <c r="N36" s="504"/>
-      <c r="O36" s="505"/>
-      <c r="P36" s="506"/>
-      <c r="R36" s="2285"/>
-      <c r="S36" s="2285"/>
-      <c r="T36" s="2285"/>
-      <c r="U36" s="2285"/>
-      <c r="V36" s="2285"/>
-      <c r="W36" s="2285"/>
-      <c r="X36" s="2285"/>
-      <c r="Y36" s="2285"/>
-      <c r="AB36" s="507"/>
-      <c r="AC36" s="508"/>
-      <c r="AD36" s="509"/>
-      <c r="AE36" s="510"/>
-      <c r="AF36" s="511"/>
-      <c r="AG36" s="1752"/>
-      <c r="AH36" s="1753"/>
-      <c r="AI36" s="1754"/>
-      <c r="AJ36" s="1755"/>
-      <c r="AK36" s="1756"/>
-      <c r="AL36" s="1757"/>
-      <c r="AM36" s="1758"/>
-      <c r="AN36" s="1759"/>
-      <c r="AO36" s="512"/>
-      <c r="AP36" s="513"/>
-      <c r="AQ36" s="514"/>
-      <c r="AR36" s="515"/>
-      <c r="AS36" s="516"/>
-      <c r="AT36" s="517"/>
-      <c r="AU36" s="518"/>
-      <c r="AV36" s="519"/>
-      <c r="AW36" s="520"/>
-      <c r="AX36" s="521"/>
-      <c r="AY36" s="522"/>
-      <c r="AZ36" s="523"/>
+      <c r="C36" s="2118"/>
+      <c r="D36" s="2116"/>
+      <c r="E36" s="2115"/>
+      <c r="F36" s="2117"/>
+      <c r="G36" s="2119"/>
+      <c r="H36" s="2120"/>
+      <c r="M36" s="504"/>
+      <c r="N36" s="505"/>
+      <c r="O36" s="506"/>
+      <c r="P36" s="507"/>
+      <c r="Q36" s="1">
+        <v>88</v>
+      </c>
+      <c r="R36" s="2316">
+        <v>15</v>
+      </c>
+      <c r="S36" s="2367">
+        <v>25</v>
+      </c>
+      <c r="T36" s="2418">
+        <v>3.0042799414680216E-2</v>
+      </c>
+      <c r="U36" s="2469">
+        <v>4.3738900540403441E-2</v>
+      </c>
+      <c r="V36" s="2520">
+        <v>8.4716425090184511E-2</v>
+      </c>
+      <c r="W36" s="2571">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X36" s="2622">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y36" s="2673">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB36" s="508"/>
+      <c r="AC36" s="509"/>
+      <c r="AD36" s="510"/>
+      <c r="AE36" s="511"/>
+      <c r="AF36" s="512"/>
+      <c r="AG36" s="1753"/>
+      <c r="AH36" s="1754"/>
+      <c r="AI36" s="1755"/>
+      <c r="AJ36" s="1756"/>
+      <c r="AK36" s="1757"/>
+      <c r="AL36" s="1758"/>
+      <c r="AM36" s="1759"/>
+      <c r="AN36" s="1760"/>
+      <c r="AO36" s="513"/>
+      <c r="AP36" s="514"/>
+      <c r="AQ36" s="515"/>
+      <c r="AR36" s="516"/>
+      <c r="AS36" s="517"/>
+      <c r="AT36" s="518"/>
+      <c r="AU36" s="519"/>
+      <c r="AV36" s="520"/>
+      <c r="AW36" s="521"/>
+      <c r="AX36" s="522"/>
+      <c r="AY36" s="523"/>
+      <c r="AZ36" s="524"/>
     </row>
     <row r="37" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C37" s="2123"/>
-      <c r="D37" s="2121"/>
-      <c r="E37" s="2120"/>
-      <c r="F37" s="2122"/>
-      <c r="G37" s="2124"/>
-      <c r="H37" s="2125"/>
-      <c r="M37" s="524"/>
-      <c r="N37" s="525"/>
-      <c r="O37" s="526"/>
-      <c r="P37" s="527"/>
-      <c r="R37" s="2285"/>
-      <c r="S37" s="2285"/>
-      <c r="T37" s="2285"/>
-      <c r="U37" s="2285"/>
-      <c r="V37" s="2285"/>
-      <c r="W37" s="2285"/>
-      <c r="X37" s="2285"/>
-      <c r="Y37" s="2285"/>
-      <c r="AB37" s="528"/>
-      <c r="AC37" s="529"/>
-      <c r="AD37" s="530"/>
-      <c r="AE37" s="531"/>
-      <c r="AF37" s="532"/>
-      <c r="AG37" s="1760"/>
-      <c r="AH37" s="1761"/>
-      <c r="AI37" s="1762"/>
-      <c r="AJ37" s="1763"/>
-      <c r="AK37" s="1764"/>
-      <c r="AL37" s="1765"/>
-      <c r="AM37" s="1766"/>
-      <c r="AN37" s="1767"/>
-      <c r="AO37" s="533"/>
-      <c r="AP37" s="534"/>
-      <c r="AQ37" s="535"/>
-      <c r="AR37" s="536"/>
-      <c r="AS37" s="537"/>
-      <c r="AT37" s="538"/>
-      <c r="AU37" s="539"/>
-      <c r="AV37" s="540"/>
-      <c r="AW37" s="541"/>
-      <c r="AX37" s="542"/>
-      <c r="AY37" s="543"/>
-      <c r="AZ37" s="544"/>
+      <c r="C37" s="2124"/>
+      <c r="D37" s="2122"/>
+      <c r="E37" s="2121"/>
+      <c r="F37" s="2123"/>
+      <c r="G37" s="2125"/>
+      <c r="H37" s="2126"/>
+      <c r="M37" s="525"/>
+      <c r="N37" s="526"/>
+      <c r="O37" s="527"/>
+      <c r="P37" s="528"/>
+      <c r="Q37" s="1">
+        <v>88</v>
+      </c>
+      <c r="R37" s="2317">
+        <v>15</v>
+      </c>
+      <c r="S37" s="2368">
+        <v>26</v>
+      </c>
+      <c r="T37" s="2419">
+        <v>3.4721053640316107E-2</v>
+      </c>
+      <c r="U37" s="2470">
+        <v>4.8991784940661899E-2</v>
+      </c>
+      <c r="V37" s="2521">
+        <v>9.596078481614348E-2</v>
+      </c>
+      <c r="W37" s="2572">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X37" s="2623">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y37" s="2674">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB37" s="529"/>
+      <c r="AC37" s="530"/>
+      <c r="AD37" s="531"/>
+      <c r="AE37" s="532"/>
+      <c r="AF37" s="533"/>
+      <c r="AG37" s="1761"/>
+      <c r="AH37" s="1762"/>
+      <c r="AI37" s="1763"/>
+      <c r="AJ37" s="1764"/>
+      <c r="AK37" s="1765"/>
+      <c r="AL37" s="1766"/>
+      <c r="AM37" s="1767"/>
+      <c r="AN37" s="1768"/>
+      <c r="AO37" s="534"/>
+      <c r="AP37" s="535"/>
+      <c r="AQ37" s="536"/>
+      <c r="AR37" s="537"/>
+      <c r="AS37" s="538"/>
+      <c r="AT37" s="539"/>
+      <c r="AU37" s="540"/>
+      <c r="AV37" s="541"/>
+      <c r="AW37" s="542"/>
+      <c r="AX37" s="543"/>
+      <c r="AY37" s="544"/>
+      <c r="AZ37" s="545"/>
     </row>
     <row r="38" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C38" s="2129"/>
-      <c r="D38" s="2127"/>
-      <c r="E38" s="2126"/>
-      <c r="F38" s="2128"/>
-      <c r="G38" s="2130"/>
-      <c r="H38" s="2131"/>
-      <c r="M38" s="545"/>
-      <c r="N38" s="546"/>
-      <c r="O38" s="547"/>
-      <c r="P38" s="548"/>
-      <c r="R38" s="2285"/>
-      <c r="S38" s="2285"/>
-      <c r="T38" s="2285"/>
-      <c r="U38" s="2285"/>
-      <c r="V38" s="2285"/>
-      <c r="W38" s="2285"/>
-      <c r="X38" s="2285"/>
-      <c r="Y38" s="2285"/>
-      <c r="AB38" s="549"/>
-      <c r="AC38" s="550"/>
-      <c r="AD38" s="551"/>
-      <c r="AE38" s="552"/>
-      <c r="AF38" s="553"/>
-      <c r="AG38" s="1768"/>
-      <c r="AH38" s="1769"/>
-      <c r="AI38" s="1770"/>
-      <c r="AJ38" s="1771"/>
-      <c r="AK38" s="1772"/>
-      <c r="AL38" s="1773"/>
-      <c r="AM38" s="1774"/>
-      <c r="AN38" s="1775"/>
-      <c r="AO38" s="554"/>
-      <c r="AP38" s="555"/>
-      <c r="AQ38" s="556"/>
-      <c r="AR38" s="557"/>
-      <c r="AS38" s="558"/>
-      <c r="AT38" s="559"/>
-      <c r="AU38" s="560"/>
-      <c r="AV38" s="561"/>
-      <c r="AW38" s="562"/>
-      <c r="AX38" s="563"/>
-      <c r="AY38" s="564"/>
-      <c r="AZ38" s="565"/>
+      <c r="C38" s="2130"/>
+      <c r="D38" s="2128"/>
+      <c r="E38" s="2127"/>
+      <c r="F38" s="2129"/>
+      <c r="G38" s="2131"/>
+      <c r="H38" s="2132"/>
+      <c r="M38" s="546"/>
+      <c r="N38" s="547"/>
+      <c r="O38" s="548"/>
+      <c r="P38" s="549"/>
+      <c r="Q38" s="1">
+        <v>88</v>
+      </c>
+      <c r="R38" s="2318">
+        <v>15</v>
+      </c>
+      <c r="S38" s="2369">
+        <v>27</v>
+      </c>
+      <c r="T38" s="2420">
+        <v>4.3229069558776145E-2</v>
+      </c>
+      <c r="U38" s="2471">
+        <v>6.0114524629114749E-2</v>
+      </c>
+      <c r="V38" s="2522">
+        <v>0.11837222534516958</v>
+      </c>
+      <c r="W38" s="2573">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X38" s="2624">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y38" s="2675">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB38" s="550"/>
+      <c r="AC38" s="551"/>
+      <c r="AD38" s="552"/>
+      <c r="AE38" s="553"/>
+      <c r="AF38" s="554"/>
+      <c r="AG38" s="1769"/>
+      <c r="AH38" s="1770"/>
+      <c r="AI38" s="1771"/>
+      <c r="AJ38" s="1772"/>
+      <c r="AK38" s="1773"/>
+      <c r="AL38" s="1774"/>
+      <c r="AM38" s="1775"/>
+      <c r="AN38" s="1776"/>
+      <c r="AO38" s="555"/>
+      <c r="AP38" s="556"/>
+      <c r="AQ38" s="557"/>
+      <c r="AR38" s="558"/>
+      <c r="AS38" s="559"/>
+      <c r="AT38" s="560"/>
+      <c r="AU38" s="561"/>
+      <c r="AV38" s="562"/>
+      <c r="AW38" s="563"/>
+      <c r="AX38" s="564"/>
+      <c r="AY38" s="565"/>
+      <c r="AZ38" s="566"/>
     </row>
     <row r="39" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C39" s="2135"/>
-      <c r="D39" s="2133"/>
-      <c r="E39" s="2132"/>
-      <c r="F39" s="2134"/>
-      <c r="G39" s="2136"/>
-      <c r="H39" s="2137"/>
-      <c r="M39" s="566"/>
-      <c r="N39" s="567"/>
-      <c r="O39" s="568"/>
-      <c r="P39" s="569"/>
-      <c r="R39" s="2285"/>
-      <c r="S39" s="2285"/>
-      <c r="T39" s="2285"/>
-      <c r="U39" s="2285"/>
-      <c r="V39" s="2285"/>
-      <c r="W39" s="2285"/>
-      <c r="X39" s="2285"/>
-      <c r="Y39" s="2285"/>
-      <c r="AB39" s="570"/>
-      <c r="AC39" s="571"/>
-      <c r="AD39" s="572"/>
-      <c r="AE39" s="573"/>
-      <c r="AF39" s="574"/>
-      <c r="AG39" s="1776"/>
-      <c r="AH39" s="1777"/>
-      <c r="AI39" s="1778"/>
-      <c r="AJ39" s="1779"/>
-      <c r="AK39" s="1780"/>
-      <c r="AL39" s="1781"/>
-      <c r="AM39" s="1782"/>
-      <c r="AN39" s="1783"/>
-      <c r="AO39" s="575"/>
-      <c r="AP39" s="576"/>
-      <c r="AQ39" s="577"/>
-      <c r="AR39" s="578"/>
-      <c r="AS39" s="579"/>
-      <c r="AT39" s="580"/>
-      <c r="AU39" s="581"/>
-      <c r="AV39" s="582"/>
-      <c r="AW39" s="583"/>
-      <c r="AX39" s="584"/>
-      <c r="AY39" s="585"/>
-      <c r="AZ39" s="586"/>
+      <c r="C39" s="2136"/>
+      <c r="D39" s="2134"/>
+      <c r="E39" s="2133"/>
+      <c r="F39" s="2135"/>
+      <c r="G39" s="2137"/>
+      <c r="H39" s="2138"/>
+      <c r="M39" s="567"/>
+      <c r="N39" s="568"/>
+      <c r="O39" s="569"/>
+      <c r="P39" s="570"/>
+      <c r="Q39" s="1">
+        <v>88</v>
+      </c>
+      <c r="R39" s="2319">
+        <v>15</v>
+      </c>
+      <c r="S39" s="2370">
+        <v>28</v>
+      </c>
+      <c r="T39" s="2421">
+        <v>5.7761303656887079E-2</v>
+      </c>
+      <c r="U39" s="2472">
+        <v>7.5646902530892512E-2</v>
+      </c>
+      <c r="V39" s="2523">
+        <v>0.15231993182050271</v>
+      </c>
+      <c r="W39" s="2574">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X39" s="2625">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y39" s="2676">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB39" s="571"/>
+      <c r="AC39" s="572"/>
+      <c r="AD39" s="573"/>
+      <c r="AE39" s="574"/>
+      <c r="AF39" s="575"/>
+      <c r="AG39" s="1777"/>
+      <c r="AH39" s="1778"/>
+      <c r="AI39" s="1779"/>
+      <c r="AJ39" s="1780"/>
+      <c r="AK39" s="1781"/>
+      <c r="AL39" s="1782"/>
+      <c r="AM39" s="1783"/>
+      <c r="AN39" s="1784"/>
+      <c r="AO39" s="576"/>
+      <c r="AP39" s="577"/>
+      <c r="AQ39" s="578"/>
+      <c r="AR39" s="579"/>
+      <c r="AS39" s="580"/>
+      <c r="AT39" s="581"/>
+      <c r="AU39" s="582"/>
+      <c r="AV39" s="583"/>
+      <c r="AW39" s="584"/>
+      <c r="AX39" s="585"/>
+      <c r="AY39" s="586"/>
+      <c r="AZ39" s="587"/>
     </row>
     <row r="40" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C40" s="2141"/>
-      <c r="D40" s="2139"/>
-      <c r="E40" s="2138"/>
-      <c r="F40" s="2140"/>
-      <c r="G40" s="2142"/>
-      <c r="H40" s="2143"/>
-      <c r="M40" s="587"/>
-      <c r="N40" s="588"/>
-      <c r="O40" s="589"/>
-      <c r="P40" s="590"/>
-      <c r="R40" s="2285"/>
-      <c r="S40" s="2285"/>
-      <c r="T40" s="2285"/>
-      <c r="U40" s="2285"/>
-      <c r="V40" s="2285"/>
-      <c r="W40" s="2285"/>
-      <c r="X40" s="2285"/>
-      <c r="Y40" s="2285"/>
-      <c r="AB40" s="591"/>
-      <c r="AC40" s="592"/>
-      <c r="AD40" s="593"/>
-      <c r="AE40" s="594"/>
-      <c r="AF40" s="595"/>
-      <c r="AG40" s="1784"/>
-      <c r="AH40" s="1785"/>
-      <c r="AI40" s="1786"/>
-      <c r="AJ40" s="1787"/>
-      <c r="AK40" s="1788"/>
-      <c r="AL40" s="1789"/>
-      <c r="AM40" s="1790"/>
-      <c r="AN40" s="1791"/>
-      <c r="AO40" s="596"/>
-      <c r="AP40" s="597"/>
-      <c r="AQ40" s="598"/>
-      <c r="AR40" s="599"/>
-      <c r="AS40" s="600"/>
-      <c r="AT40" s="601"/>
-      <c r="AU40" s="602"/>
-      <c r="AV40" s="603"/>
-      <c r="AW40" s="604"/>
-      <c r="AX40" s="605"/>
-      <c r="AY40" s="606"/>
-      <c r="AZ40" s="607"/>
+      <c r="C40" s="2142"/>
+      <c r="D40" s="2140"/>
+      <c r="E40" s="2139"/>
+      <c r="F40" s="2141"/>
+      <c r="G40" s="2143"/>
+      <c r="H40" s="2144"/>
+      <c r="M40" s="588"/>
+      <c r="N40" s="589"/>
+      <c r="O40" s="590"/>
+      <c r="P40" s="591"/>
+      <c r="Q40" s="1">
+        <v>88</v>
+      </c>
+      <c r="R40" s="2320">
+        <v>15</v>
+      </c>
+      <c r="S40" s="2371">
+        <v>29</v>
+      </c>
+      <c r="T40" s="2422">
+        <v>7.1915084173781896E-2</v>
+      </c>
+      <c r="U40" s="2473">
+        <v>9.1780017104632863E-2</v>
+      </c>
+      <c r="V40" s="2524">
+        <v>0.18664010555457297</v>
+      </c>
+      <c r="W40" s="2575">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X40" s="2626">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y40" s="2677">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB40" s="592"/>
+      <c r="AC40" s="593"/>
+      <c r="AD40" s="594"/>
+      <c r="AE40" s="595"/>
+      <c r="AF40" s="596"/>
+      <c r="AG40" s="1785"/>
+      <c r="AH40" s="1786"/>
+      <c r="AI40" s="1787"/>
+      <c r="AJ40" s="1788"/>
+      <c r="AK40" s="1789"/>
+      <c r="AL40" s="1790"/>
+      <c r="AM40" s="1791"/>
+      <c r="AN40" s="1792"/>
+      <c r="AO40" s="597"/>
+      <c r="AP40" s="598"/>
+      <c r="AQ40" s="599"/>
+      <c r="AR40" s="600"/>
+      <c r="AS40" s="601"/>
+      <c r="AT40" s="602"/>
+      <c r="AU40" s="603"/>
+      <c r="AV40" s="604"/>
+      <c r="AW40" s="605"/>
+      <c r="AX40" s="606"/>
+      <c r="AY40" s="607"/>
+      <c r="AZ40" s="608"/>
     </row>
     <row r="41" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C41" s="2147"/>
-      <c r="D41" s="2145"/>
-      <c r="E41" s="2144"/>
-      <c r="F41" s="2146"/>
-      <c r="G41" s="2148"/>
-      <c r="H41" s="2149"/>
-      <c r="M41" s="608"/>
-      <c r="N41" s="609"/>
-      <c r="O41" s="610"/>
-      <c r="P41" s="611"/>
-      <c r="R41" s="2285"/>
-      <c r="S41" s="2285"/>
-      <c r="T41" s="2285"/>
-      <c r="U41" s="2285"/>
-      <c r="V41" s="2285"/>
-      <c r="W41" s="2285"/>
-      <c r="X41" s="2285"/>
-      <c r="Y41" s="2285"/>
-      <c r="AB41" s="612"/>
-      <c r="AC41" s="613"/>
-      <c r="AD41" s="614"/>
-      <c r="AE41" s="615"/>
-      <c r="AF41" s="616"/>
-      <c r="AG41" s="1792"/>
-      <c r="AH41" s="1793"/>
-      <c r="AI41" s="1794"/>
-      <c r="AJ41" s="1795"/>
-      <c r="AK41" s="1796"/>
-      <c r="AL41" s="1797"/>
-      <c r="AM41" s="1798"/>
-      <c r="AN41" s="1799"/>
-      <c r="AO41" s="617"/>
-      <c r="AP41" s="618"/>
-      <c r="AQ41" s="619"/>
-      <c r="AR41" s="620"/>
-      <c r="AS41" s="621"/>
-      <c r="AT41" s="622"/>
-      <c r="AU41" s="623"/>
-      <c r="AV41" s="624"/>
-      <c r="AW41" s="625"/>
-      <c r="AX41" s="626"/>
-      <c r="AY41" s="627"/>
-      <c r="AZ41" s="628"/>
+      <c r="C41" s="2148"/>
+      <c r="D41" s="2146"/>
+      <c r="E41" s="2145"/>
+      <c r="F41" s="2147"/>
+      <c r="G41" s="2149"/>
+      <c r="H41" s="2150"/>
+      <c r="M41" s="609"/>
+      <c r="N41" s="610"/>
+      <c r="O41" s="611"/>
+      <c r="P41" s="612"/>
+      <c r="Q41" s="1">
+        <v>88</v>
+      </c>
+      <c r="R41" s="2321">
+        <v>15</v>
+      </c>
+      <c r="S41" s="2372">
+        <v>30</v>
+      </c>
+      <c r="T41" s="2423">
+        <v>8.4119595639613423E-2</v>
+      </c>
+      <c r="U41" s="2474">
+        <v>0.10895478650363145</v>
+      </c>
+      <c r="V41" s="2525">
+        <v>0.22031307876915274</v>
+      </c>
+      <c r="W41" s="2576">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X41" s="2627">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y41" s="2678">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB41" s="613"/>
+      <c r="AC41" s="614"/>
+      <c r="AD41" s="615"/>
+      <c r="AE41" s="616"/>
+      <c r="AF41" s="617"/>
+      <c r="AG41" s="1793"/>
+      <c r="AH41" s="1794"/>
+      <c r="AI41" s="1795"/>
+      <c r="AJ41" s="1796"/>
+      <c r="AK41" s="1797"/>
+      <c r="AL41" s="1798"/>
+      <c r="AM41" s="1799"/>
+      <c r="AN41" s="1800"/>
+      <c r="AO41" s="618"/>
+      <c r="AP41" s="619"/>
+      <c r="AQ41" s="620"/>
+      <c r="AR41" s="621"/>
+      <c r="AS41" s="622"/>
+      <c r="AT41" s="623"/>
+      <c r="AU41" s="624"/>
+      <c r="AV41" s="625"/>
+      <c r="AW41" s="626"/>
+      <c r="AX41" s="627"/>
+      <c r="AY41" s="628"/>
+      <c r="AZ41" s="629"/>
     </row>
     <row r="42" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C42" s="2153"/>
-      <c r="D42" s="2151"/>
-      <c r="E42" s="2150"/>
-      <c r="F42" s="2152"/>
-      <c r="G42" s="2154"/>
-      <c r="H42" s="2155"/>
-      <c r="M42" s="629"/>
-      <c r="N42" s="630"/>
-      <c r="O42" s="631"/>
-      <c r="P42" s="632"/>
-      <c r="R42" s="2285"/>
-      <c r="S42" s="2285"/>
-      <c r="T42" s="2285"/>
-      <c r="U42" s="2285"/>
-      <c r="V42" s="2285"/>
-      <c r="W42" s="2285"/>
-      <c r="X42" s="2285"/>
-      <c r="Y42" s="2285"/>
-      <c r="AB42" s="633"/>
-      <c r="AC42" s="634"/>
-      <c r="AD42" s="635"/>
-      <c r="AE42" s="636"/>
-      <c r="AF42" s="637"/>
-      <c r="AG42" s="1800"/>
-      <c r="AH42" s="1801"/>
-      <c r="AI42" s="1802"/>
-      <c r="AJ42" s="1803"/>
-      <c r="AK42" s="1804"/>
-      <c r="AL42" s="1805"/>
-      <c r="AM42" s="1806"/>
-      <c r="AN42" s="1807"/>
-      <c r="AO42" s="638"/>
-      <c r="AP42" s="639"/>
-      <c r="AQ42" s="640"/>
-      <c r="AR42" s="641"/>
-      <c r="AS42" s="642"/>
-      <c r="AT42" s="643"/>
-      <c r="AU42" s="644"/>
-      <c r="AV42" s="645"/>
-      <c r="AW42" s="646"/>
-      <c r="AX42" s="647"/>
-      <c r="AY42" s="648"/>
-      <c r="AZ42" s="649"/>
+      <c r="C42" s="2154"/>
+      <c r="D42" s="2152"/>
+      <c r="E42" s="2151"/>
+      <c r="F42" s="2153"/>
+      <c r="G42" s="2155"/>
+      <c r="H42" s="2156"/>
+      <c r="M42" s="630"/>
+      <c r="N42" s="631"/>
+      <c r="O42" s="632"/>
+      <c r="P42" s="633"/>
+      <c r="Q42" s="1">
+        <v>88</v>
+      </c>
+      <c r="R42" s="2322">
+        <v>15</v>
+      </c>
+      <c r="S42" s="2373">
+        <v>31</v>
+      </c>
+      <c r="T42" s="2424">
+        <v>9.7544284682425972E-2</v>
+      </c>
+      <c r="U42" s="2475">
+        <v>0.12299409864375793</v>
+      </c>
+      <c r="V42" s="2526">
+        <v>0.25128690798712339</v>
+      </c>
+      <c r="W42" s="2577">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X42" s="2628">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y42" s="2679">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB42" s="634"/>
+      <c r="AC42" s="635"/>
+      <c r="AD42" s="636"/>
+      <c r="AE42" s="637"/>
+      <c r="AF42" s="638"/>
+      <c r="AG42" s="1801"/>
+      <c r="AH42" s="1802"/>
+      <c r="AI42" s="1803"/>
+      <c r="AJ42" s="1804"/>
+      <c r="AK42" s="1805"/>
+      <c r="AL42" s="1806"/>
+      <c r="AM42" s="1807"/>
+      <c r="AN42" s="1808"/>
+      <c r="AO42" s="639"/>
+      <c r="AP42" s="640"/>
+      <c r="AQ42" s="641"/>
+      <c r="AR42" s="642"/>
+      <c r="AS42" s="643"/>
+      <c r="AT42" s="644"/>
+      <c r="AU42" s="645"/>
+      <c r="AV42" s="646"/>
+      <c r="AW42" s="647"/>
+      <c r="AX42" s="648"/>
+      <c r="AY42" s="649"/>
+      <c r="AZ42" s="650"/>
     </row>
     <row r="43" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C43" s="2159"/>
-      <c r="D43" s="2157"/>
-      <c r="E43" s="2156"/>
-      <c r="F43" s="2158"/>
-      <c r="G43" s="2160"/>
-      <c r="H43" s="2161"/>
-      <c r="M43" s="650"/>
-      <c r="N43" s="651"/>
-      <c r="O43" s="652"/>
-      <c r="P43" s="653"/>
-      <c r="R43" s="2285"/>
-      <c r="S43" s="2285"/>
-      <c r="T43" s="2285"/>
-      <c r="U43" s="2285"/>
-      <c r="V43" s="2285"/>
-      <c r="W43" s="2285"/>
-      <c r="X43" s="2285"/>
-      <c r="Y43" s="2285"/>
-      <c r="AB43" s="654"/>
-      <c r="AC43" s="655"/>
-      <c r="AD43" s="656"/>
-      <c r="AE43" s="657"/>
-      <c r="AF43" s="658"/>
-      <c r="AG43" s="1808"/>
-      <c r="AH43" s="1809"/>
-      <c r="AI43" s="1810"/>
-      <c r="AJ43" s="1811"/>
-      <c r="AK43" s="1812"/>
-      <c r="AL43" s="1813"/>
-      <c r="AM43" s="1814"/>
-      <c r="AN43" s="1815"/>
-      <c r="AO43" s="659"/>
-      <c r="AP43" s="660"/>
-      <c r="AQ43" s="661"/>
-      <c r="AR43" s="662"/>
-      <c r="AS43" s="663"/>
-      <c r="AT43" s="664"/>
-      <c r="AU43" s="665"/>
-      <c r="AV43" s="666"/>
-      <c r="AW43" s="667"/>
-      <c r="AX43" s="668"/>
-      <c r="AY43" s="669"/>
-      <c r="AZ43" s="670"/>
+      <c r="C43" s="2160"/>
+      <c r="D43" s="2158"/>
+      <c r="E43" s="2157"/>
+      <c r="F43" s="2159"/>
+      <c r="G43" s="2161"/>
+      <c r="H43" s="2162"/>
+      <c r="M43" s="651"/>
+      <c r="N43" s="652"/>
+      <c r="O43" s="653"/>
+      <c r="P43" s="654"/>
+      <c r="Q43" s="1">
+        <v>88</v>
+      </c>
+      <c r="R43" s="2323">
+        <v>15</v>
+      </c>
+      <c r="S43" s="2374">
+        <v>32</v>
+      </c>
+      <c r="T43" s="2425">
+        <v>0.10763466955617351</v>
+      </c>
+      <c r="U43" s="2476">
+        <v>0.13097679375892007</v>
+      </c>
+      <c r="V43" s="2527">
+        <v>0.27135566175482362</v>
+      </c>
+      <c r="W43" s="2578">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X43" s="2629">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y43" s="2680">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB43" s="655"/>
+      <c r="AC43" s="656"/>
+      <c r="AD43" s="657"/>
+      <c r="AE43" s="658"/>
+      <c r="AF43" s="659"/>
+      <c r="AG43" s="1809"/>
+      <c r="AH43" s="1810"/>
+      <c r="AI43" s="1811"/>
+      <c r="AJ43" s="1812"/>
+      <c r="AK43" s="1813"/>
+      <c r="AL43" s="1814"/>
+      <c r="AM43" s="1815"/>
+      <c r="AN43" s="1816"/>
+      <c r="AO43" s="660"/>
+      <c r="AP43" s="661"/>
+      <c r="AQ43" s="662"/>
+      <c r="AR43" s="663"/>
+      <c r="AS43" s="664"/>
+      <c r="AT43" s="665"/>
+      <c r="AU43" s="666"/>
+      <c r="AV43" s="667"/>
+      <c r="AW43" s="668"/>
+      <c r="AX43" s="669"/>
+      <c r="AY43" s="670"/>
+      <c r="AZ43" s="671"/>
     </row>
     <row r="44" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C44" s="2165"/>
-      <c r="D44" s="2163"/>
-      <c r="E44" s="2162"/>
-      <c r="F44" s="2164"/>
-      <c r="G44" s="2166"/>
-      <c r="H44" s="2167"/>
-      <c r="M44" s="671"/>
-      <c r="N44" s="672"/>
-      <c r="O44" s="673"/>
-      <c r="P44" s="674"/>
-      <c r="R44" s="2285"/>
-      <c r="S44" s="2285"/>
-      <c r="T44" s="2285"/>
-      <c r="U44" s="2285"/>
-      <c r="V44" s="2285"/>
-      <c r="W44" s="2285"/>
-      <c r="X44" s="2285"/>
-      <c r="Y44" s="2285"/>
-      <c r="AB44" s="675"/>
-      <c r="AC44" s="676"/>
-      <c r="AD44" s="677"/>
-      <c r="AE44" s="678"/>
-      <c r="AF44" s="679"/>
-      <c r="AG44" s="1816"/>
-      <c r="AH44" s="1817"/>
-      <c r="AI44" s="1818"/>
-      <c r="AJ44" s="1819"/>
-      <c r="AK44" s="1820"/>
-      <c r="AL44" s="1821"/>
-      <c r="AM44" s="1822"/>
-      <c r="AN44" s="1823"/>
-      <c r="AO44" s="680"/>
-      <c r="AP44" s="681"/>
-      <c r="AQ44" s="682"/>
-      <c r="AR44" s="683"/>
-      <c r="AS44" s="684"/>
-      <c r="AT44" s="685"/>
-      <c r="AU44" s="686"/>
-      <c r="AV44" s="687"/>
-      <c r="AW44" s="688"/>
-      <c r="AX44" s="689"/>
-      <c r="AY44" s="690"/>
-      <c r="AZ44" s="691"/>
+      <c r="C44" s="2166"/>
+      <c r="D44" s="2164"/>
+      <c r="E44" s="2163"/>
+      <c r="F44" s="2165"/>
+      <c r="G44" s="2167"/>
+      <c r="H44" s="2168"/>
+      <c r="M44" s="672"/>
+      <c r="N44" s="673"/>
+      <c r="O44" s="674"/>
+      <c r="P44" s="675"/>
+      <c r="Q44" s="1">
+        <v>88</v>
+      </c>
+      <c r="R44" s="2324">
+        <v>15</v>
+      </c>
+      <c r="S44" s="2375">
+        <v>33</v>
+      </c>
+      <c r="T44" s="2426">
+        <v>0.1185537223558004</v>
+      </c>
+      <c r="U44" s="2477">
+        <v>0.13971719942704675</v>
+      </c>
+      <c r="V44" s="2528">
+        <v>0.29320022163960885</v>
+      </c>
+      <c r="W44" s="2579">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X44" s="2630">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y44" s="2681">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB44" s="676"/>
+      <c r="AC44" s="677"/>
+      <c r="AD44" s="678"/>
+      <c r="AE44" s="679"/>
+      <c r="AF44" s="680"/>
+      <c r="AG44" s="1817"/>
+      <c r="AH44" s="1818"/>
+      <c r="AI44" s="1819"/>
+      <c r="AJ44" s="1820"/>
+      <c r="AK44" s="1821"/>
+      <c r="AL44" s="1822"/>
+      <c r="AM44" s="1823"/>
+      <c r="AN44" s="1824"/>
+      <c r="AO44" s="681"/>
+      <c r="AP44" s="682"/>
+      <c r="AQ44" s="683"/>
+      <c r="AR44" s="684"/>
+      <c r="AS44" s="685"/>
+      <c r="AT44" s="686"/>
+      <c r="AU44" s="687"/>
+      <c r="AV44" s="688"/>
+      <c r="AW44" s="689"/>
+      <c r="AX44" s="690"/>
+      <c r="AY44" s="691"/>
+      <c r="AZ44" s="692"/>
     </row>
     <row r="45" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C45" s="2171"/>
-      <c r="D45" s="2169"/>
-      <c r="E45" s="2168"/>
-      <c r="F45" s="2170"/>
-      <c r="G45" s="2172"/>
-      <c r="H45" s="2173"/>
-      <c r="M45" s="692"/>
-      <c r="N45" s="693"/>
-      <c r="O45" s="694"/>
-      <c r="P45" s="695"/>
-      <c r="R45" s="2285"/>
-      <c r="S45" s="2285"/>
-      <c r="T45" s="2285"/>
-      <c r="U45" s="2285"/>
-      <c r="V45" s="2285"/>
-      <c r="W45" s="2285"/>
-      <c r="X45" s="2285"/>
-      <c r="Y45" s="2285"/>
-      <c r="AB45" s="696"/>
-      <c r="AC45" s="697"/>
-      <c r="AD45" s="698"/>
-      <c r="AE45" s="699"/>
-      <c r="AF45" s="700"/>
-      <c r="AG45" s="1824"/>
-      <c r="AH45" s="1825"/>
-      <c r="AI45" s="1826"/>
-      <c r="AJ45" s="1827"/>
-      <c r="AK45" s="1828"/>
-      <c r="AL45" s="1829"/>
-      <c r="AM45" s="1830"/>
-      <c r="AN45" s="1831"/>
-      <c r="AO45" s="701"/>
-      <c r="AP45" s="702"/>
-      <c r="AQ45" s="703"/>
-      <c r="AR45" s="704"/>
-      <c r="AS45" s="705"/>
-      <c r="AT45" s="706"/>
-      <c r="AU45" s="707"/>
-      <c r="AV45" s="708"/>
-      <c r="AW45" s="709"/>
-      <c r="AX45" s="710"/>
-      <c r="AY45" s="711"/>
-      <c r="AZ45" s="712"/>
+      <c r="C45" s="2172"/>
+      <c r="D45" s="2170"/>
+      <c r="E45" s="2169"/>
+      <c r="F45" s="2171"/>
+      <c r="G45" s="2173"/>
+      <c r="H45" s="2174"/>
+      <c r="M45" s="693"/>
+      <c r="N45" s="694"/>
+      <c r="O45" s="695"/>
+      <c r="P45" s="696"/>
+      <c r="Q45" s="1">
+        <v>88</v>
+      </c>
+      <c r="R45" s="2325">
+        <v>15</v>
+      </c>
+      <c r="S45" s="2376">
+        <v>34</v>
+      </c>
+      <c r="T45" s="2427">
+        <v>0.12283270223096976</v>
+      </c>
+      <c r="U45" s="2478">
+        <v>0.13767879417667037</v>
+      </c>
+      <c r="V45" s="2529">
+        <v>0.29493119495180775</v>
+      </c>
+      <c r="W45" s="2580">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X45" s="2631">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y45" s="2682">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB45" s="697"/>
+      <c r="AC45" s="698"/>
+      <c r="AD45" s="699"/>
+      <c r="AE45" s="700"/>
+      <c r="AF45" s="701"/>
+      <c r="AG45" s="1825"/>
+      <c r="AH45" s="1826"/>
+      <c r="AI45" s="1827"/>
+      <c r="AJ45" s="1828"/>
+      <c r="AK45" s="1829"/>
+      <c r="AL45" s="1830"/>
+      <c r="AM45" s="1831"/>
+      <c r="AN45" s="1832"/>
+      <c r="AO45" s="702"/>
+      <c r="AP45" s="703"/>
+      <c r="AQ45" s="704"/>
+      <c r="AR45" s="705"/>
+      <c r="AS45" s="706"/>
+      <c r="AT45" s="707"/>
+      <c r="AU45" s="708"/>
+      <c r="AV45" s="709"/>
+      <c r="AW45" s="710"/>
+      <c r="AX45" s="711"/>
+      <c r="AY45" s="712"/>
+      <c r="AZ45" s="713"/>
     </row>
     <row r="46" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C46" s="2177"/>
-      <c r="D46" s="2175"/>
-      <c r="E46" s="2174"/>
-      <c r="F46" s="2176"/>
-      <c r="G46" s="2178"/>
-      <c r="H46" s="2179"/>
-      <c r="M46" s="713"/>
-      <c r="N46" s="714"/>
-      <c r="O46" s="715"/>
-      <c r="P46" s="716"/>
-      <c r="R46" s="2285"/>
-      <c r="S46" s="2285"/>
-      <c r="T46" s="2285"/>
-      <c r="U46" s="2285"/>
-      <c r="V46" s="2285"/>
-      <c r="W46" s="2285"/>
-      <c r="X46" s="2285"/>
-      <c r="Y46" s="2285"/>
-      <c r="AB46" s="717"/>
-      <c r="AC46" s="718"/>
-      <c r="AD46" s="719"/>
-      <c r="AE46" s="720"/>
-      <c r="AF46" s="721"/>
-      <c r="AG46" s="1832"/>
-      <c r="AH46" s="1833"/>
-      <c r="AI46" s="1834"/>
-      <c r="AJ46" s="1835"/>
-      <c r="AK46" s="1836"/>
-      <c r="AL46" s="1837"/>
-      <c r="AM46" s="1838"/>
-      <c r="AN46" s="1839"/>
-      <c r="AO46" s="722"/>
-      <c r="AP46" s="723"/>
-      <c r="AQ46" s="724"/>
-      <c r="AR46" s="725"/>
-      <c r="AS46" s="726"/>
-      <c r="AT46" s="727"/>
-      <c r="AU46" s="728"/>
-      <c r="AV46" s="729"/>
-      <c r="AW46" s="730"/>
-      <c r="AX46" s="731"/>
-      <c r="AY46" s="732"/>
-      <c r="AZ46" s="733"/>
+      <c r="C46" s="2178"/>
+      <c r="D46" s="2176"/>
+      <c r="E46" s="2175"/>
+      <c r="F46" s="2177"/>
+      <c r="G46" s="2179"/>
+      <c r="H46" s="2180"/>
+      <c r="M46" s="714"/>
+      <c r="N46" s="715"/>
+      <c r="O46" s="716"/>
+      <c r="P46" s="717"/>
+      <c r="Q46" s="1">
+        <v>88</v>
+      </c>
+      <c r="R46" s="2326">
+        <v>15</v>
+      </c>
+      <c r="S46" s="2377">
+        <v>35</v>
+      </c>
+      <c r="T46" s="2428">
+        <v>0.12000165895990426</v>
+      </c>
+      <c r="U46" s="2479">
+        <v>0.12685970578339523</v>
+      </c>
+      <c r="V46" s="2530">
+        <v>0.27857629118914828</v>
+      </c>
+      <c r="W46" s="2581">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X46" s="2632">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y46" s="2683">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB46" s="718"/>
+      <c r="AC46" s="719"/>
+      <c r="AD46" s="720"/>
+      <c r="AE46" s="721"/>
+      <c r="AF46" s="722"/>
+      <c r="AG46" s="1833"/>
+      <c r="AH46" s="1834"/>
+      <c r="AI46" s="1835"/>
+      <c r="AJ46" s="1836"/>
+      <c r="AK46" s="1837"/>
+      <c r="AL46" s="1838"/>
+      <c r="AM46" s="1839"/>
+      <c r="AN46" s="1840"/>
+      <c r="AO46" s="723"/>
+      <c r="AP46" s="724"/>
+      <c r="AQ46" s="725"/>
+      <c r="AR46" s="726"/>
+      <c r="AS46" s="727"/>
+      <c r="AT46" s="728"/>
+      <c r="AU46" s="729"/>
+      <c r="AV46" s="730"/>
+      <c r="AW46" s="731"/>
+      <c r="AX46" s="732"/>
+      <c r="AY46" s="733"/>
+      <c r="AZ46" s="734"/>
     </row>
     <row r="47" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C47" s="2183"/>
-      <c r="D47" s="2181"/>
-      <c r="E47" s="2180"/>
-      <c r="F47" s="2182"/>
-      <c r="G47" s="2184"/>
-      <c r="H47" s="2185"/>
-      <c r="M47" s="734"/>
-      <c r="N47" s="735"/>
-      <c r="O47" s="736"/>
-      <c r="P47" s="737"/>
-      <c r="R47" s="2285"/>
-      <c r="S47" s="2285"/>
-      <c r="T47" s="2285"/>
-      <c r="U47" s="2285"/>
-      <c r="V47" s="2285"/>
-      <c r="W47" s="2285"/>
-      <c r="X47" s="2285"/>
-      <c r="Y47" s="2285"/>
-      <c r="AB47" s="738"/>
-      <c r="AC47" s="739"/>
-      <c r="AD47" s="740"/>
-      <c r="AE47" s="741"/>
-      <c r="AF47" s="742"/>
-      <c r="AG47" s="1840"/>
-      <c r="AH47" s="1841"/>
-      <c r="AI47" s="1842"/>
-      <c r="AJ47" s="1843"/>
-      <c r="AK47" s="1844"/>
-      <c r="AL47" s="1845"/>
-      <c r="AM47" s="1846"/>
-      <c r="AN47" s="1847"/>
-      <c r="AO47" s="743"/>
-      <c r="AP47" s="744"/>
-      <c r="AQ47" s="745"/>
-      <c r="AR47" s="746"/>
-      <c r="AS47" s="747"/>
-      <c r="AT47" s="748"/>
-      <c r="AU47" s="749"/>
-      <c r="AV47" s="750"/>
-      <c r="AW47" s="751"/>
-      <c r="AX47" s="752"/>
-      <c r="AY47" s="753"/>
-      <c r="AZ47" s="754"/>
+      <c r="C47" s="2184"/>
+      <c r="D47" s="2182"/>
+      <c r="E47" s="2181"/>
+      <c r="F47" s="2183"/>
+      <c r="G47" s="2185"/>
+      <c r="H47" s="2186"/>
+      <c r="M47" s="735"/>
+      <c r="N47" s="736"/>
+      <c r="O47" s="737"/>
+      <c r="P47" s="738"/>
+      <c r="Q47" s="1">
+        <v>88</v>
+      </c>
+      <c r="R47" s="2327">
+        <v>15</v>
+      </c>
+      <c r="S47" s="2378">
+        <v>36</v>
+      </c>
+      <c r="T47" s="2429">
+        <v>0.11310844195529919</v>
+      </c>
+      <c r="U47" s="2480">
+        <v>0.11231969797350914</v>
+      </c>
+      <c r="V47" s="2531">
+        <v>0.2535080644221856</v>
+      </c>
+      <c r="W47" s="2582">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X47" s="2633">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y47" s="2684">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB47" s="739"/>
+      <c r="AC47" s="740"/>
+      <c r="AD47" s="741"/>
+      <c r="AE47" s="742"/>
+      <c r="AF47" s="743"/>
+      <c r="AG47" s="1841"/>
+      <c r="AH47" s="1842"/>
+      <c r="AI47" s="1843"/>
+      <c r="AJ47" s="1844"/>
+      <c r="AK47" s="1845"/>
+      <c r="AL47" s="1846"/>
+      <c r="AM47" s="1847"/>
+      <c r="AN47" s="1848"/>
+      <c r="AO47" s="744"/>
+      <c r="AP47" s="745"/>
+      <c r="AQ47" s="746"/>
+      <c r="AR47" s="747"/>
+      <c r="AS47" s="748"/>
+      <c r="AT47" s="749"/>
+      <c r="AU47" s="750"/>
+      <c r="AV47" s="751"/>
+      <c r="AW47" s="752"/>
+      <c r="AX47" s="753"/>
+      <c r="AY47" s="754"/>
+      <c r="AZ47" s="755"/>
     </row>
     <row r="48" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C48" s="2189"/>
-      <c r="D48" s="2187"/>
-      <c r="E48" s="2186"/>
-      <c r="F48" s="2188"/>
-      <c r="G48" s="2190"/>
-      <c r="H48" s="2191"/>
-      <c r="M48" s="755"/>
-      <c r="N48" s="756"/>
-      <c r="O48" s="757"/>
-      <c r="P48" s="758"/>
-      <c r="R48" s="2285"/>
-      <c r="S48" s="2285"/>
-      <c r="T48" s="2285"/>
-      <c r="U48" s="2285"/>
-      <c r="V48" s="2285"/>
-      <c r="W48" s="2285"/>
-      <c r="X48" s="2285"/>
-      <c r="Y48" s="2285"/>
-      <c r="AB48" s="759"/>
-      <c r="AC48" s="760"/>
-      <c r="AD48" s="761"/>
-      <c r="AE48" s="762"/>
-      <c r="AF48" s="763"/>
-      <c r="AG48" s="1848"/>
-      <c r="AH48" s="1849"/>
-      <c r="AI48" s="1850"/>
-      <c r="AJ48" s="1851"/>
-      <c r="AK48" s="1852"/>
-      <c r="AL48" s="1853"/>
-      <c r="AM48" s="1854"/>
-      <c r="AN48" s="1855"/>
-      <c r="AO48" s="764"/>
-      <c r="AP48" s="765"/>
-      <c r="AQ48" s="766"/>
-      <c r="AR48" s="767"/>
-      <c r="AS48" s="768"/>
-      <c r="AT48" s="769"/>
-      <c r="AU48" s="770"/>
-      <c r="AV48" s="771"/>
-      <c r="AW48" s="772"/>
-      <c r="AX48" s="773"/>
-      <c r="AY48" s="774"/>
-      <c r="AZ48" s="775"/>
+      <c r="C48" s="2190"/>
+      <c r="D48" s="2188"/>
+      <c r="E48" s="2187"/>
+      <c r="F48" s="2189"/>
+      <c r="G48" s="2191"/>
+      <c r="H48" s="2192"/>
+      <c r="M48" s="756"/>
+      <c r="N48" s="757"/>
+      <c r="O48" s="758"/>
+      <c r="P48" s="759"/>
+      <c r="Q48" s="1">
+        <v>88</v>
+      </c>
+      <c r="R48" s="2328">
+        <v>15</v>
+      </c>
+      <c r="S48" s="2379">
+        <v>37</v>
+      </c>
+      <c r="T48" s="2430">
+        <v>0.10838186982718061</v>
+      </c>
+      <c r="U48" s="2481">
+        <v>0.10024891347488787</v>
+      </c>
+      <c r="V48" s="2532">
+        <v>0.23369301167079043</v>
+      </c>
+      <c r="W48" s="2583">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X48" s="2634">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y48" s="2685">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB48" s="760"/>
+      <c r="AC48" s="761"/>
+      <c r="AD48" s="762"/>
+      <c r="AE48" s="763"/>
+      <c r="AF48" s="764"/>
+      <c r="AG48" s="1849"/>
+      <c r="AH48" s="1850"/>
+      <c r="AI48" s="1851"/>
+      <c r="AJ48" s="1852"/>
+      <c r="AK48" s="1853"/>
+      <c r="AL48" s="1854"/>
+      <c r="AM48" s="1855"/>
+      <c r="AN48" s="1856"/>
+      <c r="AO48" s="765"/>
+      <c r="AP48" s="766"/>
+      <c r="AQ48" s="767"/>
+      <c r="AR48" s="768"/>
+      <c r="AS48" s="769"/>
+      <c r="AT48" s="770"/>
+      <c r="AU48" s="771"/>
+      <c r="AV48" s="772"/>
+      <c r="AW48" s="773"/>
+      <c r="AX48" s="774"/>
+      <c r="AY48" s="775"/>
+      <c r="AZ48" s="776"/>
     </row>
     <row r="49" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C49" s="2195"/>
-      <c r="D49" s="2193"/>
-      <c r="E49" s="2192"/>
-      <c r="F49" s="2194"/>
-      <c r="G49" s="2196"/>
-      <c r="H49" s="2197"/>
-      <c r="M49" s="776"/>
-      <c r="N49" s="777"/>
-      <c r="O49" s="778"/>
-      <c r="P49" s="779"/>
-      <c r="R49" s="2285"/>
-      <c r="S49" s="2285"/>
-      <c r="T49" s="2285"/>
-      <c r="U49" s="2285"/>
-      <c r="V49" s="2285"/>
-      <c r="W49" s="2285"/>
-      <c r="X49" s="2285"/>
-      <c r="Y49" s="2285"/>
-      <c r="AB49" s="780"/>
-      <c r="AC49" s="781"/>
-      <c r="AD49" s="782"/>
-      <c r="AE49" s="783"/>
-      <c r="AF49" s="784"/>
-      <c r="AG49" s="1856"/>
-      <c r="AH49" s="1857"/>
-      <c r="AI49" s="1858"/>
-      <c r="AJ49" s="1859"/>
-      <c r="AK49" s="1860"/>
-      <c r="AL49" s="1861"/>
-      <c r="AM49" s="1862"/>
-      <c r="AN49" s="1863"/>
-      <c r="AO49" s="785"/>
-      <c r="AP49" s="786"/>
-      <c r="AQ49" s="787"/>
-      <c r="AR49" s="788"/>
-      <c r="AS49" s="789"/>
-      <c r="AT49" s="790"/>
-      <c r="AU49" s="791"/>
-      <c r="AV49" s="792"/>
-      <c r="AW49" s="793"/>
-      <c r="AX49" s="794"/>
-      <c r="AY49" s="795"/>
-      <c r="AZ49" s="796"/>
+      <c r="C49" s="2196"/>
+      <c r="D49" s="2194"/>
+      <c r="E49" s="2193"/>
+      <c r="F49" s="2195"/>
+      <c r="G49" s="2197"/>
+      <c r="H49" s="2198"/>
+      <c r="M49" s="777"/>
+      <c r="N49" s="778"/>
+      <c r="O49" s="779"/>
+      <c r="P49" s="780"/>
+      <c r="Q49" s="1">
+        <v>88</v>
+      </c>
+      <c r="R49" s="2329">
+        <v>15</v>
+      </c>
+      <c r="S49" s="2380">
+        <v>38</v>
+      </c>
+      <c r="T49" s="2431">
+        <v>0.10098925722927406</v>
+      </c>
+      <c r="U49" s="2482">
+        <v>8.9053792246448896E-2</v>
+      </c>
+      <c r="V49" s="2533">
+        <v>0.21230649753733516</v>
+      </c>
+      <c r="W49" s="2584">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X49" s="2635">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y49" s="2686">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB49" s="781"/>
+      <c r="AC49" s="782"/>
+      <c r="AD49" s="783"/>
+      <c r="AE49" s="784"/>
+      <c r="AF49" s="785"/>
+      <c r="AG49" s="1857"/>
+      <c r="AH49" s="1858"/>
+      <c r="AI49" s="1859"/>
+      <c r="AJ49" s="1860"/>
+      <c r="AK49" s="1861"/>
+      <c r="AL49" s="1862"/>
+      <c r="AM49" s="1863"/>
+      <c r="AN49" s="1864"/>
+      <c r="AO49" s="786"/>
+      <c r="AP49" s="787"/>
+      <c r="AQ49" s="788"/>
+      <c r="AR49" s="789"/>
+      <c r="AS49" s="790"/>
+      <c r="AT49" s="791"/>
+      <c r="AU49" s="792"/>
+      <c r="AV49" s="793"/>
+      <c r="AW49" s="794"/>
+      <c r="AX49" s="795"/>
+      <c r="AY49" s="796"/>
+      <c r="AZ49" s="797"/>
     </row>
     <row r="50" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C50" s="2201"/>
-      <c r="D50" s="2199"/>
-      <c r="E50" s="2198"/>
-      <c r="F50" s="2200"/>
-      <c r="G50" s="2202"/>
-      <c r="H50" s="2203"/>
-      <c r="M50" s="797"/>
-      <c r="N50" s="798"/>
-      <c r="O50" s="799"/>
-      <c r="P50" s="800"/>
-      <c r="R50" s="2285"/>
-      <c r="S50" s="2285"/>
-      <c r="T50" s="2285"/>
-      <c r="U50" s="2285"/>
-      <c r="V50" s="2285"/>
-      <c r="W50" s="2285"/>
-      <c r="X50" s="2285"/>
-      <c r="Y50" s="2285"/>
-      <c r="AB50" s="801"/>
-      <c r="AC50" s="802"/>
-      <c r="AD50" s="803"/>
-      <c r="AE50" s="804"/>
-      <c r="AF50" s="805"/>
-      <c r="AG50" s="1864"/>
-      <c r="AH50" s="1865"/>
-      <c r="AI50" s="1866"/>
-      <c r="AJ50" s="1867"/>
-      <c r="AK50" s="1868"/>
-      <c r="AL50" s="1869"/>
-      <c r="AM50" s="1870"/>
-      <c r="AN50" s="1871"/>
-      <c r="AO50" s="806"/>
-      <c r="AP50" s="807"/>
-      <c r="AQ50" s="808"/>
-      <c r="AR50" s="809"/>
-      <c r="AS50" s="810"/>
-      <c r="AT50" s="811"/>
-      <c r="AU50" s="812"/>
-      <c r="AV50" s="813"/>
-      <c r="AW50" s="814"/>
-      <c r="AX50" s="815"/>
-      <c r="AY50" s="816"/>
-      <c r="AZ50" s="817"/>
+      <c r="C50" s="2202"/>
+      <c r="D50" s="2200"/>
+      <c r="E50" s="2199"/>
+      <c r="F50" s="2201"/>
+      <c r="G50" s="2203"/>
+      <c r="H50" s="2204"/>
+      <c r="M50" s="798"/>
+      <c r="N50" s="799"/>
+      <c r="O50" s="800"/>
+      <c r="P50" s="801"/>
+      <c r="Q50" s="1">
+        <v>88</v>
+      </c>
+      <c r="R50" s="2330">
+        <v>15</v>
+      </c>
+      <c r="S50" s="2381">
+        <v>39</v>
+      </c>
+      <c r="T50" s="2432">
+        <v>9.4775954797554421E-2</v>
+      </c>
+      <c r="U50" s="2483">
+        <v>8.0657521757533185E-2</v>
+      </c>
+      <c r="V50" s="2534">
+        <v>0.19559785699447091</v>
+      </c>
+      <c r="W50" s="2585">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X50" s="2636">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y50" s="2687">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB50" s="802"/>
+      <c r="AC50" s="803"/>
+      <c r="AD50" s="804"/>
+      <c r="AE50" s="805"/>
+      <c r="AF50" s="806"/>
+      <c r="AG50" s="1865"/>
+      <c r="AH50" s="1866"/>
+      <c r="AI50" s="1867"/>
+      <c r="AJ50" s="1868"/>
+      <c r="AK50" s="1869"/>
+      <c r="AL50" s="1870"/>
+      <c r="AM50" s="1871"/>
+      <c r="AN50" s="1872"/>
+      <c r="AO50" s="807"/>
+      <c r="AP50" s="808"/>
+      <c r="AQ50" s="809"/>
+      <c r="AR50" s="810"/>
+      <c r="AS50" s="811"/>
+      <c r="AT50" s="812"/>
+      <c r="AU50" s="813"/>
+      <c r="AV50" s="814"/>
+      <c r="AW50" s="815"/>
+      <c r="AX50" s="816"/>
+      <c r="AY50" s="817"/>
+      <c r="AZ50" s="818"/>
     </row>
     <row r="51" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C51" s="2207"/>
-      <c r="D51" s="2205"/>
-      <c r="E51" s="2204"/>
-      <c r="F51" s="2206"/>
-      <c r="G51" s="2208"/>
-      <c r="H51" s="2209"/>
-      <c r="M51" s="818"/>
-      <c r="N51" s="819"/>
-      <c r="O51" s="820"/>
-      <c r="P51" s="821"/>
-      <c r="R51" s="2285"/>
-      <c r="S51" s="2285"/>
-      <c r="T51" s="2285"/>
-      <c r="U51" s="2285"/>
-      <c r="V51" s="2285"/>
-      <c r="W51" s="2285"/>
-      <c r="X51" s="2285"/>
-      <c r="Y51" s="2285"/>
-      <c r="AB51" s="822"/>
-      <c r="AC51" s="823"/>
-      <c r="AD51" s="824"/>
-      <c r="AE51" s="825"/>
-      <c r="AF51" s="826"/>
-      <c r="AG51" s="1872"/>
-      <c r="AH51" s="1873"/>
-      <c r="AI51" s="1874"/>
-      <c r="AJ51" s="1875"/>
-      <c r="AK51" s="1876"/>
-      <c r="AL51" s="1877"/>
-      <c r="AM51" s="1878"/>
-      <c r="AN51" s="1879"/>
-      <c r="AO51" s="827"/>
-      <c r="AP51" s="828"/>
-      <c r="AQ51" s="829"/>
-      <c r="AR51" s="830"/>
-      <c r="AS51" s="831"/>
-      <c r="AT51" s="832"/>
-      <c r="AU51" s="833"/>
-      <c r="AV51" s="834"/>
-      <c r="AW51" s="835"/>
-      <c r="AX51" s="836"/>
-      <c r="AY51" s="837"/>
-      <c r="AZ51" s="838"/>
+      <c r="C51" s="2208"/>
+      <c r="D51" s="2206"/>
+      <c r="E51" s="2205"/>
+      <c r="F51" s="2207"/>
+      <c r="G51" s="2209"/>
+      <c r="H51" s="2210"/>
+      <c r="M51" s="819"/>
+      <c r="N51" s="820"/>
+      <c r="O51" s="821"/>
+      <c r="P51" s="822"/>
+      <c r="Q51" s="1">
+        <v>88</v>
+      </c>
+      <c r="R51" s="2331">
+        <v>15</v>
+      </c>
+      <c r="S51" s="2382">
+        <v>40</v>
+      </c>
+      <c r="T51" s="2433">
+        <v>8.459519731605479E-2</v>
+      </c>
+      <c r="U51" s="2484">
+        <v>6.9625056510333655E-2</v>
+      </c>
+      <c r="V51" s="2535">
+        <v>0.17162651795397188</v>
+      </c>
+      <c r="W51" s="2586">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X51" s="2637">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y51" s="2688">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB51" s="823"/>
+      <c r="AC51" s="824"/>
+      <c r="AD51" s="825"/>
+      <c r="AE51" s="826"/>
+      <c r="AF51" s="827"/>
+      <c r="AG51" s="1873"/>
+      <c r="AH51" s="1874"/>
+      <c r="AI51" s="1875"/>
+      <c r="AJ51" s="1876"/>
+      <c r="AK51" s="1877"/>
+      <c r="AL51" s="1878"/>
+      <c r="AM51" s="1879"/>
+      <c r="AN51" s="1880"/>
+      <c r="AO51" s="828"/>
+      <c r="AP51" s="829"/>
+      <c r="AQ51" s="830"/>
+      <c r="AR51" s="831"/>
+      <c r="AS51" s="832"/>
+      <c r="AT51" s="833"/>
+      <c r="AU51" s="834"/>
+      <c r="AV51" s="835"/>
+      <c r="AW51" s="836"/>
+      <c r="AX51" s="837"/>
+      <c r="AY51" s="838"/>
+      <c r="AZ51" s="839"/>
     </row>
     <row r="52" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C52" s="2213"/>
-      <c r="D52" s="2211"/>
-      <c r="E52" s="2210"/>
-      <c r="F52" s="2212"/>
-      <c r="G52" s="2214"/>
-      <c r="H52" s="2215"/>
-      <c r="M52" s="839"/>
-      <c r="N52" s="840"/>
-      <c r="O52" s="841"/>
-      <c r="P52" s="842"/>
-      <c r="R52" s="2285"/>
-      <c r="S52" s="2285"/>
-      <c r="T52" s="2285"/>
-      <c r="U52" s="2285"/>
-      <c r="V52" s="2285"/>
-      <c r="W52" s="2285"/>
-      <c r="X52" s="2285"/>
-      <c r="Y52" s="2285"/>
-      <c r="AB52" s="843"/>
-      <c r="AC52" s="844"/>
-      <c r="AD52" s="845"/>
-      <c r="AE52" s="846"/>
-      <c r="AF52" s="847"/>
-      <c r="AG52" s="1880"/>
-      <c r="AH52" s="1881"/>
-      <c r="AI52" s="1882"/>
-      <c r="AJ52" s="1883"/>
-      <c r="AK52" s="1884"/>
-      <c r="AL52" s="1885"/>
-      <c r="AM52" s="1886"/>
-      <c r="AN52" s="1887"/>
-      <c r="AO52" s="848"/>
-      <c r="AP52" s="849"/>
-      <c r="AQ52" s="850"/>
-      <c r="AR52" s="851"/>
-      <c r="AS52" s="852"/>
-      <c r="AT52" s="853"/>
-      <c r="AU52" s="854"/>
-      <c r="AV52" s="855"/>
-      <c r="AW52" s="856"/>
-      <c r="AX52" s="857"/>
-      <c r="AY52" s="858"/>
-      <c r="AZ52" s="859"/>
+      <c r="C52" s="2214"/>
+      <c r="D52" s="2212"/>
+      <c r="E52" s="2211"/>
+      <c r="F52" s="2213"/>
+      <c r="G52" s="2215"/>
+      <c r="H52" s="2216"/>
+      <c r="M52" s="840"/>
+      <c r="N52" s="841"/>
+      <c r="O52" s="842"/>
+      <c r="P52" s="843"/>
+      <c r="Q52" s="1">
+        <v>88</v>
+      </c>
+      <c r="R52" s="2332">
+        <v>15</v>
+      </c>
+      <c r="S52" s="2383">
+        <v>41</v>
+      </c>
+      <c r="T52" s="2434">
+        <v>7.4812560857215937E-2</v>
+      </c>
+      <c r="U52" s="2485">
+        <v>5.8372894609533592E-2</v>
+      </c>
+      <c r="V52" s="2536">
+        <v>0.14777867911913292</v>
+      </c>
+      <c r="W52" s="2587">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X52" s="2638">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y52" s="2689">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB52" s="844"/>
+      <c r="AC52" s="845"/>
+      <c r="AD52" s="846"/>
+      <c r="AE52" s="847"/>
+      <c r="AF52" s="848"/>
+      <c r="AG52" s="1881"/>
+      <c r="AH52" s="1882"/>
+      <c r="AI52" s="1883"/>
+      <c r="AJ52" s="1884"/>
+      <c r="AK52" s="1885"/>
+      <c r="AL52" s="1886"/>
+      <c r="AM52" s="1887"/>
+      <c r="AN52" s="1888"/>
+      <c r="AO52" s="849"/>
+      <c r="AP52" s="850"/>
+      <c r="AQ52" s="851"/>
+      <c r="AR52" s="852"/>
+      <c r="AS52" s="853"/>
+      <c r="AT52" s="854"/>
+      <c r="AU52" s="855"/>
+      <c r="AV52" s="856"/>
+      <c r="AW52" s="857"/>
+      <c r="AX52" s="858"/>
+      <c r="AY52" s="859"/>
+      <c r="AZ52" s="860"/>
     </row>
     <row r="53" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C53" s="2219"/>
-      <c r="D53" s="2217"/>
-      <c r="E53" s="2216"/>
-      <c r="F53" s="2218"/>
-      <c r="G53" s="2220"/>
-      <c r="H53" s="2221"/>
-      <c r="M53" s="860"/>
-      <c r="N53" s="861"/>
-      <c r="O53" s="862"/>
-      <c r="P53" s="863"/>
-      <c r="R53" s="2285"/>
-      <c r="S53" s="2285"/>
-      <c r="T53" s="2285"/>
-      <c r="U53" s="2285"/>
-      <c r="V53" s="2285"/>
-      <c r="W53" s="2285"/>
-      <c r="X53" s="2285"/>
-      <c r="Y53" s="2285"/>
-      <c r="AB53" s="864"/>
-      <c r="AC53" s="865"/>
-      <c r="AD53" s="866"/>
-      <c r="AE53" s="867"/>
-      <c r="AF53" s="868"/>
-      <c r="AG53" s="1888"/>
-      <c r="AH53" s="1889"/>
-      <c r="AI53" s="1890"/>
-      <c r="AJ53" s="1891"/>
-      <c r="AK53" s="1892"/>
-      <c r="AL53" s="1893"/>
-      <c r="AM53" s="1894"/>
-      <c r="AN53" s="1895"/>
-      <c r="AO53" s="869"/>
-      <c r="AP53" s="870"/>
-      <c r="AQ53" s="871"/>
-      <c r="AR53" s="872"/>
-      <c r="AS53" s="873"/>
-      <c r="AT53" s="874"/>
-      <c r="AU53" s="875"/>
-      <c r="AV53" s="876"/>
-      <c r="AW53" s="877"/>
+      <c r="C53" s="2220"/>
+      <c r="D53" s="2218"/>
+      <c r="E53" s="2217"/>
+      <c r="F53" s="2219"/>
+      <c r="G53" s="2221"/>
+      <c r="H53" s="2222"/>
+      <c r="M53" s="861"/>
+      <c r="N53" s="862"/>
+      <c r="O53" s="863"/>
+      <c r="P53" s="864"/>
+      <c r="Q53" s="1">
+        <v>88</v>
+      </c>
+      <c r="R53" s="2333">
+        <v>15</v>
+      </c>
+      <c r="S53" s="2384">
+        <v>42</v>
+      </c>
+      <c r="T53" s="2435">
+        <v>6.7917849853449119E-2</v>
+      </c>
+      <c r="U53" s="2486">
+        <v>5.1498636516173917E-2</v>
+      </c>
+      <c r="V53" s="2537">
+        <v>0.1322911454986665</v>
+      </c>
+      <c r="W53" s="2588">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X53" s="2639">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y53" s="2690">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB53" s="865"/>
+      <c r="AC53" s="866"/>
+      <c r="AD53" s="867"/>
+      <c r="AE53" s="868"/>
+      <c r="AF53" s="869"/>
+      <c r="AG53" s="1889"/>
+      <c r="AH53" s="1890"/>
+      <c r="AI53" s="1891"/>
+      <c r="AJ53" s="1892"/>
+      <c r="AK53" s="1893"/>
+      <c r="AL53" s="1894"/>
+      <c r="AM53" s="1895"/>
+      <c r="AN53" s="1896"/>
+      <c r="AO53" s="870"/>
+      <c r="AP53" s="871"/>
+      <c r="AQ53" s="872"/>
+      <c r="AR53" s="873"/>
+      <c r="AS53" s="874"/>
+      <c r="AT53" s="875"/>
+      <c r="AU53" s="876"/>
+      <c r="AV53" s="877"/>
+      <c r="AW53" s="878"/>
     </row>
     <row r="54" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C54" s="2225"/>
-      <c r="D54" s="2223"/>
-      <c r="E54" s="2222"/>
-      <c r="F54" s="2224"/>
-      <c r="G54" s="2226"/>
-      <c r="H54" s="2227"/>
-      <c r="M54" s="878"/>
-      <c r="N54" s="879"/>
-      <c r="O54" s="880"/>
-      <c r="P54" s="881"/>
-      <c r="R54" s="2285"/>
-      <c r="S54" s="2285"/>
-      <c r="T54" s="2285"/>
-      <c r="U54" s="2285"/>
-      <c r="V54" s="2285"/>
-      <c r="W54" s="2285"/>
-      <c r="X54" s="2285"/>
-      <c r="Y54" s="2285"/>
-      <c r="AB54" s="882"/>
-      <c r="AC54" s="883"/>
-      <c r="AD54" s="884"/>
-      <c r="AE54" s="885"/>
-      <c r="AF54" s="886"/>
-      <c r="AG54" s="1896"/>
-      <c r="AH54" s="1897"/>
-      <c r="AI54" s="1898"/>
-      <c r="AJ54" s="1899"/>
-      <c r="AK54" s="1900"/>
-      <c r="AL54" s="1901"/>
-      <c r="AM54" s="1902"/>
-      <c r="AN54" s="1903"/>
-      <c r="AO54" s="887"/>
-      <c r="AP54" s="888"/>
-      <c r="AQ54" s="889"/>
-      <c r="AR54" s="890"/>
-      <c r="AS54" s="891"/>
-      <c r="AT54" s="892"/>
-      <c r="AU54" s="893"/>
-      <c r="AV54" s="894"/>
-      <c r="AW54" s="895"/>
+      <c r="C54" s="2226"/>
+      <c r="D54" s="2224"/>
+      <c r="E54" s="2223"/>
+      <c r="F54" s="2225"/>
+      <c r="G54" s="2227"/>
+      <c r="H54" s="2228"/>
+      <c r="M54" s="879"/>
+      <c r="N54" s="880"/>
+      <c r="O54" s="881"/>
+      <c r="P54" s="882"/>
+      <c r="Q54" s="1">
+        <v>88</v>
+      </c>
+      <c r="R54" s="2334">
+        <v>15</v>
+      </c>
+      <c r="S54" s="2385">
+        <v>43</v>
+      </c>
+      <c r="T54" s="2436">
+        <v>6.1157107600123495E-2</v>
+      </c>
+      <c r="U54" s="2487">
+        <v>4.7549296579956109E-2</v>
+      </c>
+      <c r="V54" s="2538">
+        <v>0.12059372832506862</v>
+      </c>
+      <c r="W54" s="2589">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X54" s="2640">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y54" s="2691">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB54" s="883"/>
+      <c r="AC54" s="884"/>
+      <c r="AD54" s="885"/>
+      <c r="AE54" s="886"/>
+      <c r="AF54" s="887"/>
+      <c r="AG54" s="1897"/>
+      <c r="AH54" s="1898"/>
+      <c r="AI54" s="1899"/>
+      <c r="AJ54" s="1900"/>
+      <c r="AK54" s="1901"/>
+      <c r="AL54" s="1902"/>
+      <c r="AM54" s="1903"/>
+      <c r="AN54" s="1904"/>
+      <c r="AO54" s="888"/>
+      <c r="AP54" s="889"/>
+      <c r="AQ54" s="890"/>
+      <c r="AR54" s="891"/>
+      <c r="AS54" s="892"/>
+      <c r="AT54" s="893"/>
+      <c r="AU54" s="894"/>
+      <c r="AV54" s="895"/>
+      <c r="AW54" s="896"/>
     </row>
     <row r="55" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C55" s="2231"/>
-      <c r="D55" s="2229"/>
-      <c r="E55" s="2228"/>
-      <c r="F55" s="2230"/>
-      <c r="G55" s="2232"/>
-      <c r="H55" s="2233"/>
-      <c r="M55" s="896"/>
-      <c r="N55" s="897"/>
-      <c r="O55" s="898"/>
-      <c r="P55" s="899"/>
-      <c r="R55" s="2285"/>
-      <c r="S55" s="2285"/>
-      <c r="T55" s="2285"/>
-      <c r="U55" s="2285"/>
-      <c r="V55" s="2285"/>
-      <c r="W55" s="2285"/>
-      <c r="X55" s="2285"/>
-      <c r="Y55" s="2285"/>
-      <c r="AB55" s="900"/>
-      <c r="AC55" s="901"/>
-      <c r="AD55" s="902"/>
-      <c r="AE55" s="903"/>
-      <c r="AF55" s="904"/>
-      <c r="AG55" s="1904"/>
-      <c r="AH55" s="1905"/>
-      <c r="AI55" s="1906"/>
-      <c r="AJ55" s="1907"/>
-      <c r="AK55" s="1908"/>
-      <c r="AL55" s="1909"/>
-      <c r="AM55" s="1910"/>
-      <c r="AN55" s="1911"/>
-      <c r="AO55" s="905"/>
-      <c r="AP55" s="906"/>
-      <c r="AQ55" s="907"/>
-      <c r="AR55" s="908"/>
-      <c r="AS55" s="909"/>
-      <c r="AT55" s="910"/>
-      <c r="AU55" s="911"/>
-      <c r="AV55" s="912"/>
-      <c r="AW55" s="913"/>
+      <c r="C55" s="2232"/>
+      <c r="D55" s="2230"/>
+      <c r="E55" s="2229"/>
+      <c r="F55" s="2231"/>
+      <c r="G55" s="2233"/>
+      <c r="H55" s="2234"/>
+      <c r="M55" s="897"/>
+      <c r="N55" s="898"/>
+      <c r="O55" s="899"/>
+      <c r="P55" s="900"/>
+      <c r="Q55" s="1">
+        <v>88</v>
+      </c>
+      <c r="R55" s="2335">
+        <v>15</v>
+      </c>
+      <c r="S55" s="2386">
+        <v>44</v>
+      </c>
+      <c r="T55" s="2437">
+        <v>5.1414560309829216E-2</v>
+      </c>
+      <c r="U55" s="2488">
+        <v>4.3208632801429135E-2</v>
+      </c>
+      <c r="V55" s="2539">
+        <v>0.10542535131161564</v>
+      </c>
+      <c r="W55" s="2590">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X55" s="2641">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y55" s="2692">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB55" s="901"/>
+      <c r="AC55" s="902"/>
+      <c r="AD55" s="903"/>
+      <c r="AE55" s="904"/>
+      <c r="AF55" s="905"/>
+      <c r="AG55" s="1905"/>
+      <c r="AH55" s="1906"/>
+      <c r="AI55" s="1907"/>
+      <c r="AJ55" s="1908"/>
+      <c r="AK55" s="1909"/>
+      <c r="AL55" s="1910"/>
+      <c r="AM55" s="1911"/>
+      <c r="AN55" s="1912"/>
+      <c r="AO55" s="906"/>
+      <c r="AP55" s="907"/>
+      <c r="AQ55" s="908"/>
+      <c r="AR55" s="909"/>
+      <c r="AS55" s="910"/>
+      <c r="AT55" s="911"/>
+      <c r="AU55" s="912"/>
+      <c r="AV55" s="913"/>
+      <c r="AW55" s="914"/>
     </row>
     <row r="56" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C56" s="2237"/>
-      <c r="D56" s="2235"/>
-      <c r="E56" s="2234"/>
-      <c r="F56" s="2236"/>
-      <c r="G56" s="2238"/>
-      <c r="H56" s="2239"/>
-      <c r="M56" s="914"/>
-      <c r="N56" s="915"/>
-      <c r="O56" s="916"/>
-      <c r="P56" s="917"/>
-      <c r="R56" s="2285"/>
-      <c r="S56" s="2285"/>
-      <c r="T56" s="2285"/>
-      <c r="U56" s="2285"/>
-      <c r="V56" s="2285"/>
-      <c r="W56" s="2285"/>
-      <c r="X56" s="2285"/>
-      <c r="Y56" s="2285"/>
-      <c r="AB56" s="918"/>
-      <c r="AC56" s="919"/>
-      <c r="AD56" s="920"/>
-      <c r="AE56" s="921"/>
-      <c r="AF56" s="922"/>
-      <c r="AG56" s="1912"/>
-      <c r="AH56" s="1913"/>
-      <c r="AI56" s="1914"/>
-      <c r="AJ56" s="1915"/>
-      <c r="AK56" s="1916"/>
-      <c r="AL56" s="1917"/>
-      <c r="AM56" s="1918"/>
-      <c r="AN56" s="1919"/>
-      <c r="AO56" s="923"/>
-      <c r="AP56" s="924"/>
-      <c r="AQ56" s="925"/>
-      <c r="AR56" s="926"/>
-      <c r="AS56" s="927"/>
-      <c r="AT56" s="928"/>
-      <c r="AU56" s="929"/>
-      <c r="AV56" s="930"/>
-      <c r="AW56" s="931"/>
+      <c r="C56" s="2238"/>
+      <c r="D56" s="2236"/>
+      <c r="E56" s="2235"/>
+      <c r="F56" s="2237"/>
+      <c r="G56" s="2239"/>
+      <c r="H56" s="2240"/>
+      <c r="M56" s="915"/>
+      <c r="N56" s="916"/>
+      <c r="O56" s="917"/>
+      <c r="P56" s="918"/>
+      <c r="Q56" s="1">
+        <v>88</v>
+      </c>
+      <c r="R56" s="2336">
+        <v>15</v>
+      </c>
+      <c r="S56" s="2387">
+        <v>45</v>
+      </c>
+      <c r="T56" s="2438">
+        <v>4.3113342183956897E-2</v>
+      </c>
+      <c r="U56" s="2489">
+        <v>3.8363029823052536E-2</v>
+      </c>
+      <c r="V56" s="2540">
+        <v>9.1067129462772567E-2</v>
+      </c>
+      <c r="W56" s="2591">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X56" s="2642">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y56" s="2693">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB56" s="919"/>
+      <c r="AC56" s="920"/>
+      <c r="AD56" s="921"/>
+      <c r="AE56" s="922"/>
+      <c r="AF56" s="923"/>
+      <c r="AG56" s="1913"/>
+      <c r="AH56" s="1914"/>
+      <c r="AI56" s="1915"/>
+      <c r="AJ56" s="1916"/>
+      <c r="AK56" s="1917"/>
+      <c r="AL56" s="1918"/>
+      <c r="AM56" s="1919"/>
+      <c r="AN56" s="1920"/>
+      <c r="AO56" s="924"/>
+      <c r="AP56" s="925"/>
+      <c r="AQ56" s="926"/>
+      <c r="AR56" s="927"/>
+      <c r="AS56" s="928"/>
+      <c r="AT56" s="929"/>
+      <c r="AU56" s="930"/>
+      <c r="AV56" s="931"/>
+      <c r="AW56" s="932"/>
     </row>
     <row r="57" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C57" s="2243"/>
-      <c r="D57" s="2241"/>
-      <c r="E57" s="2240"/>
-      <c r="F57" s="2242"/>
-      <c r="G57" s="2244"/>
-      <c r="H57" s="2245"/>
-      <c r="M57" s="932"/>
-      <c r="N57" s="933"/>
-      <c r="O57" s="934"/>
-      <c r="P57" s="935"/>
-      <c r="R57" s="2285"/>
-      <c r="S57" s="2285"/>
-      <c r="T57" s="2285"/>
-      <c r="U57" s="2285"/>
-      <c r="V57" s="2285"/>
-      <c r="W57" s="2285"/>
-      <c r="X57" s="2285"/>
-      <c r="Y57" s="2285"/>
-      <c r="AB57" s="936"/>
-      <c r="AC57" s="937"/>
-      <c r="AD57" s="938"/>
-      <c r="AE57" s="939"/>
-      <c r="AF57" s="940"/>
-      <c r="AG57" s="1920"/>
-      <c r="AH57" s="1921"/>
-      <c r="AI57" s="1922"/>
-      <c r="AJ57" s="1923"/>
-      <c r="AK57" s="1924"/>
-      <c r="AL57" s="1925"/>
-      <c r="AM57" s="1926"/>
-      <c r="AN57" s="1927"/>
-      <c r="AO57" s="941"/>
-      <c r="AP57" s="942"/>
-      <c r="AQ57" s="943"/>
-      <c r="AR57" s="944"/>
-      <c r="AS57" s="945"/>
-      <c r="AT57" s="946"/>
-      <c r="AU57" s="947"/>
-      <c r="AV57" s="948"/>
-      <c r="AW57" s="949"/>
+      <c r="C57" s="2244"/>
+      <c r="D57" s="2242"/>
+      <c r="E57" s="2241"/>
+      <c r="F57" s="2243"/>
+      <c r="G57" s="2245"/>
+      <c r="H57" s="2246"/>
+      <c r="M57" s="933"/>
+      <c r="N57" s="934"/>
+      <c r="O57" s="935"/>
+      <c r="P57" s="936"/>
+      <c r="Q57" s="1">
+        <v>88</v>
+      </c>
+      <c r="R57" s="2337">
+        <v>15</v>
+      </c>
+      <c r="S57" s="2388">
+        <v>46</v>
+      </c>
+      <c r="T57" s="2439">
+        <v>3.3364919824329826E-2</v>
+      </c>
+      <c r="U57" s="2490">
+        <v>3.3612375291661806E-2</v>
+      </c>
+      <c r="V57" s="2541">
+        <v>7.5380388938907084E-2</v>
+      </c>
+      <c r="W57" s="2592">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X57" s="2643">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y57" s="2694">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB57" s="937"/>
+      <c r="AC57" s="938"/>
+      <c r="AD57" s="939"/>
+      <c r="AE57" s="940"/>
+      <c r="AF57" s="941"/>
+      <c r="AG57" s="1921"/>
+      <c r="AH57" s="1922"/>
+      <c r="AI57" s="1923"/>
+      <c r="AJ57" s="1924"/>
+      <c r="AK57" s="1925"/>
+      <c r="AL57" s="1926"/>
+      <c r="AM57" s="1927"/>
+      <c r="AN57" s="1928"/>
+      <c r="AO57" s="942"/>
+      <c r="AP57" s="943"/>
+      <c r="AQ57" s="944"/>
+      <c r="AR57" s="945"/>
+      <c r="AS57" s="946"/>
+      <c r="AT57" s="947"/>
+      <c r="AU57" s="948"/>
+      <c r="AV57" s="949"/>
+      <c r="AW57" s="950"/>
     </row>
     <row r="58" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C58" s="2249"/>
-      <c r="D58" s="2247"/>
-      <c r="E58" s="2246"/>
-      <c r="F58" s="2248"/>
-      <c r="G58" s="2250"/>
-      <c r="H58" s="2251"/>
-      <c r="M58" s="950"/>
-      <c r="N58" s="951"/>
-      <c r="O58" s="952"/>
-      <c r="P58" s="953"/>
-      <c r="R58" s="2285"/>
-      <c r="S58" s="2285"/>
-      <c r="T58" s="2285"/>
-      <c r="U58" s="2285"/>
-      <c r="V58" s="2285"/>
-      <c r="W58" s="2285"/>
-      <c r="X58" s="2285"/>
-      <c r="Y58" s="2285"/>
-      <c r="AB58" s="954"/>
-      <c r="AC58" s="955"/>
-      <c r="AD58" s="956"/>
-      <c r="AE58" s="957"/>
-      <c r="AF58" s="958"/>
-      <c r="AG58" s="1928"/>
-      <c r="AH58" s="1929"/>
-      <c r="AI58" s="1930"/>
-      <c r="AJ58" s="1931"/>
-      <c r="AK58" s="1932"/>
-      <c r="AL58" s="1933"/>
-      <c r="AM58" s="1934"/>
-      <c r="AN58" s="1935"/>
-      <c r="AO58" s="959"/>
-      <c r="AP58" s="960"/>
-      <c r="AQ58" s="961"/>
-      <c r="AR58" s="962"/>
-      <c r="AS58" s="963"/>
-      <c r="AT58" s="964"/>
-      <c r="AU58" s="965"/>
-      <c r="AV58" s="966"/>
-      <c r="AW58" s="967"/>
+      <c r="C58" s="2250"/>
+      <c r="D58" s="2248"/>
+      <c r="E58" s="2247"/>
+      <c r="F58" s="2249"/>
+      <c r="G58" s="2251"/>
+      <c r="H58" s="2252"/>
+      <c r="M58" s="951"/>
+      <c r="N58" s="952"/>
+      <c r="O58" s="953"/>
+      <c r="P58" s="954"/>
+      <c r="Q58" s="1">
+        <v>88</v>
+      </c>
+      <c r="R58" s="2338">
+        <v>15</v>
+      </c>
+      <c r="S58" s="2389">
+        <v>47</v>
+      </c>
+      <c r="T58" s="2440">
+        <v>2.771821868106434E-2</v>
+      </c>
+      <c r="U58" s="2491">
+        <v>2.9390551644590944E-2</v>
+      </c>
+      <c r="V58" s="2542">
+        <v>6.4456408236803014E-2</v>
+      </c>
+      <c r="W58" s="2593">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X58" s="2644">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y58" s="2695">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB58" s="955"/>
+      <c r="AC58" s="956"/>
+      <c r="AD58" s="957"/>
+      <c r="AE58" s="958"/>
+      <c r="AF58" s="959"/>
+      <c r="AG58" s="1929"/>
+      <c r="AH58" s="1930"/>
+      <c r="AI58" s="1931"/>
+      <c r="AJ58" s="1932"/>
+      <c r="AK58" s="1933"/>
+      <c r="AL58" s="1934"/>
+      <c r="AM58" s="1935"/>
+      <c r="AN58" s="1936"/>
+      <c r="AO58" s="960"/>
+      <c r="AP58" s="961"/>
+      <c r="AQ58" s="962"/>
+      <c r="AR58" s="963"/>
+      <c r="AS58" s="964"/>
+      <c r="AT58" s="965"/>
+      <c r="AU58" s="966"/>
+      <c r="AV58" s="967"/>
+      <c r="AW58" s="968"/>
     </row>
     <row r="59" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C59" s="2255"/>
-      <c r="D59" s="2253"/>
-      <c r="E59" s="2252"/>
-      <c r="F59" s="2254"/>
-      <c r="G59" s="2256"/>
-      <c r="H59" s="2257"/>
-      <c r="M59" s="968"/>
-      <c r="N59" s="969"/>
-      <c r="O59" s="970"/>
-      <c r="P59" s="971"/>
-      <c r="R59" s="2285"/>
-      <c r="S59" s="2285"/>
-      <c r="T59" s="2285"/>
-      <c r="U59" s="2285"/>
-      <c r="V59" s="2285"/>
-      <c r="W59" s="2285"/>
-      <c r="X59" s="2285"/>
-      <c r="Y59" s="2285"/>
-      <c r="AB59" s="972"/>
-      <c r="AC59" s="973"/>
-      <c r="AD59" s="974"/>
-      <c r="AE59" s="975"/>
-      <c r="AF59" s="976"/>
-      <c r="AG59" s="1936"/>
-      <c r="AH59" s="1937"/>
-      <c r="AI59" s="1938"/>
-      <c r="AJ59" s="1939"/>
-      <c r="AK59" s="1940"/>
-      <c r="AL59" s="1941"/>
-      <c r="AM59" s="1942"/>
-      <c r="AN59" s="1943"/>
-      <c r="AO59" s="977"/>
-      <c r="AP59" s="978"/>
-      <c r="AQ59" s="979"/>
-      <c r="AR59" s="980"/>
-      <c r="AS59" s="981"/>
-      <c r="AT59" s="982"/>
-      <c r="AU59" s="983"/>
-      <c r="AV59" s="984"/>
-      <c r="AW59" s="985"/>
+      <c r="C59" s="2256"/>
+      <c r="D59" s="2254"/>
+      <c r="E59" s="2253"/>
+      <c r="F59" s="2255"/>
+      <c r="G59" s="2257"/>
+      <c r="H59" s="2258"/>
+      <c r="M59" s="969"/>
+      <c r="N59" s="970"/>
+      <c r="O59" s="971"/>
+      <c r="P59" s="972"/>
+      <c r="Q59" s="1">
+        <v>88</v>
+      </c>
+      <c r="R59" s="2339">
+        <v>15</v>
+      </c>
+      <c r="S59" s="2390">
+        <v>48</v>
+      </c>
+      <c r="T59" s="2441">
+        <v>2.3752755846320962E-2</v>
+      </c>
+      <c r="U59" s="2492">
+        <v>2.7193562936606658E-2</v>
+      </c>
+      <c r="V59" s="2543">
+        <v>5.7744709517079287E-2</v>
+      </c>
+      <c r="W59" s="2594">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X59" s="2645">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y59" s="2696">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB59" s="973"/>
+      <c r="AC59" s="974"/>
+      <c r="AD59" s="975"/>
+      <c r="AE59" s="976"/>
+      <c r="AF59" s="977"/>
+      <c r="AG59" s="1937"/>
+      <c r="AH59" s="1938"/>
+      <c r="AI59" s="1939"/>
+      <c r="AJ59" s="1940"/>
+      <c r="AK59" s="1941"/>
+      <c r="AL59" s="1942"/>
+      <c r="AM59" s="1943"/>
+      <c r="AN59" s="1944"/>
+      <c r="AO59" s="978"/>
+      <c r="AP59" s="979"/>
+      <c r="AQ59" s="980"/>
+      <c r="AR59" s="981"/>
+      <c r="AS59" s="982"/>
+      <c r="AT59" s="983"/>
+      <c r="AU59" s="984"/>
+      <c r="AV59" s="985"/>
+      <c r="AW59" s="986"/>
     </row>
     <row r="60" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C60" s="2261"/>
-      <c r="D60" s="2259"/>
-      <c r="E60" s="2258"/>
-      <c r="F60" s="2260"/>
-      <c r="G60" s="2262"/>
-      <c r="H60" s="2263"/>
-      <c r="M60" s="986"/>
-      <c r="N60" s="987"/>
-      <c r="O60" s="988"/>
-      <c r="P60" s="989"/>
-      <c r="R60" s="2285"/>
-      <c r="S60" s="2285"/>
-      <c r="T60" s="2285"/>
-      <c r="U60" s="2285"/>
-      <c r="V60" s="2285"/>
-      <c r="W60" s="2285"/>
-      <c r="X60" s="2285"/>
-      <c r="Y60" s="2285"/>
-      <c r="AB60" s="990"/>
-      <c r="AC60" s="991"/>
-      <c r="AD60" s="992"/>
-      <c r="AE60" s="993"/>
-      <c r="AF60" s="994"/>
-      <c r="AG60" s="1944"/>
-      <c r="AH60" s="1945"/>
-      <c r="AI60" s="1946"/>
-      <c r="AJ60" s="1947"/>
-      <c r="AK60" s="1948"/>
-      <c r="AL60" s="1949"/>
-      <c r="AM60" s="1950"/>
-      <c r="AN60" s="1951"/>
-      <c r="AO60" s="995"/>
-      <c r="AP60" s="996"/>
-      <c r="AQ60" s="997"/>
-      <c r="AR60" s="998"/>
-      <c r="AS60" s="999"/>
-      <c r="AT60" s="1000"/>
-      <c r="AU60" s="1001"/>
-      <c r="AV60" s="1002"/>
-      <c r="AW60" s="1003"/>
+      <c r="C60" s="2262"/>
+      <c r="D60" s="2260"/>
+      <c r="E60" s="2259"/>
+      <c r="F60" s="2261"/>
+      <c r="G60" s="2263"/>
+      <c r="H60" s="2264"/>
+      <c r="M60" s="987"/>
+      <c r="N60" s="988"/>
+      <c r="O60" s="989"/>
+      <c r="P60" s="990"/>
+      <c r="Q60" s="1">
+        <v>88</v>
+      </c>
+      <c r="R60" s="2340">
+        <v>15</v>
+      </c>
+      <c r="S60" s="2391">
+        <v>49</v>
+      </c>
+      <c r="T60" s="2442">
+        <v>1.7523174867686581E-2</v>
+      </c>
+      <c r="U60" s="2493">
+        <v>2.020283581407779E-2</v>
+      </c>
+      <c r="V60" s="2544">
+        <v>4.2776719635283816E-2</v>
+      </c>
+      <c r="W60" s="2595">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X60" s="2646">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y60" s="2697">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB60" s="991"/>
+      <c r="AC60" s="992"/>
+      <c r="AD60" s="993"/>
+      <c r="AE60" s="994"/>
+      <c r="AF60" s="995"/>
+      <c r="AG60" s="1945"/>
+      <c r="AH60" s="1946"/>
+      <c r="AI60" s="1947"/>
+      <c r="AJ60" s="1948"/>
+      <c r="AK60" s="1949"/>
+      <c r="AL60" s="1950"/>
+      <c r="AM60" s="1951"/>
+      <c r="AN60" s="1952"/>
+      <c r="AO60" s="996"/>
+      <c r="AP60" s="997"/>
+      <c r="AQ60" s="998"/>
+      <c r="AR60" s="999"/>
+      <c r="AS60" s="1000"/>
+      <c r="AT60" s="1001"/>
+      <c r="AU60" s="1002"/>
+      <c r="AV60" s="1003"/>
+      <c r="AW60" s="1004"/>
     </row>
     <row r="61" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C61" s="2267"/>
-      <c r="D61" s="2265"/>
-      <c r="E61" s="2264"/>
-      <c r="F61" s="2266"/>
-      <c r="G61" s="2268"/>
-      <c r="H61" s="2269"/>
-      <c r="M61" s="1004"/>
-      <c r="N61" s="1005"/>
-      <c r="O61" s="1006"/>
-      <c r="P61" s="1007"/>
-      <c r="R61" s="2285"/>
-      <c r="S61" s="2285"/>
-      <c r="T61" s="2285"/>
-      <c r="U61" s="2285"/>
-      <c r="V61" s="2285"/>
-      <c r="W61" s="2285"/>
-      <c r="X61" s="2285"/>
-      <c r="Y61" s="2285"/>
-      <c r="AB61" s="1008"/>
-      <c r="AC61" s="1009"/>
-      <c r="AD61" s="1010"/>
-      <c r="AE61" s="1011"/>
-      <c r="AF61" s="1012"/>
-      <c r="AG61" s="1952"/>
-      <c r="AH61" s="1953"/>
-      <c r="AI61" s="1954"/>
-      <c r="AJ61" s="1955"/>
-      <c r="AK61" s="1956"/>
-      <c r="AL61" s="1957"/>
-      <c r="AM61" s="1958"/>
-      <c r="AN61" s="1959"/>
-      <c r="AO61" s="1013"/>
-      <c r="AP61" s="1014"/>
-      <c r="AQ61" s="1015"/>
-      <c r="AR61" s="1016"/>
-      <c r="AS61" s="1017"/>
-      <c r="AT61" s="1018"/>
-      <c r="AU61" s="1019"/>
-      <c r="AV61" s="1020"/>
-      <c r="AW61" s="1021"/>
+      <c r="C61" s="2268"/>
+      <c r="D61" s="2266"/>
+      <c r="E61" s="2265"/>
+      <c r="F61" s="2267"/>
+      <c r="G61" s="2269"/>
+      <c r="H61" s="2270"/>
+      <c r="M61" s="1005"/>
+      <c r="N61" s="1006"/>
+      <c r="O61" s="1007"/>
+      <c r="P61" s="1008"/>
+      <c r="Q61" s="1">
+        <v>88</v>
+      </c>
+      <c r="R61" s="2341">
+        <v>15</v>
+      </c>
+      <c r="S61" s="2392">
+        <v>50</v>
+      </c>
+      <c r="T61" s="2443">
+        <v>1.6981351357657867E-2</v>
+      </c>
+      <c r="U61" s="2494">
+        <v>1.7047674738298421E-2</v>
+      </c>
+      <c r="V61" s="2545">
+        <v>3.8290944780530897E-2</v>
+      </c>
+      <c r="W61" s="2596">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X61" s="2647">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y61" s="2698">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB61" s="1009"/>
+      <c r="AC61" s="1010"/>
+      <c r="AD61" s="1011"/>
+      <c r="AE61" s="1012"/>
+      <c r="AF61" s="1013"/>
+      <c r="AG61" s="1953"/>
+      <c r="AH61" s="1954"/>
+      <c r="AI61" s="1955"/>
+      <c r="AJ61" s="1956"/>
+      <c r="AK61" s="1957"/>
+      <c r="AL61" s="1958"/>
+      <c r="AM61" s="1959"/>
+      <c r="AN61" s="1960"/>
+      <c r="AO61" s="1014"/>
+      <c r="AP61" s="1015"/>
+      <c r="AQ61" s="1016"/>
+      <c r="AR61" s="1017"/>
+      <c r="AS61" s="1018"/>
+      <c r="AT61" s="1019"/>
+      <c r="AU61" s="1020"/>
+      <c r="AV61" s="1021"/>
+      <c r="AW61" s="1022"/>
     </row>
     <row r="62" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C62" s="2273"/>
-      <c r="D62" s="2271"/>
-      <c r="E62" s="2270"/>
-      <c r="F62" s="2272"/>
-      <c r="G62" s="2274"/>
-      <c r="H62" s="2275"/>
-      <c r="M62" s="1022"/>
-      <c r="N62" s="1023"/>
-      <c r="O62" s="1024"/>
-      <c r="P62" s="1025"/>
-      <c r="R62" s="2285"/>
-      <c r="S62" s="2285"/>
-      <c r="T62" s="2285"/>
-      <c r="U62" s="2285"/>
-      <c r="V62" s="2285"/>
-      <c r="W62" s="2285"/>
-      <c r="X62" s="2285"/>
-      <c r="Y62" s="2285"/>
-      <c r="AB62" s="1026"/>
-      <c r="AC62" s="1027"/>
-      <c r="AD62" s="1028"/>
-      <c r="AE62" s="1029"/>
-      <c r="AF62" s="1030"/>
-      <c r="AG62" s="1960"/>
-      <c r="AH62" s="1961"/>
-      <c r="AI62" s="1962"/>
-      <c r="AJ62" s="1963"/>
-      <c r="AK62" s="1964"/>
-      <c r="AL62" s="1965"/>
-      <c r="AM62" s="1966"/>
-      <c r="AN62" s="1967"/>
-      <c r="AO62" s="1031"/>
-      <c r="AP62" s="1032"/>
-      <c r="AQ62" s="1033"/>
-      <c r="AR62" s="1034"/>
-      <c r="AS62" s="1035"/>
-      <c r="AT62" s="1036"/>
-      <c r="AU62" s="1037"/>
-      <c r="AV62" s="1038"/>
-      <c r="AW62" s="1039"/>
+      <c r="C62" s="2274"/>
+      <c r="D62" s="2272"/>
+      <c r="E62" s="2271"/>
+      <c r="F62" s="2273"/>
+      <c r="G62" s="2275"/>
+      <c r="H62" s="2276"/>
+      <c r="M62" s="1023"/>
+      <c r="N62" s="1024"/>
+      <c r="O62" s="1025"/>
+      <c r="P62" s="1026"/>
+      <c r="Q62" s="1">
+        <v>88</v>
+      </c>
+      <c r="R62" s="2342">
+        <v>15</v>
+      </c>
+      <c r="S62" s="2393">
+        <v>51</v>
+      </c>
+      <c r="T62" s="2444">
+        <v>1.5322302440188616E-2</v>
+      </c>
+      <c r="U62" s="2495">
+        <v>1.5758667145301559E-2</v>
+      </c>
+      <c r="V62" s="2546">
+        <v>3.5020636371815565E-2</v>
+      </c>
+      <c r="W62" s="2597">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X62" s="2648">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y62" s="2699">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB62" s="1027"/>
+      <c r="AC62" s="1028"/>
+      <c r="AD62" s="1029"/>
+      <c r="AE62" s="1030"/>
+      <c r="AF62" s="1031"/>
+      <c r="AG62" s="1961"/>
+      <c r="AH62" s="1962"/>
+      <c r="AI62" s="1963"/>
+      <c r="AJ62" s="1964"/>
+      <c r="AK62" s="1965"/>
+      <c r="AL62" s="1966"/>
+      <c r="AM62" s="1967"/>
+      <c r="AN62" s="1968"/>
+      <c r="AO62" s="1032"/>
+      <c r="AP62" s="1033"/>
+      <c r="AQ62" s="1034"/>
+      <c r="AR62" s="1035"/>
+      <c r="AS62" s="1036"/>
+      <c r="AT62" s="1037"/>
+      <c r="AU62" s="1038"/>
+      <c r="AV62" s="1039"/>
+      <c r="AW62" s="1040"/>
     </row>
     <row r="63" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="C63" s="2279"/>
-      <c r="D63" s="2277"/>
-      <c r="E63" s="2276"/>
-      <c r="F63" s="2278"/>
-      <c r="G63" s="2280"/>
-      <c r="H63" s="2281"/>
-      <c r="M63" s="1040"/>
-      <c r="N63" s="1041"/>
-      <c r="O63" s="1042"/>
-      <c r="P63" s="1043"/>
-      <c r="R63" s="2285"/>
-      <c r="S63" s="2285"/>
-      <c r="T63" s="2285"/>
-      <c r="U63" s="2285"/>
-      <c r="V63" s="2285"/>
-      <c r="W63" s="2285"/>
-      <c r="X63" s="2285"/>
-      <c r="Y63" s="2285"/>
-      <c r="AB63" s="1044"/>
-      <c r="AC63" s="1045"/>
-      <c r="AD63" s="1046"/>
-      <c r="AE63" s="1047"/>
-      <c r="AF63" s="1048"/>
-      <c r="AG63" s="1968"/>
-      <c r="AH63" s="1969"/>
-      <c r="AI63" s="1970"/>
-      <c r="AJ63" s="1971"/>
-      <c r="AK63" s="1972"/>
-      <c r="AL63" s="1973"/>
-      <c r="AM63" s="1974"/>
-      <c r="AN63" s="1975"/>
-      <c r="AO63" s="1049"/>
-      <c r="AP63" s="1050"/>
-      <c r="AQ63" s="1051"/>
-      <c r="AR63" s="1052"/>
-      <c r="AS63" s="1053"/>
-      <c r="AT63" s="1054"/>
-      <c r="AU63" s="1055"/>
-      <c r="AV63" s="1056"/>
-      <c r="AW63" s="1057"/>
+      <c r="C63" s="2280"/>
+      <c r="D63" s="2278"/>
+      <c r="E63" s="2277"/>
+      <c r="F63" s="2279"/>
+      <c r="G63" s="2281"/>
+      <c r="H63" s="2282"/>
+      <c r="M63" s="1041"/>
+      <c r="N63" s="1042"/>
+      <c r="O63" s="1043"/>
+      <c r="P63" s="1044"/>
+      <c r="Q63" s="1">
+        <v>88</v>
+      </c>
+      <c r="R63" s="2343">
+        <v>15</v>
+      </c>
+      <c r="S63" s="2394">
+        <v>52</v>
+      </c>
+      <c r="T63" s="2445">
+        <v>1.4130793079913398E-2</v>
+      </c>
+      <c r="U63" s="2496">
+        <v>1.463832558638126E-2</v>
+      </c>
+      <c r="V63" s="2547">
+        <v>3.2428700062889976E-2</v>
+      </c>
+      <c r="W63" s="2598">
+        <v>1.7762525201690534E-2</v>
+      </c>
+      <c r="X63" s="2649">
+        <v>-1.1607862743593825E-2</v>
+      </c>
+      <c r="Y63" s="2700">
+        <v>-2.1735882773514001</v>
+      </c>
+      <c r="AB63" s="1045"/>
+      <c r="AC63" s="1046"/>
+      <c r="AD63" s="1047"/>
+      <c r="AE63" s="1048"/>
+      <c r="AF63" s="1049"/>
+      <c r="AG63" s="1969"/>
+      <c r="AH63" s="1970"/>
+      <c r="AI63" s="1971"/>
+      <c r="AJ63" s="1972"/>
+      <c r="AK63" s="1973"/>
+      <c r="AL63" s="1974"/>
+      <c r="AM63" s="1975"/>
+      <c r="AN63" s="1976"/>
+      <c r="AO63" s="1050"/>
+      <c r="AP63" s="1051"/>
+      <c r="AQ63" s="1052"/>
+      <c r="AR63" s="1053"/>
+      <c r="AS63" s="1054"/>
+      <c r="AT63" s="1055"/>
+      <c r="AU63" s="1056"/>
+      <c r="AV63" s="1057"/>
+      <c r="AW63" s="1058"/>
     </row>
     <row r="64" spans="3:52" x14ac:dyDescent="0.25">
-      <c r="AH64" s="1058"/>
+      <c r="AH64" s="1059"/>
     </row>
     <row r="65" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH65" s="1059"/>
+      <c r="AH65" s="1060"/>
     </row>
     <row r="66" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH66" s="1060"/>
+      <c r="AH66" s="1061"/>
     </row>
     <row r="67" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH67" s="1061"/>
+      <c r="AH67" s="1062"/>
     </row>
     <row r="68" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH68" s="1062"/>
+      <c r="AH68" s="1063"/>
     </row>
     <row r="69" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH69" s="1063"/>
+      <c r="AH69" s="1064"/>
     </row>
     <row r="70" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH70" s="1064"/>
+      <c r="AH70" s="1065"/>
     </row>
     <row r="71" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH71" s="1065"/>
+      <c r="AH71" s="1066"/>
     </row>
     <row r="72" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH72" s="1066"/>
+      <c r="AH72" s="1067"/>
     </row>
     <row r="73" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH73" s="1067"/>
+      <c r="AH73" s="1068"/>
     </row>
     <row r="74" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH74" s="1068"/>
+      <c r="AH74" s="1069"/>
     </row>
     <row r="75" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH75" s="1069"/>
+      <c r="AH75" s="1070"/>
     </row>
     <row r="76" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH76" s="1070"/>
+      <c r="AH76" s="1071"/>
     </row>
     <row r="77" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH77" s="1071"/>
+      <c r="AH77" s="1072"/>
     </row>
     <row r="78" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH78" s="1072"/>
+      <c r="AH78" s="1073"/>
     </row>
     <row r="79" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH79" s="1073"/>
+      <c r="AH79" s="1074"/>
     </row>
     <row r="80" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH80" s="1074"/>
+      <c r="AH80" s="1075"/>
     </row>
     <row r="81" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH81" s="1075"/>
+      <c r="AH81" s="1076"/>
     </row>
     <row r="82" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH82" s="1076"/>
+      <c r="AH82" s="1077"/>
     </row>
     <row r="83" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH83" s="1077"/>
+      <c r="AH83" s="1078"/>
     </row>
     <row r="84" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH84" s="1078"/>
+      <c r="AH84" s="1079"/>
     </row>
     <row r="85" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH85" s="1079"/>
+      <c r="AH85" s="1080"/>
     </row>
     <row r="86" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH86" s="1080"/>
+      <c r="AH86" s="1081"/>
     </row>
     <row r="87" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH87" s="1081"/>
+      <c r="AH87" s="1082"/>
     </row>
     <row r="88" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH88" s="1082"/>
+      <c r="AH88" s="1083"/>
     </row>
     <row r="89" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH89" s="1083"/>
+      <c r="AH89" s="1084"/>
     </row>
     <row r="90" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH90" s="1084"/>
+      <c r="AH90" s="1085"/>
     </row>
     <row r="91" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH91" s="1085"/>
+      <c r="AH91" s="1086"/>
     </row>
     <row r="92" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH92" s="1086"/>
+      <c r="AH92" s="1087"/>
     </row>
     <row r="93" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH93" s="1087"/>
+      <c r="AH93" s="1088"/>
     </row>
     <row r="94" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH94" s="1088"/>
+      <c r="AH94" s="1089"/>
     </row>
     <row r="95" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH95" s="1089"/>
+      <c r="AH95" s="1090"/>
     </row>
     <row r="96" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH96" s="1090"/>
+      <c r="AH96" s="1091"/>
     </row>
     <row r="97" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH97" s="1091"/>
+      <c r="AH97" s="1092"/>
     </row>
     <row r="98" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH98" s="1092"/>
+      <c r="AH98" s="1093"/>
     </row>
     <row r="99" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH99" s="1093"/>
+      <c r="AH99" s="1094"/>
     </row>
     <row r="100" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH100" s="1094"/>
+      <c r="AH100" s="1095"/>
     </row>
     <row r="101" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH101" s="1095"/>
+      <c r="AH101" s="1096"/>
     </row>
     <row r="102" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH102" s="1096"/>
+      <c r="AH102" s="1097"/>
     </row>
     <row r="103" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH103" s="1097"/>
+      <c r="AH103" s="1098"/>
     </row>
     <row r="104" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH104" s="1098"/>
+      <c r="AH104" s="1099"/>
     </row>
     <row r="105" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH105" s="1099"/>
+      <c r="AH105" s="1100"/>
     </row>
     <row r="106" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH106" s="1100"/>
+      <c r="AH106" s="1101"/>
     </row>
     <row r="107" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH107" s="1101"/>
+      <c r="AH107" s="1102"/>
     </row>
     <row r="108" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH108" s="1102"/>
+      <c r="AH108" s="1103"/>
     </row>
     <row r="109" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH109" s="1103"/>
+      <c r="AH109" s="1104"/>
     </row>
     <row r="110" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH110" s="1104"/>
+      <c r="AH110" s="1105"/>
     </row>
     <row r="111" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH111" s="1105"/>
+      <c r="AH111" s="1106"/>
     </row>
     <row r="112" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH112" s="1106"/>
+      <c r="AH112" s="1107"/>
     </row>
     <row r="113" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH113" s="1107"/>
+      <c r="AH113" s="1108"/>
     </row>
     <row r="114" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH114" s="1108"/>
+      <c r="AH114" s="1109"/>
     </row>
     <row r="307" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH307" s="1109"/>
-      <c r="AI307" s="1110"/>
+      <c r="AH307" s="1110"/>
+      <c r="AI307" s="1111"/>
     </row>
     <row r="308" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI308" s="1111"/>
+      <c r="AI308" s="1112"/>
     </row>
     <row r="309" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI309" s="1112"/>
+      <c r="AI309" s="1113"/>
     </row>
     <row r="310" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI310" s="1113"/>
+      <c r="AI310" s="1114"/>
     </row>
     <row r="311" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI311" s="1114"/>
+      <c r="AI311" s="1115"/>
     </row>
     <row r="312" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI312" s="1115"/>
+      <c r="AI312" s="1116"/>
     </row>
     <row r="313" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI313" s="1116"/>
+      <c r="AI313" s="1117"/>
     </row>
     <row r="314" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI314" s="1117"/>
+      <c r="AI314" s="1118"/>
     </row>
     <row r="315" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI315" s="1118"/>
+      <c r="AI315" s="1119"/>
     </row>
     <row r="316" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI316" s="1119"/>
+      <c r="AI316" s="1120"/>
     </row>
     <row r="317" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI317" s="1120"/>
+      <c r="AI317" s="1121"/>
     </row>
     <row r="318" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AI318" s="1121"/>
+      <c r="AI318" s="1122"/>
     </row>
     <row r="319" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG319" s="1122"/>
-      <c r="AI319" s="1123"/>
-      <c r="AP319" s="1124"/>
-      <c r="AQ319" s="1125"/>
-      <c r="AY319" s="1126"/>
-      <c r="AZ319" s="1127"/>
-      <c r="BA319" s="1128"/>
+      <c r="AG319" s="1123"/>
+      <c r="AI319" s="1124"/>
+      <c r="AP319" s="1125"/>
+      <c r="AQ319" s="1126"/>
+      <c r="AY319" s="1127"/>
+      <c r="AZ319" s="1128"/>
+      <c r="BA319" s="1129"/>
     </row>
     <row r="320" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG320" s="1129"/>
-      <c r="AH320" s="1130"/>
-      <c r="AI320" s="1131"/>
-      <c r="AP320" s="1132"/>
-      <c r="AQ320" s="1133"/>
-      <c r="AY320" s="1134"/>
-      <c r="AZ320" s="1135"/>
-      <c r="BA320" s="1136"/>
+      <c r="AG320" s="1130"/>
+      <c r="AH320" s="1131"/>
+      <c r="AI320" s="1132"/>
+      <c r="AP320" s="1133"/>
+      <c r="AQ320" s="1134"/>
+      <c r="AY320" s="1135"/>
+      <c r="AZ320" s="1136"/>
+      <c r="BA320" s="1137"/>
     </row>
     <row r="321" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG321" s="1137"/>
-      <c r="AH321" s="1138"/>
-      <c r="AI321" s="1139"/>
-      <c r="AP321" s="1140"/>
-      <c r="AQ321" s="1141"/>
-      <c r="AY321" s="1142"/>
-      <c r="AZ321" s="1143"/>
-      <c r="BA321" s="1144"/>
+      <c r="AG321" s="1138"/>
+      <c r="AH321" s="1139"/>
+      <c r="AI321" s="1140"/>
+      <c r="AP321" s="1141"/>
+      <c r="AQ321" s="1142"/>
+      <c r="AY321" s="1143"/>
+      <c r="AZ321" s="1144"/>
+      <c r="BA321" s="1145"/>
     </row>
     <row r="322" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG322" s="1145"/>
-      <c r="AH322" s="1146"/>
-      <c r="AI322" s="1147"/>
-      <c r="AP322" s="1148"/>
-      <c r="AQ322" s="1149"/>
-      <c r="AY322" s="1150"/>
-      <c r="AZ322" s="1151"/>
-      <c r="BA322" s="1152"/>
+      <c r="AG322" s="1146"/>
+      <c r="AH322" s="1147"/>
+      <c r="AI322" s="1148"/>
+      <c r="AP322" s="1149"/>
+      <c r="AQ322" s="1150"/>
+      <c r="AY322" s="1151"/>
+      <c r="AZ322" s="1152"/>
+      <c r="BA322" s="1153"/>
     </row>
     <row r="323" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG323" s="1153"/>
-      <c r="AH323" s="1154"/>
-      <c r="AI323" s="1155"/>
-      <c r="AP323" s="1156"/>
-      <c r="AQ323" s="1157"/>
-      <c r="AY323" s="1158"/>
-      <c r="AZ323" s="1159"/>
-      <c r="BA323" s="1160"/>
+      <c r="AG323" s="1154"/>
+      <c r="AH323" s="1155"/>
+      <c r="AI323" s="1156"/>
+      <c r="AP323" s="1157"/>
+      <c r="AQ323" s="1158"/>
+      <c r="AY323" s="1159"/>
+      <c r="AZ323" s="1160"/>
+      <c r="BA323" s="1161"/>
     </row>
     <row r="324" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG324" s="1161"/>
-      <c r="AH324" s="1162"/>
-      <c r="AI324" s="1163"/>
-      <c r="AP324" s="1164"/>
-      <c r="AQ324" s="1165"/>
-      <c r="AY324" s="1166"/>
-      <c r="AZ324" s="1167"/>
-      <c r="BA324" s="1168"/>
+      <c r="AG324" s="1162"/>
+      <c r="AH324" s="1163"/>
+      <c r="AI324" s="1164"/>
+      <c r="AP324" s="1165"/>
+      <c r="AQ324" s="1166"/>
+      <c r="AY324" s="1167"/>
+      <c r="AZ324" s="1168"/>
+      <c r="BA324" s="1169"/>
     </row>
     <row r="325" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG325" s="1169"/>
-      <c r="AH325" s="1170"/>
-      <c r="AI325" s="1171"/>
-      <c r="AP325" s="1172"/>
-      <c r="AQ325" s="1173"/>
-      <c r="AY325" s="1174"/>
-      <c r="AZ325" s="1175"/>
-      <c r="BA325" s="1176"/>
+      <c r="AG325" s="1170"/>
+      <c r="AH325" s="1171"/>
+      <c r="AI325" s="1172"/>
+      <c r="AP325" s="1173"/>
+      <c r="AQ325" s="1174"/>
+      <c r="AY325" s="1175"/>
+      <c r="AZ325" s="1176"/>
+      <c r="BA325" s="1177"/>
     </row>
     <row r="326" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG326" s="1177"/>
-      <c r="AH326" s="1178"/>
-      <c r="AI326" s="1179"/>
-      <c r="AP326" s="1180"/>
-      <c r="AQ326" s="1181"/>
-      <c r="AY326" s="1182"/>
-      <c r="AZ326" s="1183"/>
-      <c r="BA326" s="1184"/>
+      <c r="AG326" s="1178"/>
+      <c r="AH326" s="1179"/>
+      <c r="AI326" s="1180"/>
+      <c r="AP326" s="1181"/>
+      <c r="AQ326" s="1182"/>
+      <c r="AY326" s="1183"/>
+      <c r="AZ326" s="1184"/>
+      <c r="BA326" s="1185"/>
     </row>
     <row r="327" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG327" s="1185"/>
-      <c r="AH327" s="1186"/>
-      <c r="AI327" s="1187"/>
-      <c r="AP327" s="1188"/>
-      <c r="AQ327" s="1189"/>
-      <c r="AY327" s="1190"/>
-      <c r="AZ327" s="1191"/>
-      <c r="BA327" s="1192"/>
+      <c r="AG327" s="1186"/>
+      <c r="AH327" s="1187"/>
+      <c r="AI327" s="1188"/>
+      <c r="AP327" s="1189"/>
+      <c r="AQ327" s="1190"/>
+      <c r="AY327" s="1191"/>
+      <c r="AZ327" s="1192"/>
+      <c r="BA327" s="1193"/>
     </row>
     <row r="328" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG328" s="1193"/>
-      <c r="AH328" s="1194"/>
-      <c r="AI328" s="1195"/>
-      <c r="AP328" s="1196"/>
-      <c r="AQ328" s="1197"/>
-      <c r="AY328" s="1198"/>
-      <c r="AZ328" s="1199"/>
-      <c r="BA328" s="1200"/>
+      <c r="AG328" s="1194"/>
+      <c r="AH328" s="1195"/>
+      <c r="AI328" s="1196"/>
+      <c r="AP328" s="1197"/>
+      <c r="AQ328" s="1198"/>
+      <c r="AY328" s="1199"/>
+      <c r="AZ328" s="1200"/>
+      <c r="BA328" s="1201"/>
     </row>
     <row r="329" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG329" s="1201"/>
-      <c r="AH329" s="1202"/>
-      <c r="AI329" s="1203"/>
-      <c r="AP329" s="1204"/>
-      <c r="AQ329" s="1205"/>
-      <c r="AY329" s="1206"/>
-      <c r="AZ329" s="1207"/>
-      <c r="BA329" s="1208"/>
+      <c r="AG329" s="1202"/>
+      <c r="AH329" s="1203"/>
+      <c r="AI329" s="1204"/>
+      <c r="AP329" s="1205"/>
+      <c r="AQ329" s="1206"/>
+      <c r="AY329" s="1207"/>
+      <c r="AZ329" s="1208"/>
+      <c r="BA329" s="1209"/>
     </row>
     <row r="330" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG330" s="1209"/>
-      <c r="AH330" s="1210"/>
-      <c r="AI330" s="1211"/>
-      <c r="AP330" s="1212"/>
-      <c r="AQ330" s="1213"/>
-      <c r="AY330" s="1214"/>
-      <c r="AZ330" s="1215"/>
-      <c r="BA330" s="1216"/>
+      <c r="AG330" s="1210"/>
+      <c r="AH330" s="1211"/>
+      <c r="AI330" s="1212"/>
+      <c r="AP330" s="1213"/>
+      <c r="AQ330" s="1214"/>
+      <c r="AY330" s="1215"/>
+      <c r="AZ330" s="1216"/>
+      <c r="BA330" s="1217"/>
     </row>
     <row r="331" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG331" s="1217"/>
-      <c r="AH331" s="1218"/>
-      <c r="AI331" s="1219"/>
-      <c r="AP331" s="1220"/>
-      <c r="AQ331" s="1221"/>
-      <c r="AY331" s="1222"/>
-      <c r="AZ331" s="1223"/>
-      <c r="BA331" s="1224"/>
+      <c r="AG331" s="1218"/>
+      <c r="AH331" s="1219"/>
+      <c r="AI331" s="1220"/>
+      <c r="AP331" s="1221"/>
+      <c r="AQ331" s="1222"/>
+      <c r="AY331" s="1223"/>
+      <c r="AZ331" s="1224"/>
+      <c r="BA331" s="1225"/>
     </row>
     <row r="332" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG332" s="1225"/>
-      <c r="AH332" s="1226"/>
-      <c r="AI332" s="1227"/>
-      <c r="AP332" s="1228"/>
-      <c r="AQ332" s="1229"/>
-      <c r="AY332" s="1230"/>
-      <c r="AZ332" s="1231"/>
-      <c r="BA332" s="1232"/>
+      <c r="AG332" s="1226"/>
+      <c r="AH332" s="1227"/>
+      <c r="AI332" s="1228"/>
+      <c r="AP332" s="1229"/>
+      <c r="AQ332" s="1230"/>
+      <c r="AY332" s="1231"/>
+      <c r="AZ332" s="1232"/>
+      <c r="BA332" s="1233"/>
     </row>
     <row r="333" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG333" s="1233"/>
-      <c r="AH333" s="1234"/>
-      <c r="AI333" s="1235"/>
-      <c r="AP333" s="1236"/>
-      <c r="AQ333" s="1237"/>
-      <c r="AY333" s="1238"/>
-      <c r="AZ333" s="1239"/>
-      <c r="BA333" s="1240"/>
+      <c r="AG333" s="1234"/>
+      <c r="AH333" s="1235"/>
+      <c r="AI333" s="1236"/>
+      <c r="AP333" s="1237"/>
+      <c r="AQ333" s="1238"/>
+      <c r="AY333" s="1239"/>
+      <c r="AZ333" s="1240"/>
+      <c r="BA333" s="1241"/>
     </row>
     <row r="334" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG334" s="1241"/>
-      <c r="AH334" s="1242"/>
-      <c r="AI334" s="1243"/>
-      <c r="AP334" s="1244"/>
-      <c r="AQ334" s="1245"/>
-      <c r="AY334" s="1246"/>
-      <c r="AZ334" s="1247"/>
-      <c r="BA334" s="1248"/>
+      <c r="AG334" s="1242"/>
+      <c r="AH334" s="1243"/>
+      <c r="AI334" s="1244"/>
+      <c r="AP334" s="1245"/>
+      <c r="AQ334" s="1246"/>
+      <c r="AY334" s="1247"/>
+      <c r="AZ334" s="1248"/>
+      <c r="BA334" s="1249"/>
     </row>
     <row r="335" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG335" s="1249"/>
-      <c r="AH335" s="1250"/>
-      <c r="AI335" s="1251"/>
-      <c r="AP335" s="1252"/>
-      <c r="AQ335" s="1253"/>
-      <c r="AY335" s="1254"/>
-      <c r="AZ335" s="1255"/>
-      <c r="BA335" s="1256"/>
+      <c r="AG335" s="1250"/>
+      <c r="AH335" s="1251"/>
+      <c r="AI335" s="1252"/>
+      <c r="AP335" s="1253"/>
+      <c r="AQ335" s="1254"/>
+      <c r="AY335" s="1255"/>
+      <c r="AZ335" s="1256"/>
+      <c r="BA335" s="1257"/>
     </row>
     <row r="336" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG336" s="1257"/>
-      <c r="AH336" s="1258"/>
-      <c r="AI336" s="1259"/>
-      <c r="AP336" s="1260"/>
-      <c r="AQ336" s="1261"/>
-      <c r="AY336" s="1262"/>
-      <c r="AZ336" s="1263"/>
-      <c r="BA336" s="1264"/>
+      <c r="AG336" s="1258"/>
+      <c r="AH336" s="1259"/>
+      <c r="AI336" s="1260"/>
+      <c r="AP336" s="1261"/>
+      <c r="AQ336" s="1262"/>
+      <c r="AY336" s="1263"/>
+      <c r="AZ336" s="1264"/>
+      <c r="BA336" s="1265"/>
     </row>
     <row r="337" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG337" s="1265"/>
-      <c r="AH337" s="1266"/>
-      <c r="AI337" s="1267"/>
-      <c r="AP337" s="1268"/>
-      <c r="AQ337" s="1269"/>
-      <c r="AY337" s="1270"/>
-      <c r="AZ337" s="1271"/>
-      <c r="BA337" s="1272"/>
+      <c r="AG337" s="1266"/>
+      <c r="AH337" s="1267"/>
+      <c r="AI337" s="1268"/>
+      <c r="AP337" s="1269"/>
+      <c r="AQ337" s="1270"/>
+      <c r="AY337" s="1271"/>
+      <c r="AZ337" s="1272"/>
+      <c r="BA337" s="1273"/>
     </row>
     <row r="338" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG338" s="1273"/>
-      <c r="AH338" s="1274"/>
-      <c r="AI338" s="1275"/>
-      <c r="AP338" s="1276"/>
-      <c r="AQ338" s="1277"/>
-      <c r="AY338" s="1278"/>
-      <c r="AZ338" s="1279"/>
-      <c r="BA338" s="1280"/>
+      <c r="AG338" s="1274"/>
+      <c r="AH338" s="1275"/>
+      <c r="AI338" s="1276"/>
+      <c r="AP338" s="1277"/>
+      <c r="AQ338" s="1278"/>
+      <c r="AY338" s="1279"/>
+      <c r="AZ338" s="1280"/>
+      <c r="BA338" s="1281"/>
     </row>
     <row r="339" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG339" s="1281"/>
-      <c r="AH339" s="1282"/>
-      <c r="AI339" s="1283"/>
-      <c r="AP339" s="1284"/>
-      <c r="AQ339" s="1285"/>
-      <c r="AY339" s="1286"/>
-      <c r="AZ339" s="1287"/>
-      <c r="BA339" s="1288"/>
+      <c r="AG339" s="1282"/>
+      <c r="AH339" s="1283"/>
+      <c r="AI339" s="1284"/>
+      <c r="AP339" s="1285"/>
+      <c r="AQ339" s="1286"/>
+      <c r="AY339" s="1287"/>
+      <c r="AZ339" s="1288"/>
+      <c r="BA339" s="1289"/>
     </row>
     <row r="340" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG340" s="1289"/>
-      <c r="AH340" s="1290"/>
-      <c r="AI340" s="1291"/>
-      <c r="AP340" s="1292"/>
-      <c r="AQ340" s="1293"/>
-      <c r="AY340" s="1294"/>
-      <c r="AZ340" s="1295"/>
-      <c r="BA340" s="1296"/>
+      <c r="AG340" s="1290"/>
+      <c r="AH340" s="1291"/>
+      <c r="AI340" s="1292"/>
+      <c r="AP340" s="1293"/>
+      <c r="AQ340" s="1294"/>
+      <c r="AY340" s="1295"/>
+      <c r="AZ340" s="1296"/>
+      <c r="BA340" s="1297"/>
     </row>
     <row r="341" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG341" s="1297"/>
-      <c r="AH341" s="1298"/>
-      <c r="AI341" s="1299"/>
-      <c r="AP341" s="1300"/>
-      <c r="AQ341" s="1301"/>
-      <c r="AY341" s="1302"/>
-      <c r="AZ341" s="1303"/>
-      <c r="BA341" s="1304"/>
+      <c r="AG341" s="1298"/>
+      <c r="AH341" s="1299"/>
+      <c r="AI341" s="1300"/>
+      <c r="AP341" s="1301"/>
+      <c r="AQ341" s="1302"/>
+      <c r="AY341" s="1303"/>
+      <c r="AZ341" s="1304"/>
+      <c r="BA341" s="1305"/>
     </row>
     <row r="342" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG342" s="1305"/>
-      <c r="AH342" s="1306"/>
-      <c r="AI342" s="1307"/>
-      <c r="AP342" s="1308"/>
-      <c r="AQ342" s="1309"/>
-      <c r="AY342" s="1310"/>
-      <c r="AZ342" s="1311"/>
-      <c r="BA342" s="1312"/>
+      <c r="AG342" s="1306"/>
+      <c r="AH342" s="1307"/>
+      <c r="AI342" s="1308"/>
+      <c r="AP342" s="1309"/>
+      <c r="AQ342" s="1310"/>
+      <c r="AY342" s="1311"/>
+      <c r="AZ342" s="1312"/>
+      <c r="BA342" s="1313"/>
     </row>
     <row r="343" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG343" s="1313"/>
-      <c r="AH343" s="1314"/>
-      <c r="AI343" s="1315"/>
-      <c r="AP343" s="1316"/>
-      <c r="AQ343" s="1317"/>
-      <c r="AY343" s="1318"/>
-      <c r="AZ343" s="1319"/>
-      <c r="BA343" s="1320"/>
+      <c r="AG343" s="1314"/>
+      <c r="AH343" s="1315"/>
+      <c r="AI343" s="1316"/>
+      <c r="AP343" s="1317"/>
+      <c r="AQ343" s="1318"/>
+      <c r="AY343" s="1319"/>
+      <c r="AZ343" s="1320"/>
+      <c r="BA343" s="1321"/>
     </row>
     <row r="344" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG344" s="1321"/>
-      <c r="AH344" s="1322"/>
-      <c r="AI344" s="1323"/>
-      <c r="AP344" s="1324"/>
-      <c r="AQ344" s="1325"/>
-      <c r="AY344" s="1326"/>
-      <c r="AZ344" s="1327"/>
-      <c r="BA344" s="1328"/>
+      <c r="AG344" s="1322"/>
+      <c r="AH344" s="1323"/>
+      <c r="AI344" s="1324"/>
+      <c r="AP344" s="1325"/>
+      <c r="AQ344" s="1326"/>
+      <c r="AY344" s="1327"/>
+      <c r="AZ344" s="1328"/>
+      <c r="BA344" s="1329"/>
     </row>
     <row r="345" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG345" s="1329"/>
-      <c r="AH345" s="1330"/>
-      <c r="AI345" s="1331"/>
-      <c r="AP345" s="1332"/>
-      <c r="AQ345" s="1333"/>
-      <c r="AY345" s="1334"/>
-      <c r="AZ345" s="1335"/>
-      <c r="BA345" s="1336"/>
+      <c r="AG345" s="1330"/>
+      <c r="AH345" s="1331"/>
+      <c r="AI345" s="1332"/>
+      <c r="AP345" s="1333"/>
+      <c r="AQ345" s="1334"/>
+      <c r="AY345" s="1335"/>
+      <c r="AZ345" s="1336"/>
+      <c r="BA345" s="1337"/>
     </row>
     <row r="346" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG346" s="1337"/>
-      <c r="AH346" s="1338"/>
-      <c r="AI346" s="1339"/>
-      <c r="AP346" s="1340"/>
-      <c r="AQ346" s="1341"/>
-      <c r="AY346" s="1342"/>
-      <c r="AZ346" s="1343"/>
-      <c r="BA346" s="1344"/>
+      <c r="AG346" s="1338"/>
+      <c r="AH346" s="1339"/>
+      <c r="AI346" s="1340"/>
+      <c r="AP346" s="1341"/>
+      <c r="AQ346" s="1342"/>
+      <c r="AY346" s="1343"/>
+      <c r="AZ346" s="1344"/>
+      <c r="BA346" s="1345"/>
     </row>
     <row r="347" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG347" s="1345"/>
-      <c r="AH347" s="1346"/>
-      <c r="AI347" s="1347"/>
-      <c r="AP347" s="1348"/>
-      <c r="AQ347" s="1349"/>
-      <c r="AY347" s="1350"/>
-      <c r="AZ347" s="1351"/>
-      <c r="BA347" s="1352"/>
+      <c r="AG347" s="1346"/>
+      <c r="AH347" s="1347"/>
+      <c r="AI347" s="1348"/>
+      <c r="AP347" s="1349"/>
+      <c r="AQ347" s="1350"/>
+      <c r="AY347" s="1351"/>
+      <c r="AZ347" s="1352"/>
+      <c r="BA347" s="1353"/>
     </row>
     <row r="348" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG348" s="1353"/>
-      <c r="AH348" s="1354"/>
-      <c r="AI348" s="1355"/>
-      <c r="AP348" s="1356"/>
-      <c r="AQ348" s="1357"/>
-      <c r="AY348" s="1358"/>
-      <c r="AZ348" s="1359"/>
-      <c r="BA348" s="1360"/>
+      <c r="AG348" s="1354"/>
+      <c r="AH348" s="1355"/>
+      <c r="AI348" s="1356"/>
+      <c r="AP348" s="1357"/>
+      <c r="AQ348" s="1358"/>
+      <c r="AY348" s="1359"/>
+      <c r="AZ348" s="1360"/>
+      <c r="BA348" s="1361"/>
     </row>
     <row r="349" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG349" s="1361"/>
-      <c r="AH349" s="1362"/>
-      <c r="AI349" s="1363"/>
-      <c r="AP349" s="1364"/>
-      <c r="AQ349" s="1365"/>
-      <c r="AY349" s="1366"/>
-      <c r="AZ349" s="1367"/>
-      <c r="BA349" s="1368"/>
+      <c r="AG349" s="1362"/>
+      <c r="AH349" s="1363"/>
+      <c r="AI349" s="1364"/>
+      <c r="AP349" s="1365"/>
+      <c r="AQ349" s="1366"/>
+      <c r="AY349" s="1367"/>
+      <c r="AZ349" s="1368"/>
+      <c r="BA349" s="1369"/>
     </row>
     <row r="350" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG350" s="1369"/>
-      <c r="AH350" s="1370"/>
-      <c r="AI350" s="1371"/>
-      <c r="AP350" s="1372"/>
-      <c r="AQ350" s="1373"/>
-      <c r="AY350" s="1374"/>
-      <c r="AZ350" s="1375"/>
-      <c r="BA350" s="1376"/>
+      <c r="AG350" s="1370"/>
+      <c r="AH350" s="1371"/>
+      <c r="AI350" s="1372"/>
+      <c r="AP350" s="1373"/>
+      <c r="AQ350" s="1374"/>
+      <c r="AY350" s="1375"/>
+      <c r="AZ350" s="1376"/>
+      <c r="BA350" s="1377"/>
     </row>
     <row r="351" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG351" s="1377"/>
-      <c r="AH351" s="1378"/>
-      <c r="AI351" s="1379"/>
-      <c r="AP351" s="1380"/>
-      <c r="AQ351" s="1381"/>
-      <c r="AY351" s="1382"/>
-      <c r="AZ351" s="1383"/>
-      <c r="BA351" s="1384"/>
+      <c r="AG351" s="1378"/>
+      <c r="AH351" s="1379"/>
+      <c r="AI351" s="1380"/>
+      <c r="AP351" s="1381"/>
+      <c r="AQ351" s="1382"/>
+      <c r="AY351" s="1383"/>
+      <c r="AZ351" s="1384"/>
+      <c r="BA351" s="1385"/>
     </row>
     <row r="352" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG352" s="1385"/>
-      <c r="AH352" s="1386"/>
-      <c r="AI352" s="1387"/>
-      <c r="AP352" s="1388"/>
-      <c r="AQ352" s="1389"/>
-      <c r="AY352" s="1390"/>
-      <c r="AZ352" s="1391"/>
-      <c r="BA352" s="1392"/>
+      <c r="AG352" s="1386"/>
+      <c r="AH352" s="1387"/>
+      <c r="AI352" s="1388"/>
+      <c r="AP352" s="1389"/>
+      <c r="AQ352" s="1390"/>
+      <c r="AY352" s="1391"/>
+      <c r="AZ352" s="1392"/>
+      <c r="BA352" s="1393"/>
     </row>
     <row r="353" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG353" s="1393"/>
-      <c r="AH353" s="1394"/>
-      <c r="AI353" s="1395"/>
-      <c r="AP353" s="1396"/>
-      <c r="AQ353" s="1397"/>
-      <c r="AY353" s="1398"/>
-      <c r="AZ353" s="1399"/>
-      <c r="BA353" s="1400"/>
+      <c r="AG353" s="1394"/>
+      <c r="AH353" s="1395"/>
+      <c r="AI353" s="1396"/>
+      <c r="AP353" s="1397"/>
+      <c r="AQ353" s="1398"/>
+      <c r="AY353" s="1399"/>
+      <c r="AZ353" s="1400"/>
+      <c r="BA353" s="1401"/>
     </row>
     <row r="354" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG354" s="1401"/>
-      <c r="AH354" s="1402"/>
-      <c r="AI354" s="1403"/>
-      <c r="AP354" s="1404"/>
-      <c r="AQ354" s="1405"/>
-      <c r="AY354" s="1406"/>
-      <c r="AZ354" s="1407"/>
-      <c r="BA354" s="1408"/>
+      <c r="AG354" s="1402"/>
+      <c r="AH354" s="1403"/>
+      <c r="AI354" s="1404"/>
+      <c r="AP354" s="1405"/>
+      <c r="AQ354" s="1406"/>
+      <c r="AY354" s="1407"/>
+      <c r="AZ354" s="1408"/>
+      <c r="BA354" s="1409"/>
     </row>
     <row r="355" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG355" s="1409"/>
-      <c r="AH355" s="1410"/>
-      <c r="AI355" s="1411"/>
-      <c r="AP355" s="1412"/>
-      <c r="AQ355" s="1413"/>
-      <c r="AY355" s="1414"/>
-      <c r="AZ355" s="1415"/>
-      <c r="BA355" s="1416"/>
+      <c r="AG355" s="1410"/>
+      <c r="AH355" s="1411"/>
+      <c r="AI355" s="1412"/>
+      <c r="AP355" s="1413"/>
+      <c r="AQ355" s="1414"/>
+      <c r="AY355" s="1415"/>
+      <c r="AZ355" s="1416"/>
+      <c r="BA355" s="1417"/>
     </row>
     <row r="356" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG356" s="1417"/>
-      <c r="AH356" s="1418"/>
-      <c r="AI356" s="1419"/>
-      <c r="AP356" s="1420"/>
-      <c r="AQ356" s="1421"/>
-      <c r="AY356" s="1422"/>
-      <c r="AZ356" s="1423"/>
-      <c r="BA356" s="1424"/>
+      <c r="AG356" s="1418"/>
+      <c r="AH356" s="1419"/>
+      <c r="AI356" s="1420"/>
+      <c r="AP356" s="1421"/>
+      <c r="AQ356" s="1422"/>
+      <c r="AY356" s="1423"/>
+      <c r="AZ356" s="1424"/>
+      <c r="BA356" s="1425"/>
     </row>
     <row r="357" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG357" s="1425"/>
-      <c r="AH357" s="1426"/>
-      <c r="AI357" s="1427"/>
-      <c r="AP357" s="1428"/>
-      <c r="AQ357" s="1429"/>
-      <c r="AY357" s="1430"/>
-      <c r="AZ357" s="1431"/>
-      <c r="BA357" s="1432"/>
+      <c r="AG357" s="1426"/>
+      <c r="AH357" s="1427"/>
+      <c r="AI357" s="1428"/>
+      <c r="AP357" s="1429"/>
+      <c r="AQ357" s="1430"/>
+      <c r="AY357" s="1431"/>
+      <c r="AZ357" s="1432"/>
+      <c r="BA357" s="1433"/>
     </row>
     <row r="358" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG358" s="1433"/>
-      <c r="AH358" s="1434"/>
-      <c r="AP358" s="1435"/>
-      <c r="AQ358" s="1436"/>
-      <c r="AY358" s="1437"/>
-      <c r="AZ358" s="1438"/>
-      <c r="BA358" s="1439"/>
+      <c r="AG358" s="1434"/>
+      <c r="AH358" s="1435"/>
+      <c r="AP358" s="1436"/>
+      <c r="AQ358" s="1437"/>
+      <c r="AY358" s="1438"/>
+      <c r="AZ358" s="1439"/>
+      <c r="BA358" s="1440"/>
     </row>
     <row r="359" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG359" s="1440"/>
-      <c r="AH359" s="1441"/>
-      <c r="AP359" s="1442"/>
-      <c r="AQ359" s="1443"/>
-      <c r="AY359" s="1444"/>
-      <c r="AZ359" s="1445"/>
-      <c r="BA359" s="1446"/>
+      <c r="AG359" s="1441"/>
+      <c r="AH359" s="1442"/>
+      <c r="AP359" s="1443"/>
+      <c r="AQ359" s="1444"/>
+      <c r="AY359" s="1445"/>
+      <c r="AZ359" s="1446"/>
+      <c r="BA359" s="1447"/>
     </row>
     <row r="360" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG360" s="1447"/>
-      <c r="AH360" s="1448"/>
-      <c r="AP360" s="1449"/>
-      <c r="AQ360" s="1450"/>
-      <c r="AY360" s="1451"/>
-      <c r="AZ360" s="1452"/>
-      <c r="BA360" s="1453"/>
+      <c r="AG360" s="1448"/>
+      <c r="AH360" s="1449"/>
+      <c r="AP360" s="1450"/>
+      <c r="AQ360" s="1451"/>
+      <c r="AY360" s="1452"/>
+      <c r="AZ360" s="1453"/>
+      <c r="BA360" s="1454"/>
     </row>
     <row r="361" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG361" s="1454"/>
-      <c r="AH361" s="1455"/>
-      <c r="AP361" s="1456"/>
-      <c r="AQ361" s="1457"/>
-      <c r="AY361" s="1458"/>
-      <c r="AZ361" s="1459"/>
-      <c r="BA361" s="1460"/>
+      <c r="AG361" s="1455"/>
+      <c r="AH361" s="1456"/>
+      <c r="AP361" s="1457"/>
+      <c r="AQ361" s="1458"/>
+      <c r="AY361" s="1459"/>
+      <c r="AZ361" s="1460"/>
+      <c r="BA361" s="1461"/>
     </row>
     <row r="362" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG362" s="1461"/>
-      <c r="AH362" s="1462"/>
-      <c r="AP362" s="1463"/>
-      <c r="AQ362" s="1464"/>
-      <c r="AY362" s="1465"/>
-      <c r="AZ362" s="1466"/>
-      <c r="BA362" s="1467"/>
+      <c r="AG362" s="1462"/>
+      <c r="AH362" s="1463"/>
+      <c r="AP362" s="1464"/>
+      <c r="AQ362" s="1465"/>
+      <c r="AY362" s="1466"/>
+      <c r="AZ362" s="1467"/>
+      <c r="BA362" s="1468"/>
     </row>
     <row r="363" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG363" s="1468"/>
-      <c r="AH363" s="1469"/>
-      <c r="AP363" s="1470"/>
-      <c r="AQ363" s="1471"/>
-      <c r="AY363" s="1472"/>
-      <c r="AZ363" s="1473"/>
-      <c r="BA363" s="1474"/>
+      <c r="AG363" s="1469"/>
+      <c r="AH363" s="1470"/>
+      <c r="AP363" s="1471"/>
+      <c r="AQ363" s="1472"/>
+      <c r="AY363" s="1473"/>
+      <c r="AZ363" s="1474"/>
+      <c r="BA363" s="1475"/>
     </row>
     <row r="364" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG364" s="1475"/>
-      <c r="AH364" s="1476"/>
-      <c r="AP364" s="1477"/>
-      <c r="AQ364" s="1478"/>
-      <c r="AY364" s="1479"/>
-      <c r="AZ364" s="1480"/>
-      <c r="BA364" s="1481"/>
+      <c r="AG364" s="1476"/>
+      <c r="AH364" s="1477"/>
+      <c r="AP364" s="1478"/>
+      <c r="AQ364" s="1479"/>
+      <c r="AY364" s="1480"/>
+      <c r="AZ364" s="1481"/>
+      <c r="BA364" s="1482"/>
     </row>
     <row r="365" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG365" s="1482"/>
-      <c r="AH365" s="1483"/>
-      <c r="AP365" s="1484"/>
-      <c r="AQ365" s="1485"/>
-      <c r="AY365" s="1486"/>
-      <c r="AZ365" s="1487"/>
-      <c r="BA365" s="1488"/>
+      <c r="AG365" s="1483"/>
+      <c r="AH365" s="1484"/>
+      <c r="AP365" s="1485"/>
+      <c r="AQ365" s="1486"/>
+      <c r="AY365" s="1487"/>
+      <c r="AZ365" s="1488"/>
+      <c r="BA365" s="1489"/>
     </row>
     <row r="366" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG366" s="1489"/>
-      <c r="AH366" s="1490"/>
-      <c r="AP366" s="1491"/>
-      <c r="AQ366" s="1492"/>
-      <c r="AY366" s="1493"/>
-      <c r="AZ366" s="1494"/>
-      <c r="BA366" s="1495"/>
+      <c r="AG366" s="1490"/>
+      <c r="AH366" s="1491"/>
+      <c r="AP366" s="1492"/>
+      <c r="AQ366" s="1493"/>
+      <c r="AY366" s="1494"/>
+      <c r="AZ366" s="1495"/>
+      <c r="BA366" s="1496"/>
     </row>
     <row r="367" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG367" s="1496"/>
-      <c r="AH367" s="1497"/>
-      <c r="AP367" s="1498"/>
-      <c r="AQ367" s="1499"/>
-      <c r="AY367" s="1500"/>
-      <c r="AZ367" s="1501"/>
-      <c r="BA367" s="1502"/>
+      <c r="AG367" s="1497"/>
+      <c r="AH367" s="1498"/>
+      <c r="AP367" s="1499"/>
+      <c r="AQ367" s="1500"/>
+      <c r="AY367" s="1501"/>
+      <c r="AZ367" s="1502"/>
+      <c r="BA367" s="1503"/>
     </row>
     <row r="368" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG368" s="1503"/>
-      <c r="AH368" s="1504"/>
-      <c r="AP368" s="1505"/>
-      <c r="AQ368" s="1506"/>
-      <c r="AY368" s="1507"/>
-      <c r="AZ368" s="1508"/>
-      <c r="BA368" s="1509"/>
+      <c r="AG368" s="1504"/>
+      <c r="AH368" s="1505"/>
+      <c r="AP368" s="1506"/>
+      <c r="AQ368" s="1507"/>
+      <c r="AY368" s="1508"/>
+      <c r="AZ368" s="1509"/>
+      <c r="BA368" s="1510"/>
     </row>
     <row r="369" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AG369" s="1510"/>
-      <c r="AH369" s="1511"/>
-      <c r="AP369" s="1512"/>
-      <c r="AQ369" s="1513"/>
-      <c r="AY369" s="1514"/>
-      <c r="AZ369" s="1515"/>
-      <c r="BA369" s="1516"/>
+      <c r="AG369" s="1511"/>
+      <c r="AH369" s="1512"/>
+      <c r="AP369" s="1513"/>
+      <c r="AQ369" s="1514"/>
+      <c r="AY369" s="1515"/>
+      <c r="AZ369" s="1516"/>
+      <c r="BA369" s="1517"/>
     </row>
     <row r="370" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH370" s="1517"/>
+      <c r="AH370" s="1518"/>
     </row>
     <row r="371" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH371" s="1518"/>
+      <c r="AH371" s="1519"/>
     </row>
     <row r="372" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH372" s="1519"/>
+      <c r="AH372" s="1520"/>
     </row>
     <row r="373" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH373" s="1520"/>
+      <c r="AH373" s="1521"/>
     </row>
     <row r="374" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH374" s="1521"/>
+      <c r="AH374" s="1522"/>
     </row>
     <row r="375" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH375" s="1522"/>
+      <c r="AH375" s="1523"/>
     </row>
     <row r="376" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH376" s="1523"/>
+      <c r="AH376" s="1524"/>
     </row>
     <row r="377" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH377" s="1524"/>
+      <c r="AH377" s="1525"/>
     </row>
     <row r="378" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH378" s="1525"/>
+      <c r="AH378" s="1526"/>
     </row>
     <row r="379" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH379" s="1526"/>
+      <c r="AH379" s="1527"/>
     </row>
     <row r="380" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH380" s="1527"/>
+      <c r="AH380" s="1528"/>
     </row>
     <row r="381" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH381" s="1528"/>
+      <c r="AH381" s="1529"/>
     </row>
     <row r="382" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH382" s="1529"/>
+      <c r="AH382" s="1530"/>
     </row>
     <row r="383" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH383" s="1530"/>
+      <c r="AH383" s="1531"/>
     </row>
     <row r="384" spans="33:53" x14ac:dyDescent="0.25">
-      <c r="AH384" s="1531"/>
+      <c r="AH384" s="1532"/>
     </row>
     <row r="385" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH385" s="1532"/>
+      <c r="AH385" s="1533"/>
     </row>
     <row r="386" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH386" s="1533"/>
+      <c r="AH386" s="1534"/>
     </row>
     <row r="387" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH387" s="1534"/>
+      <c r="AH387" s="1535"/>
     </row>
     <row r="388" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH388" s="1535"/>
+      <c r="AH388" s="1536"/>
     </row>
     <row r="389" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH389" s="1536"/>
+      <c r="AH389" s="1537"/>
     </row>
     <row r="390" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH390" s="1537"/>
+      <c r="AH390" s="1538"/>
     </row>
     <row r="391" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH391" s="1538"/>
+      <c r="AH391" s="1539"/>
     </row>
     <row r="392" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH392" s="1539"/>
+      <c r="AH392" s="1540"/>
     </row>
     <row r="393" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH393" s="1540"/>
+      <c r="AH393" s="1541"/>
     </row>
     <row r="394" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH394" s="1541"/>
+      <c r="AH394" s="1542"/>
     </row>
     <row r="395" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH395" s="1542"/>
+      <c r="AH395" s="1543"/>
     </row>
     <row r="396" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH396" s="1543"/>
+      <c r="AH396" s="1544"/>
     </row>
     <row r="397" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH397" s="1544"/>
+      <c r="AH397" s="1545"/>
     </row>
     <row r="398" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH398" s="1545"/>
+      <c r="AH398" s="1546"/>
     </row>
     <row r="399" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH399" s="1546"/>
+      <c r="AH399" s="1547"/>
     </row>
     <row r="400" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH400" s="1547"/>
+      <c r="AH400" s="1548"/>
     </row>
     <row r="401" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH401" s="1548"/>
+      <c r="AH401" s="1549"/>
     </row>
     <row r="402" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH402" s="1549"/>
+      <c r="AH402" s="1550"/>
     </row>
     <row r="403" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH403" s="1550"/>
+      <c r="AH403" s="1551"/>
     </row>
     <row r="404" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH404" s="1551"/>
+      <c r="AH404" s="1552"/>
     </row>
     <row r="405" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH405" s="1552"/>
+      <c r="AH405" s="1553"/>
     </row>
     <row r="406" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH406" s="1553"/>
+      <c r="AH406" s="1554"/>
     </row>
     <row r="407" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH407" s="1554"/>
+      <c r="AH407" s="1555"/>
     </row>
     <row r="408" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH408" s="1555"/>
+      <c r="AH408" s="1556"/>
     </row>
     <row r="409" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH409" s="1556"/>
+      <c r="AH409" s="1557"/>
     </row>
     <row r="410" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH410" s="1557"/>
+      <c r="AH410" s="1558"/>
     </row>
     <row r="411" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH411" s="1558"/>
+      <c r="AH411" s="1559"/>
     </row>
     <row r="412" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH412" s="1559"/>
+      <c r="AH412" s="1560"/>
     </row>
     <row r="413" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH413" s="1560"/>
+      <c r="AH413" s="1561"/>
     </row>
     <row r="414" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH414" s="1561"/>
+      <c r="AH414" s="1562"/>
     </row>
     <row r="415" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH415" s="1562"/>
+      <c r="AH415" s="1563"/>
     </row>
     <row r="416" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH416" s="1563"/>
+      <c r="AH416" s="1564"/>
     </row>
     <row r="417" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH417" s="1564"/>
+      <c r="AH417" s="1565"/>
     </row>
     <row r="418" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH418" s="1565"/>
+      <c r="AH418" s="1566"/>
     </row>
     <row r="419" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH419" s="1566"/>
+      <c r="AH419" s="1567"/>
     </row>
     <row r="420" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH420" s="1567"/>
+      <c r="AH420" s="1568"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
